--- a/static/exportados/empleados_exportados.xlsx
+++ b/static/exportados/empleados_exportados.xlsx
@@ -5763,7 +5763,11 @@
           <t>2317577632</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>

--- a/static/exportados/empleados_exportados.xlsx
+++ b/static/exportados/empleados_exportados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z99"/>
+  <dimension ref="A1:X98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,57 +511,47 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>vacaciones</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>prestamo_fecha_prestamo</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>prestamo_monto</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>prestamo_cuotas</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>prestamo_cancelado</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>prestamo_pendiente</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>prestamo_proxima_cuota</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>prestamo_cuotas_pendientes</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>prestamo_fecha_cancelacion</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>direccion</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>vacaciones</t>
         </is>
       </c>
     </row>
@@ -616,14 +606,20 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2317417980</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="n">
+        <v>35</v>
+      </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
@@ -632,8 +628,6 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -686,14 +680,20 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2345652810</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="n">
+        <v>35</v>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
@@ -702,8 +702,6 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -756,14 +754,20 @@
       <c r="L4" t="n">
         <v>0</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2215540184</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="n">
+        <v>35</v>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
@@ -772,8 +776,6 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -820,13 +822,17 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>15-05-1944</t>
+          <t>15-05-1942</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2317519121</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>empleado</t>
@@ -842,8 +848,6 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -896,7 +900,11 @@
       <c r="L6" t="n">
         <v>0</v>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>empleado</t>
@@ -912,8 +920,6 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -966,14 +972,20 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2317508259</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="n">
+        <v>42</v>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
@@ -982,8 +994,6 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1036,14 +1046,20 @@
       <c r="L8" t="n">
         <v>0</v>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2317449596</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="n">
+        <v>93</v>
+      </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
@@ -1052,8 +1068,6 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1106,14 +1120,20 @@
       <c r="L9" t="n">
         <v>0</v>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2314610860</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>18</v>
+      </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
@@ -1122,8 +1142,6 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1176,14 +1194,20 @@
       <c r="L10" t="n">
         <v>0</v>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2317474481</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>41</v>
+      </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
@@ -1192,8 +1216,6 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1246,14 +1268,20 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2317465115</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="n">
+        <v>61</v>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
@@ -1262,8 +1290,6 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1316,44 +1342,40 @@
       <c r="L12" t="n">
         <v>0</v>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2317449822</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>17-08-2023</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
         <v>3059282.67</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>24</v>
       </c>
-      <c r="S12" t="n">
-        <v>2039521.760000001</v>
-      </c>
       <c r="T12" t="n">
-        <v>-1019760.909999999</v>
+        <v>2166991.870000001</v>
       </c>
       <c r="U12" t="n">
+        <v>-892290.7999999993</v>
+      </c>
+      <c r="V12" t="n">
         <v>127470.11</v>
       </c>
-      <c r="V12" t="n">
-        <v>8</v>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>17-07-2025</t>
-        </is>
+      <c r="W12" t="n">
+        <v>7</v>
       </c>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1406,14 +1428,20 @@
       <c r="L13" t="n">
         <v>0</v>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2317449590</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="n">
+        <v>14</v>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1422,8 +1450,6 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1476,14 +1502,20 @@
       <c r="L14" t="n">
         <v>0</v>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2317462999</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
@@ -1492,8 +1524,6 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1546,24 +1576,40 @@
       <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2317450257</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="P15" t="n">
+        <v>14</v>
+      </c>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="S15" t="n">
+        <v>6</v>
+      </c>
+      <c r="T15" t="n">
+        <v>250000</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-1250000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>250000</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5</v>
+      </c>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1616,24 +1662,40 @@
       <c r="L16" t="n">
         <v>0</v>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2317403313</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="P16" t="n">
+        <v>14</v>
+      </c>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>300000</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>150000</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-150000</v>
+      </c>
+      <c r="V16" t="n">
+        <v>75000</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2</v>
+      </c>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1686,14 +1748,20 @@
       <c r="L17" t="n">
         <v>0</v>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2364450678</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="n">
+        <v>14</v>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
@@ -1702,8 +1770,6 @@
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1756,14 +1822,20 @@
       <c r="L18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2317557964</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="P18" t="n">
+        <v>49</v>
+      </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
@@ -1772,8 +1844,6 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1837,7 +1907,9 @@
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="n">
+        <v>47</v>
+      </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
@@ -1846,8 +1918,6 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1900,7 +1970,11 @@
       <c r="L20" t="n">
         <v>0</v>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2392568713</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
           <t>empleado</t>
@@ -1916,8 +1990,6 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1970,14 +2042,20 @@
       <c r="L21" t="n">
         <v>0</v>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2317537021</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="n">
+        <v>21</v>
+      </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
@@ -1986,8 +2064,6 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2040,14 +2116,20 @@
       <c r="L22" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2317463155</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="n">
+        <v>40</v>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
@@ -2056,8 +2138,6 @@
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2110,14 +2190,20 @@
       <c r="L23" t="n">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2317536400</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="n">
+        <v>21</v>
+      </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
@@ -2126,8 +2212,6 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2180,14 +2264,20 @@
       <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2317572488</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="n">
+        <v>30</v>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
@@ -2196,8 +2286,6 @@
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2250,14 +2338,20 @@
       <c r="L25" t="n">
         <v>0</v>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2317405463</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="P25" t="n">
+        <v>7</v>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
@@ -2266,8 +2360,6 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2320,14 +2412,20 @@
       <c r="L26" t="n">
         <v>0</v>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2317526517</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="P26" t="n">
+        <v>15</v>
+      </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
@@ -2336,8 +2434,6 @@
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2390,14 +2486,20 @@
       <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2355525558</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="P27" t="n">
+        <v>21</v>
+      </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
@@ -2406,8 +2508,6 @@
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2460,24 +2560,40 @@
       <c r="L28" t="n">
         <v>0</v>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2317517627</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="S28" t="n">
+        <v>7</v>
+      </c>
+      <c r="T28" t="n">
+        <v>900000</v>
+      </c>
+      <c r="U28" t="n">
+        <v>-1100000</v>
+      </c>
+      <c r="V28" t="n">
+        <v>300000</v>
+      </c>
+      <c r="W28" t="n">
+        <v>3</v>
+      </c>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2530,7 +2646,11 @@
       <c r="L29" t="n">
         <v>0</v>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2317471567</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>empleado</t>
@@ -2546,8 +2666,6 @@
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2600,14 +2718,20 @@
       <c r="L30" t="n">
         <v>0</v>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1163607451</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="P30" t="n">
+        <v>30</v>
+      </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
@@ -2616,8 +2740,6 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2670,14 +2792,20 @@
       <c r="L31" t="n">
         <v>0</v>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1161076080</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="P31" t="n">
+        <v>30</v>
+      </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
@@ -2686,8 +2814,6 @@
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2740,14 +2866,20 @@
       <c r="L32" t="n">
         <v>0</v>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2317463460</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="P32" t="n">
+        <v>14</v>
+      </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
@@ -2756,8 +2888,6 @@
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2810,14 +2940,20 @@
       <c r="L33" t="n">
         <v>0</v>
       </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2317533054</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="P33" t="n">
+        <v>7</v>
+      </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
@@ -2826,8 +2962,6 @@
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2880,14 +3014,20 @@
       <c r="L34" t="n">
         <v>0</v>
       </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2317474366</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="P34" t="n">
+        <v>28</v>
+      </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
@@ -2896,8 +3036,6 @@
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2950,14 +3088,20 @@
       <c r="L35" t="n">
         <v>0</v>
       </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2317415639</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="P35" t="n">
+        <v>12</v>
+      </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
@@ -2966,8 +3110,6 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3020,14 +3162,20 @@
       <c r="L36" t="n">
         <v>0</v>
       </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2317582325</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="P36" t="n">
+        <v>7</v>
+      </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
@@ -3036,8 +3184,6 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3090,24 +3236,40 @@
       <c r="L37" t="n">
         <v>0</v>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2317582468</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="n">
+        <v>300000</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-700000</v>
+      </c>
+      <c r="V37" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W37" t="n">
+        <v>7</v>
+      </c>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3160,14 +3322,20 @@
       <c r="L38" t="n">
         <v>0</v>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2317622491</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+      <c r="P38" t="n">
+        <v>7</v>
+      </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
@@ -3176,8 +3344,6 @@
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3230,14 +3396,20 @@
       <c r="L39" t="n">
         <v>0</v>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2317532468</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+      <c r="P39" t="n">
+        <v>14</v>
+      </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
@@ -3246,8 +3418,6 @@
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3300,14 +3470,20 @@
       <c r="L40" t="n">
         <v>0</v>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2317474064</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
+      <c r="P40" t="n">
+        <v>14</v>
+      </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
@@ -3316,8 +3492,6 @@
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3370,44 +3544,40 @@
       <c r="L41" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2317576730</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>08-05-2025</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="n">
         <v>700000</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>6</v>
       </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
       <c r="T41" t="n">
-        <v>-700000</v>
+        <v>116000</v>
       </c>
       <c r="U41" t="n">
+        <v>-584000</v>
+      </c>
+      <c r="V41" t="n">
         <v>116000</v>
       </c>
-      <c r="V41" t="n">
-        <v>6</v>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>08-10-2025</t>
-        </is>
+      <c r="W41" t="n">
+        <v>5</v>
       </c>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3460,44 +3630,40 @@
       <c r="L42" t="n">
         <v>0</v>
       </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2317504260</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>08-04-2025</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="n">
         <v>2000000</v>
       </c>
-      <c r="R42" t="n">
+      <c r="S42" t="n">
         <v>9</v>
       </c>
-      <c r="S42" t="n">
+      <c r="T42" t="n">
+        <v>450000</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-1550000</v>
+      </c>
+      <c r="V42" t="n">
         <v>225000</v>
       </c>
-      <c r="T42" t="n">
-        <v>-1775000</v>
-      </c>
-      <c r="U42" t="n">
-        <v>225000</v>
-      </c>
-      <c r="V42" t="n">
-        <v>7</v>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>08-12-2025</t>
-        </is>
+      <c r="W42" t="n">
+        <v>6</v>
       </c>
       <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3550,14 +3716,20 @@
       <c r="L43" t="n">
         <v>0</v>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2317447906</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+      <c r="P43" t="n">
+        <v>15</v>
+      </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
@@ -3566,8 +3738,6 @@
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3620,14 +3790,20 @@
       <c r="L44" t="n">
         <v>0</v>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1168226903</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="P44" t="n">
+        <v>32</v>
+      </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
@@ -3636,8 +3812,6 @@
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3690,14 +3864,20 @@
       <c r="L45" t="n">
         <v>0</v>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2317585882</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" t="n">
+        <v>21</v>
+      </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
@@ -3706,8 +3886,6 @@
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3760,14 +3938,20 @@
       <c r="L46" t="n">
         <v>0</v>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>2317516193</t>
+        </is>
+      </c>
       <c r="N46" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+      <c r="P46" t="n">
+        <v>7</v>
+      </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
@@ -3776,8 +3960,6 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3830,14 +4012,20 @@
       <c r="L47" t="n">
         <v>0</v>
       </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2317584956</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
@@ -3846,8 +4034,6 @@
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3900,64 +4086,60 @@
       <c r="L48" t="n">
         <v>0</v>
       </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>2317400309</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>04-02-2025</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
+      <c r="P48" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="n">
         <v>883884.25</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
         <v>8</v>
       </c>
-      <c r="S48" t="n">
-        <v>331456.59</v>
-      </c>
       <c r="T48" t="n">
-        <v>-552427.66</v>
+        <v>441942.12</v>
       </c>
       <c r="U48" t="n">
+        <v>-441942.13</v>
+      </c>
+      <c r="V48" t="n">
         <v>110485.53</v>
       </c>
-      <c r="V48" t="n">
-        <v>5</v>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>04-09-2025</t>
-        </is>
+      <c r="W48" t="n">
+        <v>4</v>
       </c>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>20-31114244-6</t>
+          <t>20-35408028-2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lenain</t>
+          <t>Morales</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Joaquín Aníbal</t>
+          <t>Juan Pablo</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3984,50 +4166,66 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>04-10-1984</t>
+          <t>25-06-1990</t>
         </is>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2317406172</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="S49" t="n">
+        <v>12</v>
+      </c>
+      <c r="T49" t="n">
+        <v>599999</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-2200001</v>
+      </c>
+      <c r="V49" t="n">
+        <v>500001</v>
+      </c>
+      <c r="W49" t="n">
+        <v>8</v>
+      </c>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>20-35408028-2</t>
+          <t>20-32692443-2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Morales</t>
+          <t>Feito</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Juan Pablo</t>
+          <t>David</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4037,12 +4235,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>Trenque Lauquen</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>03-04-2019</t>
+          <t>03-01-2020</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4054,70 +4252,54 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>25-06-1990</t>
+          <t>30-12-1986</t>
         </is>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2392540656</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>03-02-2025</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>2800000</v>
-      </c>
-      <c r="R50" t="n">
-        <v>12</v>
-      </c>
-      <c r="S50" t="n">
-        <v>399999</v>
-      </c>
-      <c r="T50" t="n">
-        <v>-2400001</v>
-      </c>
-      <c r="U50" t="n">
-        <v>200000</v>
-      </c>
-      <c r="V50" t="n">
-        <v>12</v>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>03-01-2026</t>
-        </is>
-      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>20-32692443-2</t>
+          <t>20-31216748-5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Feito</t>
+          <t>Segovia</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Mario</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4144,20 +4326,26 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>30-12-1986</t>
+          <t>26-10-1984</t>
         </is>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2392484152</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
@@ -4166,28 +4354,26 @@
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>20-31216748-5</t>
+          <t>20-36388585-4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Segovia</t>
+          <t>Retamozo</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mario</t>
+          <t>Martín</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4214,20 +4400,26 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>26-10-1984</t>
+          <t>11-06-1991</t>
         </is>
       </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2392572784</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
@@ -4236,33 +4428,31 @@
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>20-36388585-4</t>
+          <t>27-27856070-3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Retamozo</t>
+          <t>Arrieta</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Martín</t>
+          <t>María Carolina</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Maestranza</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4272,7 +4462,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>03-01-2020</t>
+          <t>21-01-2020</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4284,20 +4474,26 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>11-06-1991</t>
+          <t>02-03-1980</t>
         </is>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2392493707</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
@@ -4306,33 +4502,31 @@
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>27-27856070-3</t>
+          <t>20-34382633-9</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Arrieta</t>
+          <t>Campo</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>María Carolina</t>
+          <t>Abel</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Maestranza</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4342,7 +4536,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21-01-2020</t>
+          <t>02-03-2020</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4354,20 +4548,26 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>02-03-1980</t>
+          <t>13-02-1989</t>
         </is>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2392531248</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
@@ -4376,38 +4576,36 @@
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>20-34382633-9</t>
+          <t>27-36189171-1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Campo</t>
+          <t>Raimondi</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Abel</t>
+          <t>Melina</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Administracion</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Trenque Lauquen</t>
+          <t>9 de Julio</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4420,17 +4618,29 @@
           <t>Activo</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>30-08-2024</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Renuncia</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>13-02-1989</t>
+          <t>09-07-1991</t>
         </is>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>2317534323</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr">
         <is>
           <t>empleado</t>
@@ -4446,33 +4656,31 @@
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>27-36189171-1</t>
+          <t>20-34717746-7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Raimondi</t>
+          <t>Canepa</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Melina</t>
+          <t>Fernando</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Administracion</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4482,7 +4690,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02-03-2020</t>
+          <t>03-04-2020</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4490,62 +4698,70 @@
           <t>Activo</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>30-08-2024</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Renuncia</t>
-        </is>
-      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>09-07-1991</t>
+          <t>19-02-1989</t>
         </is>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2317525966</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>500000</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-500000</v>
+      </c>
+      <c r="V56" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W56" t="n">
+        <v>5</v>
+      </c>
       <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>20-34717746-7</t>
+          <t>27-24907120-5</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Canepa</t>
+          <t>Cepeda</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Fernando</t>
+          <t>Rosana</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4560,7 +4776,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>03-04-2020</t>
+          <t>04-05-2020</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4572,20 +4788,26 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>19-02-1989</t>
+          <t>20-10-1975</t>
         </is>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>2317402129</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+      <c r="P57" t="n">
+        <v>19</v>
+      </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
@@ -4594,28 +4816,26 @@
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>27-24907120-5</t>
+          <t>20-32174082-1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cepeda</t>
+          <t>Ercoreca</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Rosana</t>
+          <t>Cristian Iván</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4630,7 +4850,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>04-05-2020</t>
+          <t>03-05-2021</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4642,20 +4862,26 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>20-10-1975</t>
+          <t>06-01-1986</t>
         </is>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2317530596</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
@@ -4664,28 +4890,26 @@
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>1033</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>20-32174082-1</t>
+          <t>20-30138759-9</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ercoreca</t>
+          <t>Carballo</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Cristian Iván</t>
+          <t>Alejandro</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4695,12 +4919,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>Acopio</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>03-05-2021</t>
+          <t>08-07-2021</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4712,20 +4936,26 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>06-01-1986</t>
+          <t>01-01-1984</t>
         </is>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2317534669</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
@@ -4734,43 +4964,41 @@
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>20-30138759-9</t>
+          <t>20-30830792-2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Carballo</t>
+          <t>Morales</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Alejandro</t>
+          <t>Fernando Oscar</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Extrusados</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Acopio</t>
+          <t>Extrusado</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>08-07-2021</t>
+          <t>20-09-2021</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4782,20 +5010,26 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>01-01-1984</t>
+          <t>14-05-1984</t>
         </is>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>2317446392</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
+      <c r="P60" t="n">
+        <v>22</v>
+      </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
@@ -4804,43 +5038,41 @@
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>20-30830792-2</t>
+          <t>20-29108436-3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Morales</t>
+          <t>Buldain</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Fernando Oscar</t>
+          <t>Patricio Gaston</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Extrusados</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Extrusado</t>
+          <t>9 de Julio</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20-09-2021</t>
+          <t>01-12-2021</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4852,50 +5084,66 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>14-05-1984</t>
+          <t>19-11-1981</t>
         </is>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2317581658</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+      <c r="R61" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="n">
+        <v>500000</v>
+      </c>
+      <c r="U61" t="n">
+        <v>-500000</v>
+      </c>
+      <c r="V61" t="n">
+        <v>250000</v>
+      </c>
+      <c r="W61" t="n">
+        <v>2</v>
+      </c>
       <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>20-29108436-3</t>
+          <t>20-26308803-5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Buldain</t>
+          <t>Ortiz</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Patricio Gaston</t>
+          <t>Leonardo Damian</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4910,7 +5158,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>01-12-2021</t>
+          <t>01-02-2022</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4922,50 +5170,66 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>19-11-1981</t>
+          <t>31-10-1977</t>
         </is>
       </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2317418729</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>200000</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="n">
+        <v>50000</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-150000</v>
+      </c>
+      <c r="V62" t="n">
+        <v>50000</v>
+      </c>
+      <c r="W62" t="n">
+        <v>3</v>
+      </c>
       <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>20-26308803-5</t>
+          <t>20-40978681-3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ortiz</t>
+          <t>Pacheco</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Leonardo Damian</t>
+          <t>Pablo Oscar</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4980,7 +5244,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>01-02-2022</t>
+          <t>19-03-2022</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4992,50 +5256,66 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>31-10-1977</t>
+          <t>12-01-1998</t>
         </is>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2345535406</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+      <c r="P63" t="n">
+        <v>7</v>
+      </c>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>2485430.64</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10</v>
+      </c>
+      <c r="T63" t="n">
+        <v>250000</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-2235430.64</v>
+      </c>
+      <c r="V63" t="n">
+        <v>250000</v>
+      </c>
+      <c r="W63" t="n">
+        <v>8</v>
+      </c>
       <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>20-40978681-3</t>
+          <t>20-43970503-6</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Pacheco</t>
+          <t>Canepa</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Pablo Oscar</t>
+          <t>Santiago</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5050,7 +5330,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>19-03-2022</t>
+          <t>21-07-2022</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5062,55 +5342,71 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>12-01-1998</t>
+          <t>09-01-2002</t>
         </is>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>2317537282</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>6730514.9</v>
+      </c>
+      <c r="S64" t="n">
+        <v>30</v>
+      </c>
+      <c r="T64" t="n">
+        <v>673051.5</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-6057463.4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>224350.5</v>
+      </c>
+      <c r="W64" t="n">
+        <v>26</v>
+      </c>
       <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>20-43970503-6</t>
+          <t>20-30830857-0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Canepa</t>
+          <t>Zega</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>Maximiliano</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>RRHH</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5120,7 +5416,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>21-07-2022</t>
+          <t>14-09-2022</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5132,61 +5428,81 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>09-01-2002</t>
+          <t>07-07-1984</t>
         </is>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>2317415313</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
+      <c r="P65" t="n">
+        <v>35</v>
+      </c>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>300000</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="n">
+        <v>150000</v>
+      </c>
+      <c r="U65" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V65" t="n">
+        <v>150000</v>
+      </c>
+      <c r="W65" t="n">
+        <v>2</v>
+      </c>
       <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>20-30830857-0</t>
+          <t>27-40425452-4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Zega</t>
+          <t>Maidana</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Maximiliano</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>RRHH</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
+          <t>Logistica</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>14-09-2022</t>
+          <t>03-10-2022</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5198,18 +5514,26 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>07-07-1984</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+          <t>07-07-1997</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2317415313</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr"/>
+          <t>2317513578</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
@@ -5218,35 +5542,31 @@
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>27-40425452-4</t>
+          <t>20-24347347-1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Maidana</t>
+          <t>Leunda</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Ariana</t>
+          <t>Gabriel Oscar</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Logistica</t>
+          <t>Administracion</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5256,7 +5576,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>03-10-2022</t>
+          <t>02-01-2023</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5268,20 +5588,26 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>07-07-1997</t>
+          <t>25-05-1975</t>
         </is>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>2317525902</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
+      <c r="P67" t="n">
+        <v>11</v>
+      </c>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
@@ -5290,43 +5616,41 @@
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>27-25153220-1</t>
+          <t>20-44112951-4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Ponce</t>
+          <t>Montenovo</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Julieta</t>
+          <t>Valentino</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Maestranza</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>Acopio</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>03-10-2022</t>
+          <t>09-01-2023</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5338,20 +5662,26 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>29-06-1976</t>
+          <t>27-03-2002</t>
         </is>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>2317401052</t>
+        </is>
+      </c>
       <c r="N68" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
+      <c r="P68" t="n">
+        <v>7</v>
+      </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
@@ -5360,33 +5690,31 @@
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>20-24347347-1</t>
+          <t>20-43045494-4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Leunda</t>
+          <t>Romano Rivera</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Gabriel Oscar</t>
+          <t>Valentino</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Administracion</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5396,7 +5724,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>02-01-2023</t>
+          <t>13-01-2023</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5408,20 +5736,26 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>25-05-1975</t>
+          <t>28-11-2000</t>
         </is>
       </c>
       <c r="L69" t="n">
         <v>0</v>
       </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2317571969</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
@@ -5430,43 +5764,41 @@
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>20-44112951-4</t>
+          <t>23-36772759-4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Montenovo</t>
+          <t>Galesio</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Valentino</t>
+          <t>Francelina</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Administracion</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Acopio</t>
+          <t>9 de Julio</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09-01-2023</t>
+          <t>03-04-2023</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5478,20 +5810,26 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>27-03-2002</t>
+          <t>07-06-1992</t>
         </is>
       </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2317536169</t>
+        </is>
+      </c>
       <c r="N70" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
@@ -5500,33 +5838,31 @@
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>20-43045494-4</t>
+          <t>27-27855146-1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Romano Rivera</t>
+          <t>Leguizamon</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Valentino</t>
+          <t>Marcela Soledad</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Maestranza</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5536,7 +5872,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>03-04-2023</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5548,55 +5884,71 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>28-11-2000</t>
+          <t>28-03-1981</t>
         </is>
       </c>
       <c r="L71" t="n">
         <v>0</v>
       </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2317403039</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>500000</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>-500000</v>
+      </c>
+      <c r="V71" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W71" t="n">
+        <v>5</v>
+      </c>
       <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>23-36772759-4</t>
+          <t>20-34717582-0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Galesio</t>
+          <t>Anca</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Francelina</t>
+          <t>Ezequiel</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Administracion</t>
+          <t>Sistemas</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5606,7 +5958,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>03-04-2023</t>
+          <t>02-05-2023</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5618,20 +5970,26 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>07-06-1992</t>
+          <t>10-08-1989</t>
         </is>
       </c>
       <c r="L72" t="n">
         <v>0</v>
       </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>2317577632</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
@@ -5640,43 +5998,41 @@
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>27-27855146-1</t>
+          <t>20-27395310-9</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Leguizamon</t>
+          <t>Di Vito</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Marcela Soledad</t>
+          <t>Martin Alejandro</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Maestranza</t>
+          <t>Logistica</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>Trenque Lauquen</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>03-04-2023</t>
+          <t>17-05-2023</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5688,20 +6044,26 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>28-03-1981</t>
+          <t>02-05-1979</t>
         </is>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2317578798</t>
+        </is>
+      </c>
       <c r="N73" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
+      <c r="P73" t="n">
+        <v>6</v>
+      </c>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
@@ -5710,39 +6072,41 @@
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>20-34717582-0</t>
+          <t>20-27317622-6</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Anca</t>
+          <t>Ongaro</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Ezequiel</t>
+          <t>Gustavo Adolfo</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sistemas</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
+          <t>Extrusados</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Extrusado</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>02-05-2023</t>
+          <t>01-06-2023</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -5754,13 +6118,15 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>10-08-1989</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
+          <t>16-05-1982</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2317577632</t>
+          <t>2317452480</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5769,7 +6135,9 @@
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
@@ -5778,45 +6146,41 @@
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>20-27395310-9</t>
+          <t>20-33597236-9</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Di Vito</t>
+          <t>Merlo</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Martin Alejandro</t>
+          <t>Ignacio Enrique</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Logistica</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Trenque Lauquen</t>
+          <t>9 de Julio</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>17-05-2023</t>
+          <t>07-08-2023</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5828,20 +6192,26 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>02-05-1979</t>
+          <t>02-03-1988</t>
         </is>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>3512254029</t>
+        </is>
+      </c>
       <c r="N75" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
@@ -5850,43 +6220,41 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>20-27317622-6</t>
+          <t>20-35235955-7</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ongaro</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Gustavo Adolfo</t>
+          <t>Franco Martin</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Extrusados</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Extrusado</t>
+          <t>Quiroga</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>01-06-2023</t>
+          <t>16-08-2023</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -5898,20 +6266,26 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>16-05-1982</t>
+          <t>03-03-1991</t>
         </is>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2317400309</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
@@ -5920,43 +6294,41 @@
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>20-33597236-9</t>
+          <t>27-39590322-0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Merlo</t>
+          <t>Ozcariz</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Ignacio Enrique</t>
+          <t>Micaela</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>Trenque Lauquen</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>07-08-2023</t>
+          <t>01-09-2023</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5968,20 +6340,26 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>02-03-1988</t>
+          <t>04-06-1996</t>
         </is>
       </c>
       <c r="L77" t="n">
         <v>0</v>
       </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>2983526492</t>
+        </is>
+      </c>
       <c r="N77" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
@@ -5990,43 +6368,41 @@
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>20-35235955-7</t>
+          <t>20-40978659-7</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Toledo</t>
+          <t>Burela</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Franco Martin</t>
+          <t>Juan Ignacio</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Extrusados</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Quiroga</t>
+          <t>Extrusado</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>16-08-2023</t>
+          <t>02-01-2024</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -6038,20 +6414,26 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>03-03-1991</t>
+          <t>15-03-1998</t>
         </is>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2317532224</t>
+        </is>
+      </c>
       <c r="N78" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
@@ -6060,43 +6442,41 @@
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
       <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>27-39590322-0</t>
+          <t>20-43970483-8</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ozcariz</t>
+          <t>Giussi</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Micaela</t>
+          <t>Emanuel</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Trenque Lauquen</t>
+          <t>Acopio</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>01-09-2023</t>
+          <t>08-01-2024</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -6108,20 +6488,26 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>04-06-1996</t>
+          <t>10-01-2002</t>
         </is>
       </c>
       <c r="L79" t="n">
         <v>0</v>
       </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>2317509138</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
+      <c r="P79" t="n">
+        <v>7</v>
+      </c>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
@@ -6130,43 +6516,41 @@
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>20-40978659-7</t>
+          <t>23-43106175-9</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Burela</t>
+          <t>Rodriguez</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Juan Ignacio</t>
+          <t>Rodrigo</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Extrusados</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Extrusado</t>
+          <t>Acopio</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>02-01-2024</t>
+          <t>01-02-2024</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6178,20 +6562,26 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>15-03-1998</t>
+          <t>01-01-2001</t>
         </is>
       </c>
       <c r="L80" t="n">
         <v>0</v>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>2317558529</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
+      <c r="P80" t="n">
+        <v>7</v>
+      </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="inlineStr"/>
@@ -6200,28 +6590,26 @@
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>20-43970483-8</t>
+          <t>23-39553512-9</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Giussi</t>
+          <t>Laxagueborde</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Emanuel</t>
+          <t>Enzo</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -6236,7 +6624,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>08-01-2024</t>
+          <t>02-04-2024</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -6248,20 +6636,26 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>10-01-2002</t>
+          <t>03-03-1996</t>
         </is>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>2317582205</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
+      <c r="P81" t="n">
+        <v>9</v>
+      </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
@@ -6270,18 +6664,16 @@
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>23-43106175-9</t>
+          <t>20-33746637-1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -6291,22 +6683,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Rodrigo</t>
+          <t>Franco Emmanuel</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Extrusados</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Acopio</t>
+          <t>Extrusado</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>01-02-2024</t>
+          <t>02-05-2024</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -6318,65 +6710,81 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>01-01-2001</t>
+          <t>22-04-1988</t>
         </is>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>2317583804</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>6732285.52</v>
+      </c>
+      <c r="S82" t="n">
+        <v>30</v>
+      </c>
+      <c r="T82" t="n">
+        <v>673050.5</v>
+      </c>
+      <c r="U82" t="n">
+        <v>-6059235.02</v>
+      </c>
+      <c r="V82" t="n">
+        <v>224350.5</v>
+      </c>
+      <c r="W82" t="n">
+        <v>27</v>
+      </c>
       <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>23-39553512-9</t>
+          <t>20-33333843-3</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Laxagueborde</t>
+          <t>Utello</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Enzo</t>
+          <t>Miguel Angel</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Extrusados</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Acopio</t>
+          <t>Extrusado</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>02-04-2024</t>
+          <t>02-05-2024</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6388,20 +6796,26 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>03-03-1996</t>
+          <t>12-05-1987</t>
         </is>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2317405943</t>
+        </is>
+      </c>
       <c r="N83" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
@@ -6410,43 +6824,41 @@
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>20-33746637-1</t>
+          <t>20-33171730-5</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Mario</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Franco Emmanuel</t>
+          <t>Facundo Daniel</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Extrusados</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Extrusado</t>
+          <t>9 de Julio</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>02-05-2024</t>
+          <t>22-05-2024</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -6458,20 +6870,26 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>22-04-1988</t>
+          <t>20-07-1987</t>
         </is>
       </c>
       <c r="L84" t="n">
         <v>0</v>
       </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>2317508235</t>
+        </is>
+      </c>
       <c r="N84" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
@@ -6480,43 +6898,41 @@
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>20-33333843-3</t>
+          <t>20-38401596-5</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Utello</t>
+          <t>Veliz</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Miguel Angel</t>
+          <t>Kevin Sebastian</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Extrusados</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Extrusado</t>
+          <t>9 de Julio</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>02-05-2024</t>
+          <t>01-07-2024</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -6528,60 +6944,76 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>12-05-1987</t>
+          <t>24-07-1994</t>
         </is>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>2317557077</t>
+        </is>
+      </c>
       <c r="N85" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
       <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
+      <c r="R85" t="n">
+        <v>1194338.44</v>
+      </c>
+      <c r="S85" t="n">
+        <v>9</v>
+      </c>
+      <c r="T85" t="n">
+        <v>133000</v>
+      </c>
+      <c r="U85" t="n">
+        <v>-1061338.44</v>
+      </c>
+      <c r="V85" t="n">
+        <v>133000</v>
+      </c>
+      <c r="W85" t="n">
+        <v>7</v>
+      </c>
       <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>20-38401596-5</t>
+          <t>20-35094783-4</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Veliz</t>
+          <t>Pellegrotti</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Kevin Sebastian</t>
+          <t>Raul Eduardo</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Extrusados</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>Extrusado</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -6598,20 +7030,26 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>24-07-1994</t>
+          <t>01-01-1991</t>
         </is>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>2317452668</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
@@ -6620,43 +7058,41 @@
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>20-35094783-4</t>
+          <t>20-34876700-4</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Pellegrotti</t>
+          <t>Barrere</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Raul Eduardo</t>
+          <t>Francisco</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Extrusados</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Extrusado</t>
+          <t>Trenque Lauquen</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>01-07-2024</t>
+          <t>17-07-2024</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -6668,20 +7104,26 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>01-01-1991</t>
+          <t>10-03-1990</t>
         </is>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>2392503913</t>
+        </is>
+      </c>
       <c r="N87" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
@@ -6690,43 +7132,41 @@
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
       <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>20-33171730-5</t>
+          <t>27-35096647-7</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Mario</t>
+          <t>Maruff</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Facundo Daniel</t>
+          <t>Joana Alejandra</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Extrusados</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>Extrusado</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>22-05-2024</t>
+          <t>02-09-2024</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -6738,20 +7178,26 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>20-07-1987</t>
+          <t>25-08-1990</t>
         </is>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>2317485242</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="inlineStr"/>
@@ -6760,43 +7206,41 @@
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>20-34876700-4</t>
+          <t>20-39292080-4</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Barrere</t>
+          <t>Gavalda</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Francisco</t>
+          <t>Tomas</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Logistica</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Trenque Lauquen</t>
+          <t>9 de Julio</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>17-07-2024</t>
+          <t>09-09-2024</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -6808,20 +7252,26 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>10-03-1990</t>
+          <t>02-05-1997</t>
         </is>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>2317474365</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="inlineStr"/>
@@ -6830,28 +7280,26 @@
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>27-35096647-7</t>
+          <t>20-38603314-6</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Maruff</t>
+          <t>Cufre</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Joana Alejandra</t>
+          <t>Ignacio Nicolas</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6866,7 +7314,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>02-09-2024</t>
+          <t>16-09-2024</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -6878,20 +7326,26 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>25-08-1990</t>
+          <t>18-04-1996</t>
         </is>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2317583257</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
@@ -6900,43 +7354,41 @@
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>20-39292080-4</t>
+          <t>20-41211937-2</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Gavalda</t>
+          <t>Casas</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Tomas</t>
+          <t>Luciano Jesus</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Logistica</t>
+          <t>Extrusados</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>Extrusado</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09-09-2024</t>
+          <t>02-12-2024</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6948,20 +7400,26 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>02-05-1997</t>
+          <t>26-09-1998</t>
         </is>
       </c>
       <c r="L91" t="n">
         <v>0</v>
       </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>2317518412</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
@@ -6970,43 +7428,41 @@
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>20-38603314-6</t>
+          <t>20-35795012-1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cufre</t>
+          <t>Moreno</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ignacio Nicolas</t>
+          <t>Juan Manuel</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Extrusados</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Extrusado</t>
+          <t>Trenque Lauquen</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>16-09-2024</t>
+          <t>02-12-2024</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -7018,20 +7474,26 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>18-04-1996</t>
+          <t>26-09-1998</t>
         </is>
       </c>
       <c r="L92" t="n">
         <v>0</v>
       </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>2392548263</t>
+        </is>
+      </c>
       <c r="N92" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
+      <c r="P92" t="n">
+        <v>14</v>
+      </c>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="inlineStr"/>
@@ -7040,43 +7502,41 @@
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
       <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>20-41211937-2</t>
+          <t>20-38406033-2</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Casas</t>
+          <t>Sosa</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Luciano Jesus</t>
+          <t>Damian</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Extrusados</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Extrusado</t>
+          <t>Acopio</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>02-12-2024</t>
+          <t>01-01-2025</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -7094,59 +7554,75 @@
       <c r="L93" t="n">
         <v>0</v>
       </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>2317518412</t>
+        </is>
+      </c>
       <c r="N93" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
+      <c r="P93" t="n">
+        <v>14</v>
+      </c>
       <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
+      <c r="R93" t="n">
+        <v>600000</v>
+      </c>
+      <c r="S93" t="n">
+        <v>6</v>
+      </c>
+      <c r="T93" t="n">
+        <v>400000</v>
+      </c>
+      <c r="U93" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="V93" t="n">
+        <v>100000</v>
+      </c>
+      <c r="W93" t="n">
+        <v>2</v>
+      </c>
       <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>20-35795012-1</t>
+          <t>20-39291932-6</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Moreno</t>
+          <t>Diaz</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Juan Manuel</t>
+          <t>Federico</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Logistica</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Trenque Lauquen</t>
+          <t>9 de Julio</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>02-12-2024</t>
+          <t>13-01-2025</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -7158,20 +7634,26 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>26-09-1998</t>
+          <t>19-12-1996</t>
         </is>
       </c>
       <c r="L94" t="n">
         <v>0</v>
       </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>2317465748</t>
+        </is>
+      </c>
       <c r="N94" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr"/>
@@ -7180,28 +7662,26 @@
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
       <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>20-38406033-2</t>
+          <t>20-32527235-0</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sosa</t>
+          <t>Grenillon</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Damian</t>
+          <t>Raul Alberto</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -7216,7 +7696,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>01-01-2025</t>
+          <t>10-02-2025</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -7228,85 +7708,69 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>26-09-1998</t>
+          <t>19-07-1986</t>
         </is>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>2317558260</t>
+        </is>
+      </c>
       <c r="N95" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>06-01-2025</t>
-        </is>
-      </c>
-      <c r="Q95" t="n">
-        <v>600000</v>
-      </c>
-      <c r="R95" t="n">
-        <v>6</v>
-      </c>
-      <c r="S95" t="n">
-        <v>300000</v>
-      </c>
-      <c r="T95" t="n">
-        <v>-300000</v>
-      </c>
-      <c r="U95" t="n">
-        <v>100000</v>
-      </c>
-      <c r="V95" t="n">
-        <v>3</v>
-      </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>06-06-2025</t>
-        </is>
-      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>20-39291932-6</t>
+          <t>20-37425649-2</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Diaz</t>
+          <t>Portela</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Federico</t>
+          <t>Nahuel Ezequiel</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Logistica</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Trenque Lauquen</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>13-01-2025</t>
+          <t>07-04-2025</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -7316,18 +7780,28 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>11-03-1993</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>2392541242</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr"/>
@@ -7336,43 +7810,41 @@
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
       <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>20-32527235-0</t>
+          <t>27-28433448-0</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Grenillon</t>
+          <t>Castellanos</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Raul Alberto</t>
+          <t>Yanina Raquel</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Administracion</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Acopio</t>
+          <t>9 de Julio</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>10-02-2025</t>
+          <t>05-05-2025</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -7382,18 +7854,28 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>21-12-1980</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>0</v>
       </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>2317458354</t>
+        </is>
+      </c>
       <c r="N97" t="inlineStr">
         <is>
           <t>empleado</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr"/>
@@ -7402,8 +7884,6 @@
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
       <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7413,32 +7893,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>20-25137842-9</t>
+          <t>27-29597820-7</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Moglie Cabistañ</t>
+          <t>Del Pino</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Rafael</t>
+          <t>Maria Soledad</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Administracion</t>
+          <t>Maestranza</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Trenque Lauquen</t>
+          <t>9 de Julio</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02-06-2025</t>
+          <t>11-06-2025</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -7448,11 +7928,19 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>07-07-1982</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>0</v>
       </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2317557647</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr">
         <is>
           <t>empleado</t>
@@ -7468,74 +7956,6 @@
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
       <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>20-37425649-2</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Portela</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Nahuel Ezequiel</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Operaciones</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Trenque Lauquen</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>07-04-2025</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Activo</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/exportados/empleados_exportados.xlsx
+++ b/static/exportados/empleados_exportados.xlsx
@@ -984,7 +984,7 @@
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>

--- a/static/exportados/empleados_exportados.xlsx
+++ b/static/exportados/empleados_exportados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA101"/>
+  <dimension ref="A1:AA105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,72 +501,72 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>rol</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>prestamo_fecha_prestamo</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>prestamo_monto</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>prestamo_cuotas</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>prestamo_cancelado</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>prestamo_pendiente</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>prestamo_proxima_cuota</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>prestamo_cuotas_pendientes</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>prestamo_fecha_cancelacion</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
           <t>sede</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>fecha_baja</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>motivo_baja</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>edad</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>rol</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>notas</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>prestamo_fecha_prestamo</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>prestamo_monto</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>prestamo_cuotas</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>prestamo_cancelado</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>prestamo_pendiente</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>prestamo_proxima_cuota</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>prestamo_cuotas_pendientes</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>prestamo_fecha_cancelacion</t>
         </is>
       </c>
     </row>
@@ -631,10 +631,14 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 685919.1099999999, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 375000.0, 'items': [{'fecha': '2025-08-29', 'proveedor': 'nan', 'comprobante': 'PVS 10 14210', 'leyenda': 'ADELANTO WALTER', 'importe': 375000.0}]}, 'Combustibles': {'total': 350313.29, 'items': [{'fecha': '2025-08-01', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 15 8305', 'leyenda': 'COMBUSTIBLE WALTER SCHMIDT', 'importe': 47601.38}, {'fecha': '2025-08-01', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 15 8459', 'leyenda': 'COMBUSTIBLE WALTER SCHMIDT', 'importe': 52688.96}, {'fecha': '2025-08-14', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 21582', 'leyenda': 'WALTER SCHMIDT', 'importe': 144415.83}, {'fecha': '2025-08-29', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 22080', 'leyenda': 'COMBUSTIBLE WALTER', 'importe': 105607.12}]}, 'Gastos Varios': {'total': -31673.390000000003, 'items': [{'fecha': '2025-08-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 4 689', 'leyenda': 'WALTER SCHMIDT (PAGO)', 'importe': -16400.83}, {'fecha': '2025-08-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 4 690', 'leyenda': 'WALTER SCHMIDT (PAGO)', 'importe': -7289.26}, {'fecha': '2025-08-10', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 32 4502', 'leyenda': 'SCHMIDT, ALDO WALTER', 'importe': 9666.94}, {'fecha': '2025-08-10', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 26 4427', 'leyenda': 'SCHMIDT, ALDO WALTER  - PAGO', 'importe': 0.0}, {'fecha': '2025-08-23', 'proveedor': 'SERVITEC HOGAR', 'comprobante': 'FGAS 60 4639', 'leyenda': 'WALTER SCHMIDT (PAGO)', 'importe': -4512.22}, {'fecha': '2025-08-31', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 4 885', 'leyenda': 'WALTER SCHMIDT (PAGO)', 'importe': -13138.02}]}, 'Gastos de comida': {'total': -55714.14999999998, 'items': [{'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 49 588', 'leyenda': 'SCHMIDT, ALDO WALTER', 'importe': 1791.43}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 45 3924', 'leyenda': 'SCHMIDT, WALTER ALDO - PAGO', 'importe': -6774.68}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 30 7592', 'leyenda': 'SCHMIDT, WALTER ALDO - PAGO', 'importe': -7878.12}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 49 759', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -3872.42}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 49 706', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -17466.88}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 49 588', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -11630.19}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 48 3350', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -13333.04}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 47 2665', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -2655.03}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 47 2635', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -14019.95}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 47 2528', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -11771.28}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 47 2436', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -16013.63}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 47 2591', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -36284.58}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 46 4254', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -16957.45}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 46 4176', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -3105.05}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 46 4051', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -1110.4}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 46 4018', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -5239.33}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 28 3870', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -6558.59}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 27 3892', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -1978.34}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 27 3705', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -4064.11}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 26 4348', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -12908.55}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 26 4158', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -15600.08}, {'fecha': '2025-08-01', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 47 2404', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -12720.27}, {'fecha': '2025-08-13', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 47 2704', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -19236.91}, {'fecha': '2025-08-14', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 46 4340', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -11410.9}, {'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 177073.93}, {'fecha': '2025-08-30', 'proveedor': 'LA REGIONAL ASOCIACION SIMPLE DE PONTELLO EMILIANO', 'comprobante': 'FGAS 1 3846', 'leyenda': 'EVENTOS', 'importe': 19884.3}, {'fecha': '2025-08-30', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 32 4618', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -1874.03}]}, 'Papeleria y utiles': {'total': 47993.36, 'items': [{'fecha': '2025-08-22', 'proveedor': 'SERVITEC LIBRERIA', 'comprobante': 'FGAS 70 2334', 'leyenda': 'WALTER SCHMIDT (CTA CTE)', 'importe': 47993.36}]}}}, '2025-09': {'total_mes': 3085752.31, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 3034745.33, 'items': [{'fecha': '2025-09-01', 'proveedor': 'nan', 'comprobante': 'PVS 10 14219', 'leyenda': 'PAGO VISA PATAGONIA-WALTER', 'importe': 660000.0}, {'fecha': '2025-09-03', 'proveedor': 'nan', 'comprobante': 'PVS 10 14244', 'leyenda': 'PAGO FAVACARD WALTER', 'importe': 750363.05}, {'fecha': '2025-09-03', 'proveedor': 'nan', 'comprobante': 'PVS 10 14244', 'leyenda': 'PAGO GAS CASA WALTER', 'importe': 66109.43}, {'fecha': '2025-09-03', 'proveedor': 'nan', 'comprobante': 'PVS 10 14244', 'leyenda': 'PAGO LUZ CASA WALTER', 'importe': 271730.65}, {'fecha': '2025-09-03', 'proveedor': 'nan', 'comprobante': 'PVS 10 14244', 'leyenda': 'PAGO TEL CASA WALTER', 'importe': 3246.28}, {'fecha': '2025-09-05', 'proveedor': 'nan', 'comprobante': 'PVS 10 14270', 'leyenda': 'PAG BCO PATAGONIA WALTER', 'importe': 357901.41}, {'fecha': '2025-09-10', 'proveedor': 'nan', 'comprobante': 'PVS 10 14360', 'leyenda': 'PAGO ELEBAR WALTER', 'importe': 390113.68}, {'fecha': '2025-09-12', 'proveedor': 'nan', 'comprobante': 'PVS 10 14422', 'leyenda': 'PAGO FARMACIA BONINO-WALTER', 'importe': 235280.83}, {'fecha': '2025-09-15', 'proveedor': 'nan', 'comprobante': 'PVS 10 14441', 'leyenda': 'PAGO MERCADO PAGO-WALTER', 'importe': 300000.0}]}, 'Combustibles': {'total': 140641.4, 'items': [{'fecha': '2025-09-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 22522', 'leyenda': 'WALTER SCHMIDT - CTA CTE', 'importe': 140641.4}]}, 'Gastos Varios': {'total': 72809.92, 'items': [{'fecha': '2025-09-01', 'proveedor': 'OLDANI OSVALDO NESTOR', 'comprobante': 'FGAS 3 572', 'leyenda': 'WALTER SCHMIDT', 'importe': 72809.92}]}, 'Gastos de comida': {'total': -162444.34, 'items': [{'fecha': '2025-09-01', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 24 5350', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -13109.1}, {'fecha': '2025-09-01', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 48 3301', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -16865.97}, {'fecha': '2025-09-01', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 48 3218', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -16397.11}, {'fecha': '2025-09-01', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 47 2786', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -10291.44}, {'fecha': '2025-09-01', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 47 2615', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -11041.78}, {'fecha': '2025-09-01', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 48 3320', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -19123.2}, {'fecha': '2025-09-01', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 46 4408', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -15300.22}, {'fecha': '2025-09-01', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 46 4111', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -7806.44}, {'fecha': '2025-09-01', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 26 4037', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -17371.09}, {'fecha': '2025-09-01', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 47 2558', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -17400.7}, {'fecha': '2025-09-03', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 46 4428', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -9018.81}, {'fecha': '2025-09-06', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 47 2816', 'leyenda': 'SCHMIDT, ALDO WALTER - PAGO', 'importe': -14077.13}, {'fecha': '2025-09-10', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 47 2842', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -13860.5}, {'fecha': '2025-09-11', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 46 4471', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -9323.15}, {'fecha': '2025-09-14', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 49 1019', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -12922.08}, {'fecha': '2025-09-16', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 46 4496', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -4997.31}, {'fecha': '2025-09-17', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 46 4499', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -6832.56}, {'fecha': '2025-09-18', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26470', 'leyenda': 'COMPRA QUESO LA BLANQUEADA', 'importe': 60900.09}, {'fecha': '2025-09-19', 'proveedor': 'ARNALDO P APPELLA S.A', 'comprobante': 'FGAS 46 4510', 'leyenda': 'WALTER PAGO FF COMIDA', 'importe': -7605.84}]}}}}</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 388594.49, 'por_articulo': {'Combustibles': {'total': 326402.58, 'items': [{'fecha': '2025-10-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23399', 'leyenda': 'COMBUSTIBLE WALTER SCHMIDT', 'importe': 208069.57}, {'fecha': '2025-10-22', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23754', 'leyenda': 'COMBUSTIBLE SCHMIDT', 'importe': 118333.01}]}, 'Gastos Varios': {'total': 63219.83, 'items': [{'fecha': '2025-10-29', 'proveedor': 'INSUMOS.COM S.R.L.', 'comprobante': 'FGAS 4 59413', 'leyenda': 'WALTER SCHMIDT - CTA CTE', 'importe': 63219.83}]}, 'Gastos de comida': {'total': -1027.92, 'items': [{'fecha': '2025-10-05', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 48 3379', 'leyenda': 'SCHMIDT WALTER - PAGO', 'importe': -8432.1}, {'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 9669.01}, {'fecha': '2025-10-30', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 11 6271', 'leyenda': 'WALTER SCHMIDT - PAGO', 'importe': -2264.83}]}}}, '2025-11': {'total_mes': 2495442.5300000003, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 2076600.5, 'items': [{'fecha': '2025-11-07', 'proveedor': 'nan', 'comprobante': 'PVS 10 15117', 'leyenda': 'PAGO GAS CASA - WALTER', 'importe': 30572.92}, {'fecha': '2025-11-07', 'proveedor': 'nan', 'comprobante': 'PVS 10 15117', 'leyenda': 'PAGO LUZ CASA-WALTER', 'importe': 208691.35}, {'fecha': '2025-11-07', 'proveedor': 'nan', 'comprobante': 'PVS 10 15117', 'leyenda': 'PAGO TELEFONO CASA-WALTER', 'importe': 3246.28}, {'fecha': '2025-11-10', 'proveedor': 'nan', 'comprobante': 'PVS 10 15128', 'leyenda': 'PAGO FAVACARD WALTER', 'importe': 688811.96}, {'fecha': '2025-11-11', 'proveedor': 'nan', 'comprobante': 'PVS 10 15140', 'leyenda': 'PAGO PATENTE WALTER', 'importe': 127509.8}, {'fecha': '2025-11-13', 'proveedor': 'nan', 'comprobante': 'PVS 10 15204', 'leyenda': 'PAGO ELEBAR WALTER', 'importe': 610768.19}, {'fecha': '2025-11-17', 'proveedor': 'nan', 'comprobante': 'INGV 10 15261', 'leyenda': 'DEVOLUCION SCHMIDT WALTER', 'importe': -685000.0}, {'fecha': '2025-11-25', 'proveedor': 'nan', 'comprobante': 'PVS 10 15347', 'leyenda': 'PAGO ADELANTO WALTER-IGNACIO', 'importe': 212000.0}, {'fecha': '2025-11-27', 'proveedor': 'nan', 'comprobante': 'PVS 10 15379', 'leyenda': 'PAGO TRANSF GUTIERREZ - WALTER', 'importe': 880000.0}]}, 'Combustibles': {'total': 119164.49, 'items': [{'fecha': '2025-11-14', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 24336', 'leyenda': 'COMBUSTIBLE WALTER', 'importe': 119164.49}]}, 'Gastos Varios': {'total': 165391.32, 'items': [{'fecha': '2025-11-11', 'proveedor': 'OLDANI OSVALDO NESTOR', 'comprobante': 'FGAS 3 883', 'leyenda': 'WALTER SCHMIDT - CTA CTE', 'importe': 92809.92}, {'fecha': '2025-11-11', 'proveedor': 'OLDANI OSVALDO NESTOR', 'comprobante': 'FGAS 3 884', 'leyenda': 'WALTER SCHMIDT - CTA CTE', 'importe': 58512.4}, {'fecha': '2025-11-22', 'proveedor': 'BONINO NORA BEATRIZ', 'comprobante': 'FGAS 6 22', 'leyenda': 'WALTER SCHMIDT - CTA CTE', 'importe': 14069.0}]}, 'Gastos de comida': {'total': -14713.78, 'items': [{'fecha': '2025-11-15', 'proveedor': 'SUPERMERCADO TUTI 2 S.A.', 'comprobante': 'FGAS 33 4290', 'leyenda': 'SUPERMERCADO WALTER PAGO', 'importe': -14713.78}]}, 'Mantenimiento': {'total': 149000.0, 'items': [{'fecha': '2025-11-25', 'proveedor': 'MORAS FERNANDO', 'comprobante': 'FGAS 1 255', 'leyenda': 'WALTER SCHMIDT - CTA CTE', 'importe': 149000.0}]}}}}</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
@@ -710,10 +714,14 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': -2965625.75, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': -4213515.97, 'items': [{'fecha': '2025-08-08', 'proveedor': 'nan', 'comprobante': 'CONTA 10 13843', 'leyenda': 'PAGO DIVIDENDOS 07/2025-MAURI', 'importe': -5580000.0}, {'fecha': '2025-08-19', 'proveedor': 'nan', 'comprobante': 'PVS 10 14242', 'leyenda': 'TRANSF RAMIREZ RAMON PESCA-MAURI', 'importe': 290000.0}, {'fecha': '2025-08-27', 'proveedor': 'nan', 'comprobante': 'PVS 10 14169', 'leyenda': 'PAGO CAJA VET MATRICULA MAURICIO', 'importe': 49938.08}, {'fecha': '2025-08-27', 'proveedor': 'nan', 'comprobante': 'PVS 10 14169', 'leyenda': 'PAGO CAJA VET MAURICIO', 'importe': 146545.95}, {'fecha': '2025-08-27', 'proveedor': 'nan', 'comprobante': 'PVS 10 14241', 'leyenda': 'TRANSF RAMIREZ RAMON PESCA-MAURI', 'importe': 880000.0}]}, 'Combustibles': {'total': 108289.18, 'items': [{'fecha': '2025-08-08', 'proveedor': 'LOGIOCO JOSE LUIS', 'comprobante': 'FGAS 13 87857', 'leyenda': 'GAVALDA MAURICIO', 'importe': 41309.76}, {'fecha': '2025-08-13', 'proveedor': 'LOGIOCO JOSE LUIS', 'comprobante': 'FGAS 13 88266', 'leyenda': 'COMBUSTIBLE MAURICIO CTA CTE', 'importe': 66979.42}]}, 'Gastos Varios': {'total': -51627.64, 'items': [{'fecha': '2025-08-18', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 5 19554', 'leyenda': 'MAURICIO GAVALDA (PAGO)', 'importe': -92507.95}, {'fecha': '2025-08-20', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 2 88', 'leyenda': 'VINOS MAURICIO CTA CTE', 'importe': 119008.26}, {'fecha': '2025-08-25', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 5 19569', 'leyenda': 'MAURICIO GAVALDA (PAGO)', 'importe': -92508.12}, {'fecha': '2025-08-27', 'proveedor': 'FERRERE JUAN PATRICIO', 'comprobante': 'FGAS 4 9123', 'leyenda': 'MANGUERA MAURICIO CTA CTE', 'importe': 14380.17}]}, 'Gastos de comida': {'total': 578335.6799999999, 'items': [{'fecha': '2025-08-23', 'proveedor': 'DEL FABRO HNOS Y CIA', 'comprobante': 'FGAS 26 3266', 'leyenda': 'MAURICIO GAVALDA (PAGO)', 'importe': -11830.33}, {'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 369856.92}, {'fecha': '2025-08-30', 'proveedor': 'LA REGIONAL ASOCIACION SIMPLE DE PONTELLO EMILIANO', 'comprobante': 'FGAS 1 3846', 'leyenda': 'EVENTOS', 'importe': 220309.09}]}, 'Mantenimiento': {'total': 612893.0, 'items': [{'fecha': '2025-08-22', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 2 797', 'leyenda': 'MAURICIO GAVALDA CTA CTE', 'importe': 612893.0}]}}}, '2025-09': {'total_mes': 2215477.57, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': -276677.26, 'items': [{'fecha': '2025-09-01', 'proveedor': 'nan', 'comprobante': 'PVS 10 14220', 'leyenda': 'PAGO ALQUILER DPTO MAITE-MAURI', 'importe': 1501700.0}, {'fecha': '2025-09-01', 'proveedor': 'nan', 'comprobante': 'PVS 10 14220', 'leyenda': 'PAGO EXPENSAS DPTO MAITE-MAURI', 'importe': 336102.19}, {'fecha': '2025-09-04', 'proveedor': 'nan', 'comprobante': 'CONTA 10 14251', 'leyenda': 'PAGO DIVIDENDOS 08/2025 - MAURI', 'importe': -5580000.0}, {'fecha': '2025-09-08', 'proveedor': 'nan', 'comprobante': 'PVS 10 14286', 'leyenda': 'TRANSF A BCO PCIA MAURICIO', 'importe': 1500000.0}, {'fecha': '2025-09-09', 'proveedor': 'nan', 'comprobante': 'PVS 10 14317', 'leyenda': 'PAGO PATENTES 04/2025 - MAURICIO GAVALDA', 'importe': 182473.4}, {'fecha': '2025-09-15', 'proveedor': 'nan', 'comprobante': 'PVS 10 14443', 'leyenda': 'PAGO OSDE FRANCISCO', 'importe': 317079.0}, {'fecha': '2025-09-15', 'proveedor': 'nan', 'comprobante': 'PVS 10 14444', 'leyenda': 'PAGO OSDE TOMAS', 'importe': 317079.0}, {'fecha': '2025-09-29', 'proveedor': 'nan', 'comprobante': 'PVS 10 14612', 'leyenda': 'PAGO CAJA VET SEG - MAURI', 'importe': 148889.15}, {'fecha': '2025-09-29', 'proveedor': 'nan', 'comprobante': 'PVS 10 14611', 'leyenda': 'TRANSF BCO PCIA MAURI', 'importe': 1000000.0}]}, 'Alojamientos': {'total': 1682600.0, 'items': [{'fecha': '2025-09-02', 'proveedor': 'POSADA HAMBARE SRL', 'comprobante': 'FGAS 4 3305', 'leyenda': 'ALOJAMIENTO MAURICIO GAVALDA (PESCA)', 'importe': 1682600.0}, {'fecha': '2025-09-13', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 21 2699', 'leyenda': 'MAURICIO GAVALDA - PAGO', 'importe': 0.0}]}, 'Gastos Varios': {'total': 343065.36, 'items': [{'fecha': '2025-09-01', 'proveedor': 'FUNDACION INSTITUTO LOS CEIBOS NUEVE DE JULIO', 'comprobante': 'FGAS 3 17974', 'leyenda': 'COLEGIO CHARO GAVALDA', 'importe': 409328.0}, {'fecha': '2025-09-04', 'proveedor': 'nan', 'comprobante': 'PV 10 14357', 'leyenda': 'AGA DESTILADA CAMIONETA MAURICIO', 'importe': 4200.0}, {'fecha': '2025-09-06', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 73 1394', 'leyenda': 'MAURICIO GAVALDA - PAGO', 'importe': -27074.38}, {'fecha': '2025-09-10', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 12 9534', 'leyenda': 'MAURICIO GAVALDA - PAGO', 'importe': -43388.26}]}, 'Gastos de comida': {'total': 205828.09999999998, 'items': [{'fecha': '2025-09-04', 'proveedor': 'BALANHO GERARDO JAVIER', 'comprobante': 'FGAS 5 41559', 'leyenda': 'MAURICIO GAVALDA - CTA CTE', 'importe': 96835.7}, {'fecha': '2025-09-04', 'proveedor': 'BALANHO GERARDO JAVIER', 'comprobante': 'FGAS 5 41558', 'leyenda': 'PESCA - MAURICIO (CTE CTE)', 'importe': 108992.4}]}, 'Mantenimiento': {'total': 260661.37, 'items': [{'fecha': '2025-09-01', 'proveedor': 'SILVERA HNOS. S.R.L.', 'comprobante': 'FGAS 10 35985', 'leyenda': 'MAURICIO GAVALDA - CTA CTE', 'importe': 25679.14}, {'fecha': '2025-09-01', 'proveedor': 'SILVERA HNOS. S.R.L.', 'comprobante': 'FGAS 10 35986', 'leyenda': 'MAURICIO GAVALDA - CTA CTE', 'importe': 4437.98}, {'fecha': '2025-09-01', 'proveedor': 'SILVERA HNOS. S.R.L.', 'comprobante': 'FGAS 10 35987', 'leyenda': 'MAURICIO GAVALDA - CTA CTE', 'importe': 70401.25}, {'fecha': '2025-09-01', 'proveedor': 'VILLA ZAPPA Y CIA S.A.', 'comprobante': 'FGAS 5 61759', 'leyenda': 'MAURICIO GAVALDA (CTA CTE)', 'importe': 70000.0}, {'fecha': '2025-09-05', 'proveedor': 'VILLA ZAPPA Y CIA S.A.', 'comprobante': 'FGAS 5 61808', 'leyenda': 'REPARACION MOTOR MAURICIO CTA CTE', 'importe': 70143.0}, {'fecha': '2025-09-26', 'proveedor': 'GOMEZ FERNANDO MARIANO', 'comprobante': 'FGAS 2 425', 'leyenda': 'LIMPIEZA DE VIDRIOS', 'importe': 20000.0}]}}}}</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>{'2025-08': {'total_mes': 473958.0, 'por_articulo': {'Gastos Varios': {'total': 473958.0, 'items': [{'fecha': '2025-08-05', 'proveedor': 'nan', 'comprobante': 'PV 10 14737', 'leyenda': 'SUSCRIPCION BOCA JUNIOR', 'importe': 221858.0}, {'fecha': '2025-08-05', 'proveedor': 'nan', 'comprobante': 'PV 10 15172', 'leyenda': 'BOCA JUNIOR SUSCRIPCION', 'importe': 252100.0}]}}}, '2025-10': {'total_mes': 4034962.5199999996, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 1501700.0, 'items': [{'fecha': '2025-10-31', 'proveedor': 'nan', 'comprobante': 'PVS 10 15031', 'leyenda': 'PAGO ALQUIELR DPTO MAITE - MAURI', 'importe': 1501700.0}]}, 'Combustibles': {'total': 6898.01, 'items': [{'fecha': '2025-10-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 17 10892', 'leyenda': 'COMBUSTIBLE', 'importe': 6898.01}]}, 'Gastos Varios': {'total': 1777811.1199999999, 'items': [{'fecha': '2025-10-02', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 6 3106', 'leyenda': 'REGALO EMPRESARIAL NX / MAURICIO CTA CTE (VINOS)', 'importe': 253500.0}, {'fecha': '2025-10-09', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 441 94', 'leyenda': 'MAURICIO GAVALDA - PAGO', 'importe': -55268.01}, {'fecha': '2025-10-30', 'proveedor': 'nan', 'comprobante': 'PV 10 15173', 'leyenda': 'BOCA JUNIOR SUSCRIPCION 03/06', 'importe': 252100.0}, {'fecha': '2025-10-31', 'proveedor': 'VANINA RAFAEL', 'comprobante': 'FGAS 9 321', 'leyenda': 'MAURICIO GAVALDA CTA CTE', 'importe': 1327479.13}]}, 'Gastos de comida': {'total': 725997.29, 'items': [{'fecha': '2025-10-01', 'proveedor': 'DEL FABRO HNOS Y CIA', 'comprobante': 'FGAS 26 3343', 'leyenda': 'MAURICIO GAVALDA - PAGO', 'importe': -2038.6}, {'fecha': '2025-10-01', 'proveedor': 'DEL FABRO HNOS Y CIA', 'comprobante': 'FGAS 26 3343', 'leyenda': 'MAURICIO GAVALDA PAGO', 'importe': -11038.82}, {'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 459895.37}, {'fecha': '2025-10-31', 'proveedor': 'LA REGIONAL ASOCIACION SIMPLE DE PONTELLO EMILIANO', 'comprobante': 'FGAS 1 3907', 'leyenda': 'BEBIDAS VARIAS', 'importe': 279179.34}]}, 'Mantenimiento': {'total': 22556.1, 'items': [{'fecha': '2025-10-02', 'proveedor': 'SILVERA HNOS. S.R.L.', 'comprobante': 'FGAS 10 36350', 'leyenda': 'MAURICIO GAVALDA - CTA CTE', 'importe': 22556.1}]}}}, '2025-11': {'total_mes': 7385346.530000001, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 1124160.1099999999, 'items': [{'fecha': '2025-11-04', 'proveedor': 'nan', 'comprobante': 'PVS 10 15049', 'leyenda': 'PAGO TRANSF BCO PCIA MAURI', 'importe': 500000.0}, {'fecha': '2025-11-04', 'proveedor': 'nan', 'comprobante': 'CONTA 10 15052', 'leyenda': 'PAGO DIVIDENDOS 10/2025-MAURI', 'importe': -5580000.0}, {'fecha': '2025-11-04', 'proveedor': 'nan', 'comprobante': 'PVS 10 15055', 'leyenda': 'PAGO EXPENSAS DPTO MAITE- MAURI', 'importe': 574179.19}, {'fecha': '2025-11-07', 'proveedor': 'nan', 'comprobante': 'PVS 10 15105', 'leyenda': 'PAGO ART TOMAS GAVALDA-MAURI', 'importe': 76949.44}, {'fecha': '2025-11-10', 'proveedor': 'nan', 'comprobante': 'PVS 10 15137', 'leyenda': 'PAGO TRANSF ROSALES BEATRIZ-MAURI', 'importe': 773500.0}, {'fecha': '2025-11-11', 'proveedor': 'nan', 'comprobante': 'PVS 10 15155', 'leyenda': 'PAGO PATENTE 5/2025 - MAURICIO MERCEDES', 'importe': 182473.4}, {'fecha': '2025-11-14', 'proveedor': 'nan', 'comprobante': 'PVS 10 15228', 'leyenda': 'PAGO BCO GALICIA MAURI', 'importe': 1500000.0}, {'fecha': '2025-11-14', 'proveedor': 'nan', 'comprobante': 'PVS 10 15229', 'leyenda': 'PAGO ALQUILER DPTO MAITE-MAURI', 'importe': 1372800.0}, {'fecha': '2025-11-17', 'proveedor': 'nan', 'comprobante': 'PVS 10 15283', 'leyenda': 'PAGO OSDE TOMAS - MAURI', 'importe': 320282.63}, {'fecha': '2025-11-18', 'proveedor': 'nan', 'comprobante': 'PVS 10 15282', 'leyenda': 'PAGO OSDE FRANCISCO - MAURI', 'importe': 328594.0}, {'fecha': '2025-11-26', 'proveedor': 'nan', 'comprobante': 'PVS 10 15359', 'leyenda': 'PÀGO CAJA SEG VETERINARIOS-MAURI', 'importe': 175381.45}, {'fecha': '2025-11-26', 'proveedor': 'nan', 'comprobante': 'PVS 10 15374', 'leyenda': 'PAGO RE MARCELO-MAURI', 'importe': 900000.0}]}, 'Combustibles': {'total': 107323.98000000001, 'items': [{'fecha': '2025-11-09', 'proveedor': 'LOGIOCO JOSE LUIS', 'comprobante': 'FGAS 13 95728', 'leyenda': 'MAITE GAVALDA / MAURICIO GAVALDA - CTA CTE', 'importe': 59163.58}, {'fecha': '2025-11-23', 'proveedor': 'LOGIOCO JOSE LUIS', 'comprobante': 'FGAS 13 97052', 'leyenda': 'COMBUSTIBLE TOMAS GAVALDA', 'importe': 48160.4}]}, 'Gastos Varios': {'total': 3259132.33, 'items': [{'fecha': '2025-11-03', 'proveedor': 'FUNDACION INSTITUTO LOS CEIBOS NUEVE DE JULIO', 'comprobante': 'FGAS 3 18888', 'leyenda': 'CUOTA NIVEL PRIMARIO (CHARO)', 'importe': 423654.0}, {'fecha': '2025-11-03', 'proveedor': 'LEMAIRE JEAN PAUL', 'comprobante': 'FGAS 1 502', 'leyenda': 'LAVADO DE TOYOTA MAURICIO', 'importe': 94000.0}, {'fecha': '2025-11-03', 'proveedor': 'MARCELINO HUGO FABIAN', 'comprobante': 'FGAS 6 94', 'leyenda': 'MAURICIO GAVALDA - CTA CTE \n SERVICIO DE GRUA', 'importe': 170400.0}, {'fecha': '2025-11-06', 'proveedor': 'NERI RUBEN A. Y OYARZABAL MARICEL SOCIEDAD SIMPLE', 'comprobante': 'FGAS 5 685', 'leyenda': 'ANALISIS AGUA - GAVALDA MAURICIO / CTA CTE', 'importe': 322645.36}, {'fecha': '2025-11-13', 'proveedor': 'BOTTINI, MARIA ISABEL', 'comprobante': 'FGAS 2 3609', 'leyenda': 'MAURICIO GAVALDA - CTA CTE', 'importe': 683522.07}, {'fecha': '2025-11-21', 'proveedor': 'GRUPO MEEG', 'comprobante': 'FGAS 2 354', 'leyenda': 'MAURICIO GAVALDA - CTA CTE', 'importe': 1564910.9}]}, 'Gastos de comida': {'total': 160013.88, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 160013.88}]}, 'Mantenimiento': {'total': 2734716.2300000004, 'items': [{'fecha': '2025-11-11', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 3 58', 'leyenda': 'MAURICIO GAVALDA - CTA CTE', 'importe': 2658351.24}, {'fecha': '2025-11-25', 'proveedor': 'OXINUEVE S.A.', 'comprobante': 'FGAS 11 116732', 'leyenda': 'MAURICIO GAVALDA - CTA CTE', 'importe': 60261.27}, {'fecha': '2025-11-25', 'proveedor': 'OXINUEVE S.A.', 'comprobante': 'FGAS 11 116733', 'leyenda': 'MAURICIO GAVALDA - CTA CTE', 'importe': 16103.72}]}}}}</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -741,7 +749,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>José María</t>
+          <t>Jose Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -781,24 +789,18 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 1859850.48, 'por_articulo': {'Gastos Varios': {'total': 1859850.48, 'items': [{'fecha': '2025-08-20', 'proveedor': 'FEDAN SA', 'comprobante': 'FGAS 7 59702', 'leyenda': 'JOSE DILLON (CTE CTE)', 'importe': 1498216.77}, {'fecha': '2025-08-25', 'proveedor': 'JOSE ANACLETO E HIJOS S.A', 'comprobante': 'FGAS 12 13313', 'leyenda': 'JOSE DILLON CTA CTE', 'importe': 361633.71}]}}}, '2025-09': {'total_mes': 16030000.0, 'por_articulo': {'Mantenimiento': {'total': 16030000.0, 'items': [{'fecha': '2025-09-04', 'proveedor': 'FAE EQUIPAMIENTOS S. A', 'comprobante': 'FGAS 3 649', 'leyenda': 'JOSE DILLON (CTA CTE)', 'importe': 16030000.0}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 423136.13, 'por_articulo': {'Gastos Varios': {'total': 423136.13, 'items': [{'fecha': '2025-10-30', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 121 3673', 'leyenda': 'JOSE DILLON - CTA CTE', 'importe': 423136.13}]}}}}</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
@@ -862,10 +864,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 304840.95999999996, 'por_articulo': {'Combustibles': {'total': 34800.36, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 34800.36}]}, 'Gastos Varios': {'total': -20203.5, 'items': [{'fecha': '2025-08-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 1 2370319', 'leyenda': 'JAIME GAVALDA - PAGO', 'importe': -1223.66}, {'fecha': '2025-08-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 1 2377864', 'leyenda': 'JAIME GAVALDA - PAGO', 'importe': -2437.78}, {'fecha': '2025-08-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 1 2384972', 'leyenda': 'JAIME GAVALDA - PAGO', 'importe': -5144.24}, {'fecha': '2025-08-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 1 2392316', 'leyenda': 'JAIME GAVALDA - PAGO', 'importe': -5451.08}, {'fecha': '2025-08-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 1 2402394', 'leyenda': 'JAIME GAVALDA - PAGO', 'importe': -5946.74}]}, 'Gastos de comida': {'total': 290244.1, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 290244.1}]}}}, '2025-09': {'total_mes': 42374.909999999996, 'por_articulo': {'Gastos Varios': {'total': 42374.909999999996, 'items': [{'fecha': '2025-09-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 1 2410052', 'leyenda': 'JAIME GAVALDA - PAGO', 'importe': -7211.87}, {'fecha': '2025-09-03', 'proveedor': 'DON BELIS S.A.', 'comprobante': 'FGAS 8 12041', 'leyenda': 'FUNDAS ASIENTO JAIME CTA CTE', 'importe': 49586.78}]}}}}</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 500621.33999999997, 'por_articulo': {'Combustibles': {'total': 159742.07, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 159742.07}]}, 'Gastos Varios': {'total': 41085.98, 'items': [{'fecha': '2025-10-28', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 1 2417854', 'leyenda': 'PLAN ROMBO 10/25', 'importe': 41085.98}]}, 'Gastos de comida': {'total': 299793.29, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 299793.29}]}}}, '2025-11': {'total_mes': -9647.71, 'por_articulo': {'Gastos Varios': {'total': -9647.71, 'items': [{'fecha': '2025-11-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 1 2425777', 'leyenda': 'JAIME GAVALDA - PAGO', 'importe': -9647.71}]}}}}</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -936,7 +942,11 @@
           <t>{}</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -1012,10 +1022,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 799229.69, 'por_articulo': {'Combustibles': {'total': 107160.58, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 107160.58}]}, 'Gastos de comida': {'total': 692069.11, 'items': [{'fecha': '2025-08-27', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26104', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 18060.0}, {'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 369388.91}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 304620.2}]}}}, '2025-09': {'total_mes': 13242.62, 'por_articulo': {'Gastos de comida': {'total': 13242.62, 'items': [{'fecha': '2025-09-18', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26470', 'leyenda': 'COMPRA QUESO LA BLANQUEADA', 'importe': 13242.62}]}}}}</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 504908.51, 'por_articulo': {'Combustibles': {'total': 91685.37, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 91685.37}]}, 'Gastos de comida': {'total': 413223.14, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 413223.14}]}}}, '2025-11': {'total_mes': 822846.6799999999, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 500000.0, 'items': [{'fecha': '2025-11-14', 'proveedor': 'nan', 'comprobante': 'PVS 10 15233', 'leyenda': 'PAGO CAÑAS PABLO - ADELANTO', 'importe': 500000.0}]}, 'Gastos de comida': {'total': 322846.68, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 309157.93}, {'fecha': '2025-11-19', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27546', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 13688.75}]}}}}</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -1091,10 +1105,14 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 932177.8600000001, 'por_articulo': {'Combustibles': {'total': 382507.2, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 382507.2}]}, 'Gastos de comida': {'total': 271670.66000000003, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 48236.16}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 161496.48}, {'fecha': '2025-08-30', 'proveedor': 'LA REGIONAL ASOCIACION SIMPLE DE PONTELLO EMILIANO', 'comprobante': 'FGAS 1 3846', 'leyenda': 'EVENTOS', 'importe': 61938.02}]}, 'Mantenimiento': {'total': 278000.0, 'items': [{'fecha': '2025-08-01', 'proveedor': 'BOMBINI LUIS ALBERTO', 'comprobante': 'FGAS 2 961', 'leyenda': 'GUSTAVO GONZALEZ (CUENTA CORRIENTE)', 'importe': 278000.0}]}}}}</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 903858.99, 'por_articulo': {'Combustibles': {'total': 294431.56, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 294431.56}]}, 'Gastos Varios': {'total': 503752.0, 'items': [{'fecha': '2025-10-21', 'proveedor': 'YACONIS PABLO GERMAN', 'comprobante': 'FGAS 5 1014', 'leyenda': 'GUSTAVO GONZALEZ PERSONAL - CTA CTE', 'importe': 503752.0}]}, 'Gastos de comida': {'total': 105675.43, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 105675.43}]}}}, '2025-11': {'total_mes': 341707.83, 'por_articulo': {'Gastos de comida': {'total': 115757.42, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 115757.42}]}, 'Mantenimiento': {'total': 225950.41, 'items': [{'fecha': '2025-11-04', 'proveedor': 'NEUMATICOS CENTRO', 'comprobante': 'FGAS 4 11510', 'leyenda': 'CUBIERTAS MONEDA CTA CTE', 'importe': 225950.41}]}}}}</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -1166,10 +1184,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>{'2025-09': {'total_mes': -88612.08, 'por_articulo': {'Combustibles': {'total': -13332.35, 'items': [{'fecha': '2025-09-01', 'proveedor': 'COOP. AGROP.EL PROG.DE HENDERSON', 'comprobante': 'FGAS 57 66247', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -13332.35}]}, 'Gastos Varios': {'total': -75279.73, 'items': [{'fecha': '2025-09-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 5 27390', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -4018.64}, {'fecha': '2025-09-01', 'proveedor': 'COOP. AGROP.EL PROG.DE HENDERSON', 'comprobante': 'FGAS 44 6034', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -947.96}, {'fecha': '2025-09-03', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 5 329', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -47603.2}, {'fecha': '2025-09-04', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 2 2123', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -13394.88}, {'fecha': '2025-09-04', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 3 2794', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -9315.05}]}}}}</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': -213881.76, 'por_articulo': {'Combustibles': {'total': -62863.86, 'items': [{'fecha': '2025-10-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 16 21573', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -12573.93}, {'fecha': '2025-10-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 16 22715', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -13659.37}, {'fecha': '2025-10-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 50 9855', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -7731.83}, {'fecha': '2025-10-01', 'proveedor': 'PETROGAS TANDIL S.A.', 'comprobante': 'FGAS 57 38811', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -5774.75}, {'fecha': '2025-10-01', 'proveedor': 'PETROGAS TANDIL S.A.', 'comprobante': 'FGAS 78 83047', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -8934.98}, {'fecha': '2025-10-28', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 21 92396', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -14189.0}]}, 'Gastos Varios': {'total': -151017.90000000002, 'items': [{'fecha': '2025-10-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 3 2794', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -9315.05}, {'fecha': '2025-10-01', 'proveedor': 'COOP. AGROP.EL PROG.DE HENDERSON', 'comprobante': 'FGAS 57 68535', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -6808.75}, {'fecha': '2025-10-01', 'proveedor': 'COOP. AGROP.EL PROG.DE HENDERSON', 'comprobante': 'FGAS 80 17803', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -590.08}, {'fecha': '2025-10-01', 'proveedor': 'SERVITEC HOGAR', 'comprobante': 'FGAS 71 956', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -81719.36}, {'fecha': '2025-10-02', 'proveedor': 'COOP. AGROP.EL PROG.DE HENDERSON', 'comprobante': 'FGAS 80 17852', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -511.98}, {'fecha': '2025-10-08', 'proveedor': 'VALENTIN BIANCHI S.A.C.I.F', 'comprobante': 'FGAS 260 13533', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -28050.57}, {'fecha': '2025-10-20', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 10 537', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -11654.13}, {'fecha': '2025-10-20', 'proveedor': 'MEDINA RUBEN DARIO', 'comprobante': 'FGAS 2 2535', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -4269.3}, {'fecha': '2025-10-22', 'proveedor': 'COOP. AGROP.EL PROG.DE HENDERSON', 'comprobante': 'FGAS 44 7042', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -6666.48}, {'fecha': '2025-10-24', 'proveedor': 'COOP. AGROP.EL PROG.DE HENDERSON', 'comprobante': 'FGAS 44 7066', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -1432.2}]}}}, '2025-11': {'total_mes': 886653.71, 'por_articulo': {'Gastos Varios': {'total': 712955.54, 'items': [{'fecha': '2025-11-04', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 10 9844', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -12429.05}, {'fecha': '2025-11-04', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 4 673', 'leyenda': 'MARIANO GARCIA - PAGO', 'importe': -2644.41}, {'fecha': '2025-11-14', 'proveedor': 'MEDINA RUBEN DARIO', 'comprobante': 'FGAS 2 2558', 'leyenda': 'MARIANO GARCIA CTA CTE', 'importe': 728029.0}]}, 'Mantenimiento': {'total': 173698.17, 'items': [{'fecha': '2025-11-03', 'proveedor': 'HIJOS DE OMAR DIEZ SOCIEDAD DE HECHO DE DIEZ JUAN', 'comprobante': 'FGAS 6 615', 'leyenda': 'MATERIALEA MARIANO CTA CTE', 'importe': 173698.17}]}}}}</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -1245,10 +1267,14 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 681921.83, 'por_articulo': {'Combustibles': {'total': 111369.22, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 111369.22}]}, 'Gastos de comida': {'total': 570552.61, 'items': [{'fecha': '2025-08-27', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26104', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 41646.77}, {'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 412426.58}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 116479.26}]}}}, '2025-09': {'total_mes': -70459.18000000001, 'por_articulo': {'Gastos Varios': {'total': -83701.8, 'items': [{'fecha': '2025-09-15', 'proveedor': 'MARTI DE BELLIS AGUSTIN IGNACIO', 'comprobante': 'FGAS 7 15', 'leyenda': 'GASTOS VARIOS BAI - PAGO-', 'importe': -83701.8}]}, 'Gastos de comida': {'total': 13242.62, 'items': [{'fecha': '2025-09-18', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26470', 'leyenda': 'COMPRA QUESO LA BLANQUEADA', 'importe': 13242.62}]}}}}</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 694908.05, 'por_articulo': {'Combustibles': {'total': 240139.5, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 240139.5}]}, 'Gastos de comida': {'total': 454768.55, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 454768.55}]}}}, '2025-11': {'total_mes': 13552.999999999996, 'por_articulo': {'Gastos Varios': {'total': -26041.98, 'items': [{'fecha': '2025-11-26', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 50 2976', 'leyenda': 'GASTOS BAI - PAGO-', 'importe': -26041.98}]}, 'Gastos de comida': {'total': 45356.79, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 20231.68}, {'fecha': '2025-11-19', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27546', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 25125.11}]}, 'nan': {'total': -5761.81, 'items': [{'fecha': '2025-11-18', 'proveedor': 'BROGAS SA', 'comprobante': 'LG 21 112232', 'leyenda': 'GASTOS BAI - PAGO -', 'importe': -5761.81}]}}}}</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1324,10 +1350,14 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 658585.28, 'por_articulo': {'Combustibles': {'total': 658585.28, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 262275.76}, {'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 396309.52}]}}}, '2025-09': {'total_mes': 2372962.5, 'por_articulo': {'Gastos Varios': {'total': 2372962.5, 'items': [{'fecha': '2025-09-25', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 4 244', 'leyenda': 'CAMILA MONTALBANO - CTA CTE', 'importe': 2372962.5}]}}}}</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 262503.94, 'por_articulo': {'Combustibles': {'total': 262503.94, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 149949.75}, {'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 112554.19}]}}}}</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1355,7 +1385,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>José Luis</t>
+          <t>Jose Luis</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1403,43 +1433,43 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 828004.6799999999, 'por_articulo': {'Combustibles': {'total': 141582.87, 'items': [{'fecha': '2025-08-14', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 21588', 'leyenda': 'GONZALEZ JOSE', 'importe': 69173.07}, {'fecha': '2025-08-29', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 22083', 'leyenda': 'COMBUSTIBLE JOSE G CTA CTE', 'importe': 72409.8}]}, 'Gastos de comida': {'total': 686421.81, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 413223.14}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 273198.67}]}}}, '2025-09': {'total_mes': 157030.03999999998, 'por_articulo': {'Combustibles': {'total': 157030.03999999998, 'items': [{'fecha': '2025-09-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 22517', 'leyenda': 'GONZALEZ LAGOS JOSE CTA CTE', 'importe': 28549.78}, {'fecha': '2025-09-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 22517', 'leyenda': 'GONZALEZ LAGOS, JOSE CTA CTE', 'importe': 128480.26}]}}}}</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 516414.82999999996, 'por_articulo': {'Combustibles': {'total': 103191.69, 'items': [{'fecha': '2025-10-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23404', 'leyenda': 'COMBUSTIBLE JOSE GONZALEZ', 'importe': 10388.63}, {'fecha': '2025-10-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23403', 'leyenda': 'COMBUSTIBLE JOSE GONZALEZ', 'importe': 77066.95}, {'fecha': '2025-10-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23404', 'leyenda': 'COMBUSTIBLE JOSE GONZALEZ', 'importe': 2225.02}, {'fecha': '2025-10-30', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23993', 'leyenda': 'COMBUSTIBLE GONZALEZ JOSE', 'importe': 2386.17}, {'fecha': '2025-10-30', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23993', 'leyenda': 'COMBUSTIBLE JOSE GONZALEZ', 'importe': 11124.92}]}, 'Gastos de comida': {'total': 413223.14, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 413223.14}]}}}, '2025-11': {'total_mes': 755095.9, 'por_articulo': {'Combustibles': {'total': 12165.15, 'items': [{'fecha': '2025-11-14', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 24342', 'leyenda': 'COMBUSTIBLE JOSE CTA CTE', 'importe': 12165.15}]}, 'Gastos de comida': {'total': 263591.91, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 263591.91}]}, 'Mantenimiento': {'total': 479338.84, 'items': [{'fecha': '2025-11-08', 'proveedor': 'VERGARA MARIA SOL', 'comprobante': 'FGAS 1 150', 'leyenda': 'TAPA PEUGEOT JOSE GONZALEZ CTA CTE', 'importe': 479338.84}]}}}}</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>3059282.67</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>24</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2804342.42</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-254940.25</v>
+      </c>
+      <c r="T12" t="n">
+        <v>127470.11</v>
+      </c>
       <c r="U12" t="n">
-        <v>3059282.67</v>
-      </c>
-      <c r="V12" t="n">
-        <v>24</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2676872.31</v>
-      </c>
-      <c r="X12" t="n">
-        <v>-382410.3599999999</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>127470.11</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA12" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="V12" t="inlineStr">
         <is>
           <t>01-12-2025</t>
         </is>
       </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1499,27 +1529,27 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
       <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1574,7 +1604,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1583,18 +1613,18 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 339425.62, 'por_articulo': {'Gastos de comida': {'total': 339425.62, 'items': [{'fecha': '2025-08-30', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1943', 'leyenda': 'SUPERMERCADO QUIROGA', 'importe': 339425.62}]}}}}</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 458570.25, 'por_articulo': {'Gastos de comida': {'total': 458570.25, 'items': [{'fecha': '2025-10-31', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1955', 'leyenda': 'SUPERMERCADO QUIROGA 10/2025', 'importe': 458570.25}]}}}}</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
@@ -1657,44 +1687,36 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>Activo</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>{'2025-10': {'total_mes': 497955.26, 'por_articulo': {'Combustibles': {'total': 172575.03, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 172575.03}]}, 'Gastos Varios': {'total': -33682.7, 'items': [{'fecha': '2025-10-21', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 9 38868', 'leyenda': 'LOPEZ JUAN FRANCO (PAGO)', 'importe': -26945.52}, {'fecha': '2025-10-22', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 8 30311', 'leyenda': 'LOPEZ JUAN FRANCO (PAGO)', 'importe': -6737.18}]}, 'Gastos de comida': {'total': 359062.93, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 359062.93}]}}}, '2025-11': {'total_mes': 154152.16, 'por_articulo': {'Gastos de comida': {'total': 154152.16, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 126774.65}, {'fecha': '2025-11-19', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27546', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 27377.51}]}}}}</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="V15" t="n">
-        <v>6</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1250000</v>
-      </c>
-      <c r="X15" t="n">
-        <v>-250000</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>250000</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>20-10-2025</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1757,18 +1779,18 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 170800.47, 'por_articulo': {'Combustibles': {'total': 150841.79, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 150841.79}]}, 'Gastos de comida': {'total': 19958.68, 'items': [{'fecha': '2025-08-30', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1943', 'leyenda': 'SUPERMERCADO QUIROGA', 'importe': 19958.68}]}}}}</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 210827.08, 'por_articulo': {'Combustibles': {'total': 143897.33, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 143897.33}]}, 'Gastos de comida': {'total': 66929.75, 'items': [{'fecha': '2025-10-31', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1955', 'leyenda': 'SUPERMERCADO QUIROGA 10/2025', 'importe': 66929.75}]}}}}</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
@@ -1840,18 +1862,18 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 96340.76, 'por_articulo': {'Combustibles': {'total': 45836.63, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 45836.63}]}, 'Gastos de comida': {'total': 50504.13, 'items': [{'fecha': '2025-08-30', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1943', 'leyenda': 'SUPERMERCADO QUIROGA', 'importe': 50504.13}]}}}}</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 263268.3, 'por_articulo': {'Combustibles': {'total': 67673.26, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 67673.26}]}, 'Gastos de comida': {'total': 195595.04, 'items': [{'fecha': '2025-10-31', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1955', 'leyenda': 'SUPERMERCADO QUIROGA 10/2025', 'importe': 195595.04}]}}}}</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
@@ -1923,18 +1945,18 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 668275.65, 'por_articulo': {'Combustibles': {'total': 113965.73, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 113965.73}]}, 'Gastos de comida': {'total': 554309.92, 'items': [{'fecha': '2025-08-30', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1943', 'leyenda': 'SUPERMERCADO QUIROGA', 'importe': 554309.92}]}}}}</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 686167.58, 'por_articulo': {'Combustibles': {'total': 43667.58, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 43667.58}]}, 'Gastos de comida': {'total': 642500.0, 'items': [{'fecha': '2025-10-31', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1955', 'leyenda': 'SUPERMERCADO QUIROGA 10/2025', 'importe': 642500.0}]}}}}</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
@@ -2006,18 +2028,18 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 434133.54, 'por_articulo': {'Combustibles': {'total': 178378.88, 'items': [{'fecha': '2025-08-14', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 21586', 'leyenda': 'ATIA', 'importe': 44218.66}, {'fecha': '2025-08-29', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 22085', 'leyenda': 'COMBUSTIBLE ATIA CTA CTE', 'importe': 49006.71}, {'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 85153.51}]}, 'Gastos Varios': {'total': -57417.82000000001, 'items': [{'fecha': '2025-08-26', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 105 12511', 'leyenda': 'ATIA PERSONAL (PAGO)', 'importe': -24297.52}, {'fecha': '2025-08-26', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 2 3060', 'leyenda': 'SEBASTIAN ATIA - PAGO', 'importe': -33120.3}]}, 'Gastos de comida': {'total': 313172.48, 'items': [{'fecha': '2025-08-27', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26104', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 11612.6}, {'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 157424.01}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 144135.87}]}}}, '2025-09': {'total_mes': -150629.16, 'por_articulo': {'Combustibles': {'total': 52733.64, 'items': [{'fecha': '2025-09-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 22524', 'leyenda': 'ATIA CTA CTE', 'importe': 52733.64}]}, 'Gastos Varios': {'total': -95022.53, 'items': [{'fecha': '2025-09-25', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 8 40827', 'leyenda': 'ATIA - PAGO', 'importe': -95022.53}]}, 'Gastos de comida': {'total': -6853.0, 'items': [{'fecha': '2025-09-13', 'proveedor': 'AUTOSERVICIO MAYORISTA DIARCO SA', 'comprobante': 'FGAS 3705 206', 'leyenda': 'ATIA SEBASTIAN - PAGO', 'importe': -33338.25}, {'fecha': '2025-09-18', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26470', 'leyenda': 'COMPRA QUESO LA BLANQUEADA', 'importe': 26485.25}]}, 'Mantenimiento': {'total': -101487.27, 'items': [{'fecha': '2025-09-19', 'proveedor': 'OXINUEVE S.A.', 'comprobante': 'FGAS 11 114464', 'leyenda': 'ATIA - PAGO', 'importe': -101487.27}]}}}}</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 368483.54000000004, 'por_articulo': {'Combustibles': {'total': 161331.98, 'items': [{'fecha': '2025-10-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23405', 'leyenda': 'COMBUSTIBLE ATIA', 'importe': 51409.37}, {'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 109922.61}]}, 'Gastos Varios': {'total': -12942.800000000003, 'items': [{'fecha': '2025-10-11', 'proveedor': 'AUTOSERVICIO MAYORISTA DIARCO SA', 'comprobante': 'FGAS 3703 298', 'leyenda': 'ATIA (PAGO)', 'importe': -14563.28}, {'fecha': '2025-10-13', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 9 678', 'leyenda': 'ATIA - PAGO', 'importe': -10055.7}, {'fecha': '2025-10-29', 'proveedor': 'OXINUEVE S.A.', 'comprobante': 'FGAS 11 115822', 'leyenda': 'SEBASTIAN ATIA - CTA CTE', 'importe': 11676.18}]}, 'Gastos de comida': {'total': 185164.43, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 151664.48}, {'fecha': '2025-10-30', 'proveedor': 'CORONEL MARIO OSCAR', 'comprobante': 'FGAS 4 414789', 'leyenda': 'SEBASTIAN ATIAS - CTA CTE', 'importe': 33499.95}]}, 'Mantenimiento': {'total': 34929.93, 'items': [{'fecha': '2025-10-17', 'proveedor': 'TAMEX - 2', 'comprobante': 'FGAS 5 72472', 'leyenda': 'LAMPARAS ATIA CTA CTE / PILAS OFICINA', 'importe': 7537.2}, {'fecha': '2025-10-20', 'proveedor': 'OXINUEVE S.A.', 'comprobante': 'FGAS 11 115472', 'leyenda': 'CAÑOS ATIA CTA CTE', 'importe': 27392.73}]}}}, '2025-11': {'total_mes': 601758.6699999999, 'por_articulo': {'Combustibles': {'total': 56749.2, 'items': [{'fecha': '2025-11-14', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 24340', 'leyenda': 'COMBUSTIBLE ATIA CTA CTE', 'importe': 56749.2}]}, 'Gastos Varios': {'total': -10539.88, 'items': [{'fecha': '2025-11-06', 'proveedor': 'OXINUEVE S.A.', 'comprobante': 'FGAS 11 116179', 'leyenda': 'ATIA (PAGO)', 'importe': -10539.88}]}, 'Gastos de comida': {'total': 347943.02, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 331261.17}, {'fecha': '2025-11-12', 'proveedor': 'CORONEL MARIO OSCAR', 'comprobante': 'FGAS 4 417393', 'leyenda': 'COMPRA ARCOR ATIA CTA CTE', 'importe': 5245.46}, {'fecha': '2025-11-19', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27546', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 11436.39}]}, 'Mantenimiento': {'total': 207606.33, 'items': [{'fecha': '2025-11-03', 'proveedor': 'MECANO GANADERO S.A.', 'comprobante': 'FGAS 7 23249', 'leyenda': 'ATIA CTA CTE', 'importe': 207606.33}]}}}}</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
@@ -2076,7 +2098,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -2085,10 +2107,14 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 69772.56, 'por_articulo': {'Combustibles': {'total': 69772.56, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 69772.56}]}}}}</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 80269.87, 'por_articulo': {'Combustibles': {'total': 29600.45, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 29600.45}]}, 'Gastos de comida': {'total': 50669.42, 'items': [{'fecha': '2025-10-31', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1955', 'leyenda': 'SUPERMERCADO QUIROGA 10/2025', 'importe': 50669.42}]}}}}</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -2147,15 +2173,23 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>Activo</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>{'2025-10': {'total_mes': 2391490.8, 'por_articulo': {'Combustibles': {'total': 74038.07999999999, 'items': [{'fecha': '2025-10-08', 'proveedor': 'PETROGUAZZ S.A.', 'comprobante': 'FGAS 48 41317', 'leyenda': 'PETROGUAZZ - CALLEGARO DIEGO PAGO', 'importe': -6637.46}, {'fecha': '2025-10-08', 'proveedor': 'PETROGUAZZ S.A.', 'comprobante': 'FGAS 48 41322', 'leyenda': 'PETROGUAZZ - CALLEGARO DIEGO PAGO', 'importe': -15051.65}, {'fecha': '2025-10-20', 'proveedor': 'PETROGUAZZ S.A.', 'comprobante': 'FGAS 48 51133', 'leyenda': 'PETROGUAZZ - CALLEGARO DIEGO PAGO', 'importe': -7825.59}, {'fecha': '2025-10-30', 'proveedor': 'PETROGUAZZ S.A.', 'comprobante': 'FGAS 47 51405', 'leyenda': 'PETROGUAZZ - CALLEGARO DIEGO PAGO', 'importe': -15395.24}, {'fecha': '2025-10-31', 'proveedor': 'PETROGUAZZ S.A.', 'comprobante': 'FGAS 48 41779', 'leyenda': 'PETROGUAZZ - CALLEGARO DIEGO PAGO', 'importe': -9015.02}, {'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 127963.04}]}, 'Gastos Varios': {'total': 2077391.38, 'items': [{'fecha': '2025-10-24', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 48 3520', 'leyenda': 'MASCOTAS DEL OESTE-DIEGO CALLEGARO PAGO', 'importe': -7809.74}, {'fecha': '2025-10-27', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 7 27878', 'leyenda': 'DOGGO PIZARRAS - DIEGO CALLEGARO PAGO', 'importe': -3818.18}, {'fecha': '2025-10-28', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 2 3035', 'leyenda': 'MARSRO SRL - DIEGO CALLEGARO CTA CTE', 'importe': 2294998.19}, {'fecha': '2025-10-28', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 3 180', 'leyenda': 'PESTARINO DIEGO - CALLEGARO DIEGO PAGO', 'importe': -5585.42}, {'fecha': '2025-10-29', 'proveedor': 'CLERICO VICTOR Y NANNI SILVIA S.H.', 'comprobante': 'FGAS 4 10062', 'leyenda': 'CLERICO VICTOR- CALLEGARO DIEGO PAGO', 'importe': -1650.9}, {'fecha': '2025-10-30', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 5 687', 'leyenda': 'BALADO PABLO - DIEGO CALLEGARO PAGO', 'importe': -6445.39}, {'fecha': '2025-10-30', 'proveedor': 'BRUNO TERESA C.B. DE TESTARDIN', 'comprobante': 'FGAS 6 5340', 'leyenda': 'BRUNO TERESA - DIEGO CALLEGARO PAGO', 'importe': -138842.98}, {'fecha': '2025-10-31', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 10 138985', 'leyenda': 'GARDEN-LIFE SA - DIEGO CALLEGARO PAGO', 'importe': -26727.1}, {'fecha': '2025-10-31', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 10 138986', 'leyenda': 'GARDEN-LIFE SA - DIEGO CALLEGARO PAGO', 'importe': -26727.1}]}, 'Gastos de comida': {'total': 240061.34, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 240061.34}]}}}, '2025-11': {'total_mes': 354357.24, 'por_articulo': {'Gastos Varios': {'total': 192191.36, 'items': [{'fecha': '2025-11-04', 'proveedor': 'PINTURERIA PINTAR S.R.L.', 'comprobante': 'FGAS 5 7812', 'leyenda': 'PINTURERIA PINTAR - DIEGO CALLEGARO CTA CTE', 'importe': 275662.39}, {'fecha': '2025-11-04', 'proveedor': 'VTV NOROESTE S.A', 'comprobante': 'FGAS 300 9049', 'leyenda': 'VTV NOROESTE-DIEGO CALLEGARO PAGO', 'importe': -13821.97}, {'fecha': '2025-11-10', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 4 12908', 'leyenda': 'SHOP SRL - DIEGO CALLEGARO PAGO', 'importe': -7809.92}, {'fecha': '2025-11-19', 'proveedor': 'SUAREZ GUSTAVO JAVIER Y SUAREZ RUBEN FABIAN SH', 'comprobante': 'FGAS 4 31363', 'leyenda': 'EL CAÑON SH - DIEGO CALLEGARO PAGO', 'importe': -20186.25}, {'fecha': '2025-11-20', 'proveedor': 'BRUNO TERESA C.B. DE TESTARDIN', 'comprobante': 'FGAS 6 5456', 'leyenda': 'BRUNO TERESA - DIEGO CALLEGARO PAGO', 'importe': -41652.89}]}, 'Gastos de comida': {'total': 162165.88, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 177159.84}, {'fecha': '2025-11-19', 'proveedor': 'DEL FABRO HNOS Y CIA', 'comprobante': 'FGAS 26 3509', 'leyenda': 'JUSTINO - DIEGO CALLEGARO PAGO', 'importe': -8840.09}, {'fecha': '2025-11-21', 'proveedor': 'DEL FABRO HNOS Y CIA', 'comprobante': 'FGAS 26 3515', 'leyenda': 'JUSTINO - DIEGO CALLEGARO PAGO', 'importe': -6153.87}]}}}}</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -2231,10 +2265,14 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 418591.37, 'por_articulo': {'Combustibles': {'total': 179397.16, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 179397.16}]}, 'Gastos de comida': {'total': 239194.21, 'items': [{'fecha': '2025-08-30', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1943', 'leyenda': 'SUPERMERCADO QUIROGA', 'importe': 239194.21}]}}}}</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 295306.16000000003, 'por_articulo': {'Combustibles': {'total': 83252.44, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 83252.44}]}, 'Gastos de comida': {'total': 212053.72, 'items': [{'fecha': '2025-10-31', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1955', 'leyenda': 'SUPERMERCADO QUIROGA 10/2025', 'importe': 212053.72}]}}}}</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -2302,32 +2340,32 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 98479.41, 'por_articulo': {'Combustibles': {'total': 98479.41, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 98479.41}]}}}, '2025-09': {'total_mes': 520498.82, 'por_articulo': {'Gastos Varios': {'total': 214000.0, 'items': [{'fecha': '2025-09-26', 'proveedor': 'FORNES GUSTAVO', 'comprobante': 'FGAS 1 13', 'leyenda': 'MAXI BELTRAN - CTA CTE', 'importe': 214000.0}]}, 'Gastos de comida': {'total': 306498.82, 'items': [{'fecha': '2025-09-01', 'proveedor': 'CODEANA S.A.S.', 'comprobante': 'FGAS 3 266', 'leyenda': 'GASTOS COMIDA', 'importe': 306498.82}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 58780.73, 'por_articulo': {'Combustibles': {'total': 58780.73, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 58780.73}]}}}, '2025-11': {'total_mes': 267315.97, 'por_articulo': {'Gastos de comida': {'total': 267315.97, 'items': [{'fecha': '2025-11-04', 'proveedor': 'CODEANA S.A.S.', 'comprobante': 'FGAS 3 285', 'leyenda': 'SUPER TRENQUE LAUQUEN 10/2025', 'importe': 267315.97}]}}}}</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Trenque Lauquen</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Trenque Lauquen</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
       <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2383,32 +2421,48 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 445000.78, 'por_articulo': {'Combustibles': {'total': 201235.61000000002, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 170939.76}, {'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792069', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 30295.85}]}, 'Gastos de comida': {'total': 243765.17, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 243765.17}]}}}, '2025-09': {'total_mes': 26857.42, 'por_articulo': {'Gastos de comida': {'total': 26857.42, 'items': [{'fecha': '2025-09-05', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26281', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 26857.42}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 551509.87, 'por_articulo': {'Combustibles': {'total': 220471.21, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 220471.21}]}, 'Gastos Varios': {'total': 99907.58, 'items': [{'fecha': '2025-10-21', 'proveedor': 'OXINUEVE S.A.', 'comprobante': 'FGAS 11 115539', 'leyenda': 'IVAN SEIJO - CTA CTE', 'importe': 99907.58}]}, 'Gastos de comida': {'total': 231131.08, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 231131.08}]}}}}</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>empleado</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="n">
+        <v>323785</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-323785</v>
+      </c>
+      <c r="T24" t="n">
+        <v>107928.33</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>01-01-2026</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
           <t>9 de Julio</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
       <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2464,32 +2518,32 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 174339.83000000002, 'por_articulo': {'Combustibles': {'total': 97171.85, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 97171.85}]}, 'Gastos de comida': {'total': 77167.98, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 77167.98}]}}}, '2025-09': {'total_mes': -442950.79000000004, 'por_articulo': {'Mantenimiento': {'total': -276686.33, 'items': [{'fecha': '2025-09-24', 'proveedor': 'SUPERFICIES S.R.L.', 'comprobante': 'FGAS 7 21817', 'leyenda': 'SANTIAGO ACUÑA - PAGO', 'importe': -276686.33}]}, 'Reparaciones': {'total': -166264.46, 'items': [{'fecha': '2025-09-09', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 8 10254', 'leyenda': 'SANTIAGO ACUÑA (PAGO)', 'importe': -166264.46}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 372336.39999999997, 'por_articulo': {'Combustibles': {'total': 120981.43, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 120981.43}]}, 'Gastos Varios': {'total': -10559.7, 'items': [{'fecha': '2025-10-21', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 10 3028', 'leyenda': 'ANAFE SANTIAGO PAGO', 'importe': -10559.7}]}, 'Gastos de comida': {'total': 261914.66999999998, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 228555.59}, {'fecha': '2025-10-29', 'proveedor': 'CORONEL MARIO OSCAR', 'comprobante': 'FGAS 4 414560', 'leyenda': 'SANTIAGO ACUÑA - CTA CTE', 'importe': 33359.08}]}}}}</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
       <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2549,10 +2603,14 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 293239.67, 'por_articulo': {'Gastos de comida': {'total': 293239.67, 'items': [{'fecha': '2025-08-30', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1943', 'leyenda': 'SUPERMERCADO QUIROGA', 'importe': 293239.67}]}}}}</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
@@ -2628,10 +2686,14 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 429026.87, 'por_articulo': {'Combustibles': {'total': 63266.72, 'items': [{'fecha': '2025-08-14', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 21585', 'leyenda': 'CINGOLANI', 'importe': 63266.72}]}, 'Gastos de comida': {'total': 365760.15, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 79458.21}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 286301.94}]}}}, '2025-09': {'total_mes': 106193.43, 'por_articulo': {'Combustibles': {'total': 114524.01, 'items': [{'fecha': '2025-09-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 22521', 'leyenda': 'ALEJANDRO CINGOLANI CTA CTE', 'importe': 20821.72}, {'fecha': '2025-09-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 22521', 'leyenda': 'CINGOLANI ALEJANDRO', 'importe': 93702.29}]}, 'Gastos Varios': {'total': -8330.58, 'items': [{'fecha': '2025-09-08', 'proveedor': 'FERRERE JUAN PATRICIO', 'comprobante': 'FGAS 5 14984', 'leyenda': 'CINGOLANI ALEJANDRO - PAGO', 'importe': -8330.58}]}}}}</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 134981.07, 'por_articulo': {'Combustibles': {'total': 64476.75, 'items': [{'fecha': '2025-10-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23407', 'leyenda': 'COMBUSTIBLE CINGOLANI', 'importe': 7344.93}, {'fecha': '2025-10-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23407', 'leyenda': 'COMBUSTIBLE CINGOLANI', 'importe': 34293.45}, {'fecha': '2025-10-30', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23995', 'leyenda': 'COMBUSTIBLE CINGOLANI', 'importe': 22838.37}]}, 'Gastos de comida': {'total': 70504.32, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 70504.32}]}}}, '2025-11': {'total_mes': 333347.36, 'por_articulo': {'Combustibles': {'total': 42652.69, 'items': [{'fecha': '2025-11-14', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 24343', 'leyenda': 'COMBUSTIBLE COTONGO CTA CTE', 'importe': 42652.69}]}, 'Gastos de comida': {'total': 290694.67, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 290694.67}]}}}}</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
@@ -2710,7 +2772,11 @@
           <t>{}</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
@@ -2769,7 +2835,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2783,27 +2849,27 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
       <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -2863,10 +2929,14 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 631546.0800000001, 'por_articulo': {'Combustibles': {'total': 289206.55, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 257312.51}, {'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792069', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 31894.04}]}, 'Gastos de comida': {'total': 342339.53, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 215196.84}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 127142.69}]}}}}</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 393060.59, 'por_articulo': {'Combustibles': {'total': 185806.67, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 185806.67}]}, 'Gastos de comida': {'total': 207253.92, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 207253.92}]}}}, '2025-11': {'total_mes': 36322.58, 'por_articulo': {'Gastos de comida': {'total': 36322.58, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 16868.24}, {'fecha': '2025-11-19', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27546', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 19454.34}]}}}}</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
@@ -2934,32 +3004,32 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 345255.08999999997, 'por_articulo': {'Gastos de comida': {'total': 345255.08999999997, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 141064.05}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 204191.04}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 387805.9, 'por_articulo': {'Gastos de comida': {'total': 387805.9, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 387805.9}]}}}, '2025-11': {'total_mes': 137746.94, 'por_articulo': {'Gastos de comida': {'total': 137746.94, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 137746.94}]}}}}</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
       <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -3015,32 +3085,32 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 391091.43000000005, 'por_articulo': {'Combustibles': {'total': 95186.47, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 95186.47}]}, 'Gastos de comida': {'total': 295904.96, 'items': [{'fecha': '2025-08-30', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1943', 'leyenda': 'SUPERMERCADO QUIROGA', 'importe': 295904.96}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 363614.56, 'por_articulo': {'Combustibles': {'total': 89680.68, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 89680.68}]}, 'Gastos de comida': {'total': 273933.88, 'items': [{'fecha': '2025-10-31', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1955', 'leyenda': 'SUPERMERCADO QUIROGA 10/2025', 'importe': 273933.88}]}}}}</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Quiroga</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Quiroga</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
       <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -3096,32 +3166,32 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 64517.67, 'por_articulo': {'Combustibles': {'total': 63472.9, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 63472.9}]}, 'Gastos Varios': {'total': -4720.66, 'items': [{'fecha': '2025-08-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 7 68003', 'leyenda': 'COMPRA GUADA PAGO', 'importe': -4720.66}]}, 'Gastos de comida': {'total': 5765.429999999999, 'items': [{'fecha': '2025-08-25', 'proveedor': 'S A IMPORTADORA Y EXPORTADORA DE LA PATAGONIA', 'comprobante': 'FGAS 5975 54002', 'leyenda': 'COMPRA GUADA PAGO', 'importe': -6027.96}, {'fecha': '2025-08-27', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26104', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 11793.39}]}}}, '2025-09': {'total_mes': 13242.62, 'por_articulo': {'Gastos de comida': {'total': 13242.62, 'items': [{'fecha': '2025-09-18', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26470', 'leyenda': 'COMPRA QUESO LA BLANQUEADA', 'importe': 13242.62}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 99185.71, 'por_articulo': {'Combustibles': {'total': 62565.7, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 62565.7}]}, 'Gastos Varios': {'total': -131379.99, 'items': [{'fecha': '2025-10-25', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 121 189', 'leyenda': 'HELADERA GUADA PAGO', 'importe': -131379.99}]}, 'Reparaciones': {'total': 168000.0, 'items': [{'fecha': '2025-10-27', 'proveedor': 'YACONIS PABLO GERMAN', 'comprobante': 'FGAS 5 1025', 'leyenda': 'GUADALUPE MACCHIONE - CTA CTE', 'importe': 168000.0}]}}}}</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
       <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -3172,7 +3242,7 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -3181,10 +3251,14 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 519100.39, 'por_articulo': {'Combustibles': {'total': 157377.46, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 157377.46}]}, 'Gastos Varios': {'total': -28753.79, 'items': [{'fecha': '2025-08-14', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 20 1115', 'leyenda': 'SEBASTIAN VAZQUEZ - PAGO', 'importe': -3619.63}, {'fecha': '2025-08-23', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 2 3051', 'leyenda': 'SEBASTIAN VAZQUEZ - PAGO', 'importe': -13016.53}, {'fecha': '2025-08-23', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 21 71', 'leyenda': 'SEBASTIAN VAZQUEZ - PAGO', 'importe': -7077.98}, {'fecha': '2025-08-25', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 6 96', 'leyenda': 'SEBASTIAN VAZQUEZ - PAGO', 'importe': -5039.65}]}, 'Gastos de comida': {'total': 390476.72000000003, 'items': [{'fecha': '2025-08-27', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26104', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 29853.39}, {'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 152907.82}, {'fecha': '2025-08-30', 'proveedor': 'AUTOSERVICIO MAYORISTA DIARCO SA', 'comprobante': 'FGAS 3705 157', 'leyenda': 'SEBASTIAN VAZQUEZ - PAGO', 'importe': -17584.07}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 199893.79}, {'fecha': '2025-08-30', 'proveedor': 'LA REGIONAL ASOCIACION SIMPLE DE PONTELLO EMILIANO', 'comprobante': 'FGAS 1 3846', 'leyenda': 'EVENTOS', 'importe': 25405.79}]}}}, '2025-09': {'total_mes': 20048.97, 'por_articulo': {'Gastos Varios': {'total': -18403.199999999997, 'items': [{'fecha': '2025-09-02', 'proveedor': 'OXINUEVE S.A.', 'comprobante': 'FGAS 12 16731', 'leyenda': 'SEBASTIAN VAZQUEZ - PAGO', 'importe': -2599.14}, {'fecha': '2025-09-03', 'proveedor': 'OXINUEVE S.A.', 'comprobante': 'FGAS 11 113811', 'leyenda': 'SEBASTIAN VAZQUEZ - PAGO', 'importe': -5479.09}, {'fecha': '2025-09-09', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 3 56522', 'leyenda': 'VAZQUEZ SEBASTIAN - PAGO', 'importe': -10324.97}]}, 'Gastos de comida': {'total': 38452.17, 'items': [{'fecha': '2025-09-18', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26470', 'leyenda': 'COMPRA QUESO LA BLANQUEADA', 'importe': 38452.17}]}}}}</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 348324.45999999996, 'por_articulo': {'Combustibles': {'total': 224948.28, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 224948.28}]}, 'Gastos Varios': {'total': -54108.899999999994, 'items': [{'fecha': '2025-10-01', 'proveedor': 'PINTURERIA PINTAR S.R.L.', 'comprobante': 'FGAS 3 30804', 'leyenda': 'VAZQUEZ (PAGO)', 'importe': -8052.95}, {'fecha': '2025-10-06', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 99 4868', 'leyenda': 'SEBASTIAN VAZQUEZ - PAGO', 'importe': -43817.11}, {'fecha': '2025-10-31', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 5 70', 'leyenda': 'VAZQUEZ - PAGO', 'importe': -2238.84}]}, 'Gastos de comida': {'total': 177485.08000000002, 'items': [{'fecha': '2025-10-08', 'proveedor': 'AUTOSERVICIO MAYORISTA DIARCO SA', 'comprobante': 'FGAS 3703 279', 'leyenda': 'SEBASTIAN VAZQUEZ - PAGO', 'importe': -4747.08}, {'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 182232.16}]}}}, '2025-11': {'total_mes': -105423.97999999998, 'por_articulo': {'Gastos Varios': {'total': -245224.12, 'items': [{'fecha': '2025-11-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 8 12392', 'leyenda': 'VAZQUEZ - PAGO', 'importe': -23933.06}, {'fecha': '2025-11-04', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 3 3740', 'leyenda': 'VAZQUEZ - PAGO', 'importe': -10828.02}, {'fecha': '2025-11-06', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 5 17017', 'leyenda': 'VAZQUEZ - PAGO', 'importe': -14101.24}, {'fecha': '2025-11-06', 'proveedor': 'MAFFERETTI S.A.', 'comprobante': 'FGAS 19 29729', 'leyenda': 'VAZQUEZ - PAGO', 'importe': -28361.8}, {'fecha': '2025-11-08', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 1 149', 'leyenda': 'TANO PAGO (REPARACION AUTO)', 'importe': -105000.0}, {'fecha': '2025-11-10', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 5 9206', 'leyenda': 'VAZQUEZ - PAGO', 'importe': -52066.11}, {'fecha': '2025-11-17', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 3 1096', 'leyenda': 'TANO PAGO (ARREGLO AUTO)', 'importe': -10933.89}]}, 'Gastos de comida': {'total': 139800.14, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 126111.39}, {'fecha': '2025-11-19', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27546', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 13688.75}]}}}}</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -3243,7 +3317,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -3252,32 +3326,32 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 467458.07999999996, 'por_articulo': {'Combustibles': {'total': 199429.15, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 199429.15}]}, 'Gastos de comida': {'total': 268028.93, 'items': [{'fecha': '2025-08-30', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1943', 'leyenda': 'SUPERMERCADO QUIROGA', 'importe': 268028.93}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 361388.43, 'por_articulo': {'Gastos de comida': {'total': 361388.43, 'items': [{'fecha': '2025-10-31', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1955', 'leyenda': 'SUPERMERCADO QUIROGA 10/2025', 'importe': 361388.43}]}}}}</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Quiroga</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Quiroga</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
       <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -3337,59 +3411,63 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 195438.77, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 50000.0, 'items': [{'fecha': '2025-08-29', 'proveedor': 'nan', 'comprobante': 'PVS 10 14211', 'leyenda': 'ADELANTOS', 'importe': 50000.0}]}, 'Combustibles': {'total': 145438.77, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 145438.77}]}}}, '2025-09': {'total_mes': 100000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 100000.0, 'items': [{'fecha': '2025-09-19', 'proveedor': 'nan', 'comprobante': 'PVS 10 14505', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}, {'fecha': '2025-09-26', 'proveedor': 'nan', 'comprobante': 'PVS 10 14607', 'leyenda': 'ADELANTO DE SUELDOS', 'importe': 50000.0}]}}}}</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 73452.57, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 50000.0, 'items': [{'fecha': '2025-10-31', 'proveedor': 'nan', 'comprobante': 'PVS 10 15033', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}]}, 'Combustibles': {'total': 23452.57, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 23452.57}]}}}, '2025-11': {'total_mes': 100000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 100000.0, 'items': [{'fecha': '2025-11-14', 'proveedor': 'nan', 'comprobante': 'PVS 10 15250', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}, {'fecha': '2025-11-21', 'proveedor': 'nan', 'comprobante': 'PVS 10 15331', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}]}}}}</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
+      <c r="P36" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>9</v>
+      </c>
+      <c r="R36" t="n">
+        <v>800000</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="T36" t="n">
+        <v>100000</v>
+      </c>
       <c r="U36" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="V36" t="n">
-        <v>10</v>
-      </c>
-      <c r="W36" t="n">
-        <v>700000</v>
-      </c>
-      <c r="X36" t="n">
-        <v>-300000</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>100000</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>01-12-2025</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Marciano</t>
+          <t>Gonzalez</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Valentin</t>
+          <t>Florencia Beatriz</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>20-47011393-7</t>
+          <t>27-39346687-7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3399,27 +3477,23 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>07-09-2017</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/12/2005</t>
+          <t>29-01-1996</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2317 44-6433</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Levalle 344</t>
-        </is>
-      </c>
+          <t>2317532468</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>valentinmarciano123@gmail.com</t>
+          <t>flooor.g29@gmail.com</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -3430,87 +3504,91 @@
           <t>Activo</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>{'2025-10': {'total_mes': 359890.18999999994, 'por_articulo': {'Combustibles': {'total': 94396.97, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 94396.97}]}, 'Gastos de comida': {'total': 265493.22, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 265493.22}]}}}, '2025-11': {'total_mes': 145603.18, 'por_articulo': {'Gastos de comida': {'total': 145603.18, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 93005.42}, {'fecha': '2025-11-19', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27546', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 52597.76}]}}}}</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
+      <c r="P37" t="n">
+        <v>942148.76</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-942148.76</v>
+      </c>
+      <c r="T37" t="n">
+        <v>188429.75</v>
+      </c>
       <c r="U37" t="n">
-        <v>700000</v>
-      </c>
-      <c r="V37" t="n">
         <v>5</v>
       </c>
-      <c r="W37" t="n">
-        <v>140000</v>
-      </c>
-      <c r="X37" t="n">
-        <v>-560000</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>140000</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>01-01-2026</t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>01-03-2026</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Gonzalez</t>
+          <t>Zola</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Florencia Beatriz</t>
+          <t>Francisco</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>27-39346687-7</t>
+          <t>20-34974786-4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Logistica</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>07-09-2017</t>
+          <t>11-09-2017</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>29-01-1996</t>
+          <t>18-04-1990</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2317532468</t>
+          <t>2317474064</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>flooor.g29@gmail.com</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -3519,59 +3597,53 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 435579.06, 'por_articulo': {'Combustibles': {'total': 87400.67, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 87400.67}]}, 'Gastos de comida': {'total': 348178.39, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 283856.07}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 64322.32}]}}}, '2025-09': {'total_mes': 32024.51, 'por_articulo': {'Gastos de comida': {'total': 32024.51, 'items': [{'fecha': '2025-09-05', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26281', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 32024.51}]}}}}</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 433462.6, 'por_articulo': {'Combustibles': {'total': 90285.63, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 90285.63}]}, 'Gastos de comida': {'total': 276284.41, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 276284.41}]}, 'Mantenimiento': {'total': 66892.56, 'items': [{'fecha': '2025-10-29', 'proveedor': 'JUAN VALINOTI S.A.', 'comprobante': 'FGAS 8 24340', 'leyenda': 'FRANCISCO ZOLA - CTA CTE', 'importe': 66892.56}]}}}, '2025-11': {'total_mes': 253049.7, 'por_articulo': {'Gastos de comida': {'total': 253049.7, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 233595.2}, {'fecha': '2025-11-19', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27546', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 19454.5}]}}}}</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="n">
-        <v>942148.76</v>
-      </c>
-      <c r="V38" t="n">
-        <v>5</v>
-      </c>
-      <c r="W38" t="n">
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="n">
         <v>0</v>
       </c>
-      <c r="X38" t="n">
-        <v>-942148.76</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>188429.75</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>01-03-2026</t>
-        </is>
-      </c>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Zola</t>
+          <t>Susseret</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Francisco</t>
+          <t>Francisco Santiago</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>20-34974786-4</t>
+          <t>20-32527204-0</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3581,23 +3653,27 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>11-09-2017</t>
+          <t>02-01-2018</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18-04-1990</t>
+          <t>07-02-1986</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2317474064</t>
+          <t>2317576730</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>santiagosusseret70@gmail.com</t>
+        </is>
+      </c>
       <c r="K39" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -3606,28 +3682,38 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 704025.4, 'por_articulo': {'Combustibles': {'total': 85600.34, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 85600.34}]}, 'Gastos de comida': {'total': 461874.29000000004, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 255286.72}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 206587.57}]}, 'Mantenimiento': {'total': 156550.77, 'items': [{'fecha': '2025-08-02', 'proveedor': 'JUAN VALINOTI S.A.', 'comprobante': 'FGAS 8 23069', 'leyenda': 'ZOLA FRANCISCO', 'importe': 548411.72}, {'fecha': '2025-08-05', 'proveedor': 'JUAN VALINOTI S.A.', 'comprobante': 'FGAS 8 23090', 'leyenda': 'MATERIALES TANQUE CTA CTE', 'importe': 16935.55}, {'fecha': '2025-08-12', 'proveedor': 'JUAN VALINOTI S.A.', 'comprobante': 'FGAS 8 23187', 'leyenda': 'FRANCISCO ZOLA', 'importe': 68662.86}, {'fecha': '2025-08-25', 'proveedor': 'JUAN VALINOTI S.A.', 'comprobante': 'NCR 8 3805', 'leyenda': 'MATERIALES TANQUE CTA CTE', 'importe': -652446.9}, {'fecha': '2025-08-26', 'proveedor': 'JUAN VALINOTI S.A.', 'comprobante': 'FGAS 8 23381', 'leyenda': 'MATERIALES TANQUE CTA CTE', 'importe': 174987.54}]}}}, '2025-09': {'total_mes': 519008.27, 'por_articulo': {'Gastos Varios': {'total': 519008.27, 'items': [{'fecha': '2025-09-12', 'proveedor': 'DON BELIS S.A.', 'comprobante': 'FGAS 7 3405', 'leyenda': 'FRANCISCO ZOLA', 'importe': 494214.88}, {'fecha': '2025-09-20', 'proveedor': 'DON BELIS S.A.', 'comprobante': 'FGAS 8 12166', 'leyenda': 'SIN LEYENDA', 'importe': 24793.39}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 352225.02, 'por_articulo': {'Combustibles': {'total': 68473.46, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 68473.46}]}, 'Gastos de comida': {'total': 283751.56, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 283751.56}]}}}, '2025-11': {'total_mes': 177480.14, 'por_articulo': {'Gastos de comida': {'total': 177480.14, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 177480.14}]}}}}</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+      <c r="P39" t="n">
+        <v>390104</v>
+      </c>
       <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>-390104</v>
+      </c>
+      <c r="T39" t="n">
+        <v>390104</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -3637,48 +3723,48 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>113</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Susseret</t>
+          <t>Diaz</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Francisco Santiago</t>
+          <t>Oscar</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>20-32527204-0</t>
+          <t>20-34248589-9</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Logistica</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>02-01-2018</t>
+          <t>01-06-2018</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>07-02-1986</t>
+          <t>22-11-1988</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2317576730</t>
+          <t>2317504260</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>santiagosusseret70@gmail.com</t>
+          <t>oscardiazuma22@gmail.com</t>
         </is>
       </c>
       <c r="K40" t="n">
@@ -3691,89 +3777,89 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 552278.11, 'por_articulo': {'Combustibles': {'total': 110172.36, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 110172.36}]}, 'Gastos de comida': {'total': 442105.75, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 247810.92}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 194294.83}]}}}}</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 283012.1, 'por_articulo': {'Combustibles': {'total': 80871.79, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 80871.79}]}, 'Gastos de comida': {'total': 202140.31, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 202140.31}]}}}, '2025-11': {'total_mes': 141589.68, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 50000.0, 'items': [{'fecha': '2025-11-14', 'proveedor': 'nan', 'comprobante': 'PVS 10 15250', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}]}, 'Gastos de comida': {'total': 91589.68, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 91589.68}]}}}}</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
+      <c r="P40" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>9</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1575000</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-425000</v>
+      </c>
+      <c r="T40" t="n">
+        <v>225000</v>
+      </c>
       <c r="U40" t="n">
-        <v>700000</v>
-      </c>
-      <c r="V40" t="n">
-        <v>6</v>
-      </c>
-      <c r="W40" t="n">
-        <v>580000</v>
-      </c>
-      <c r="X40" t="n">
-        <v>-120000</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>116000</v>
-      </c>
-      <c r="Z40" t="n">
         <v>1</v>
       </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>08-10-2025</t>
-        </is>
-      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>08-12-2025</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Diaz</t>
+          <t>Campione</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Oscar</t>
+          <t>Ruth Elizabeth</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>20-34248589-9</t>
+          <t>23-37372358-4</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Administracion</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>01-06-2018</t>
+          <t>23-07-2018</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>22/11/1988</t>
+          <t>20-04-1993</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2317504260</t>
+          <t>2317447906</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>oscardiazuma22@gmail.com</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -3782,59 +3868,53 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 203934.82, 'por_articulo': {'Combustibles': {'total': 15832.75, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 15832.75}]}, 'Gastos de comida': {'total': 188102.07, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 129116.7}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 58985.37}]}}}, '2025-09': {'total_mes': 50000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 50000.0, 'items': [{'fecha': '2025-09-26', 'proveedor': 'nan', 'comprobante': 'PVS 10 14607', 'leyenda': 'ADELANTO DE SUELDOS', 'importe': 50000.0}]}}}}</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 355202.64, 'por_articulo': {'Combustibles': {'total': 248715.6, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 248715.6}]}, 'Gastos Varios': {'total': -6385.42, 'items': [{'fecha': '2025-10-17', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 2 6260', 'leyenda': 'RUTH CAMPEONE - PAGO', 'importe': -6385.42}]}, 'Gastos de comida': {'total': 112872.46, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 112872.46}]}}}, '2025-11': {'total_mes': -13821.97, 'por_articulo': {'Gastos Varios': {'total': -13821.97, 'items': [{'fecha': '2025-11-15', 'proveedor': 'VTV NOROESTE S.A', 'comprobante': 'FGAS 300 9181', 'leyenda': 'VTV NOROESTE - CAMPIONE RUTH PAGO', 'importe': -13821.97}]}}}}</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="V41" t="n">
-        <v>9</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1350000</v>
-      </c>
-      <c r="X41" t="n">
-        <v>-650000</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>225000</v>
-      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>08-12-2025</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Campione</t>
+          <t>Pagani</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ruth Elizabeth</t>
+          <t>María Laura</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>23-37372358-4</t>
+          <t>23-29405821-4</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3844,23 +3924,23 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>23-07-2018</t>
+          <t>03-09-2018</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20-04-1993</t>
+          <t>29-03-1982</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2317447906</t>
+          <t>1168226903</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -3869,105 +3949,91 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 527871.8600000001, 'por_articulo': {'Combustibles': {'total': 200299.57, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 200299.57}]}, 'Gastos de comida': {'total': 327572.29000000004, 'items': [{'fecha': '2025-08-27', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26104', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 29853.39}, {'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 297718.9}]}}}, '2025-09': {'total_mes': -120396.70000000001, 'por_articulo': {'Gastos Varios': {'total': -120396.70000000001, 'items': [{'fecha': '2025-09-05', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 2 3128', 'leyenda': 'RUTH CAMPEONE- PAGO', 'importe': -5627.71}, {'fecha': '2025-09-17', 'proveedor': 'SERVITEC HOGAR', 'comprobante': 'FGAS 62 1253', 'leyenda': 'LAVAROPAS RUTH PAGO', 'importe': -114768.99}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 43106.36, 'por_articulo': {'Gastos de comida': {'total': 43106.36, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 43106.36}]}}}, '2025-11': {'total_mes': 361343.56, 'por_articulo': {'Gastos de comida': {'total': 361343.56, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 361343.56}]}}}}</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
       <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Pagani</t>
+          <t>Fernández</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>María Laura</t>
+          <t>Lucas Celestino</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>23-29405821-4</t>
+          <t>20-33384756-7</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Administracion</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>03-09-2018</t>
+          <t>04-11-2018</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>29-03-1982</t>
+          <t>10-12-1987</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1168226903</t>
+          <t>2317585882</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Activo</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>{'2025-08': {'total_mes': 342050.9, 'por_articulo': {'Gastos de comida': {'total': 342050.9, 'items': [{'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 342050.9}]}}}}</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>9 de Julio</t>
-        </is>
-      </c>
+          <t>Inactivo</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -3981,22 +4047,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fernández</t>
+          <t>Berton</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Lucas Celestino</t>
+          <t>Matías Leonel</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>20-33384756-7</t>
+          <t>20-37436122-9</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4006,23 +4072,23 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>04-11-2018</t>
+          <t>24-12-2018</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10-12-1987</t>
+          <t>16-04-1993</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2317585882</t>
+          <t>2317516193</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -4031,53 +4097,69 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'2025-10': {'total_mes': 72021.45, 'por_articulo': {'Gastos de comida': {'total': 72021.45, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 72021.45}]}}}}</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Quiroga</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="P44" t="n">
+        <v>500000</v>
+      </c>
       <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>-500000</v>
+      </c>
+      <c r="T44" t="n">
+        <v>500000</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>01-12-2025</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
       <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Berton</t>
+          <t>Hinaypil</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Matías Leonel</t>
+          <t>José Alberto</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>20-37436122-9</t>
+          <t>20-26525053-0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4087,23 +4169,23 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>24-12-2018</t>
+          <t>02-01-2019</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16-04-1993</t>
+          <t>11-05-1978</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2317516193</t>
+          <t>2317584956</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -4112,53 +4194,53 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 72186.79, 'por_articulo': {'Gastos de comida': {'total': 72186.79, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 72186.79}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 289256.2, 'por_articulo': {'Gastos de comida': {'total': 289256.2, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 289256.2}]}}}, '2025-11': {'total_mes': 177297.71, 'por_articulo': {'Gastos de comida': {'total': 177297.71, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 177297.71}]}}}}</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
       <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hinaypil</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>José Alberto</t>
+          <t>Ignacio Martín</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>20-26525053-0</t>
+          <t>20-34424351-5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4173,16 +4255,20 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>11-05-1978</t>
+          <t>27-02-1989</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2317584956</t>
+          <t>2317571857</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ignciotoledo@gmail.com</t>
+        </is>
+      </c>
       <c r="K46" t="n">
         <v>21</v>
       </c>
@@ -4193,28 +4279,38 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 378215.0, 'por_articulo': {'Gastos de comida': {'total': 378215.0, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 289256.2}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 88958.8}]}}}, '2025-09': {'total_mes': 50000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 50000.0, 'items': [{'fecha': '2025-09-19', 'proveedor': 'nan', 'comprobante': 'PVS 10 14505', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 616914.98, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 50000.0, 'items': [{'fecha': '2025-10-31', 'proveedor': 'nan', 'comprobante': 'PVS 10 15033', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}]}, 'Combustibles': {'total': 114594.1, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 114594.1}]}, 'Gastos de comida': {'total': 288734.55, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 288734.55}]}, 'Prepagas': {'total': 163586.33, 'items': [{'fecha': '2025-10-31', 'proveedor': 'ASOC. MUTUAL SANCOR SALUD', 'comprobante': 'FGAS 112 189112', 'leyenda': 'OBRA SOCIAL 11/2025', 'importe': 163586.33}]}}}, '2025-11': {'total_mes': 260158.12, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 50000.0, 'items': [{'fecha': '2025-11-14', 'proveedor': 'nan', 'comprobante': 'PVS 10 15250', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}]}, 'Gastos de comida': {'total': 210158.12, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 144124.31}, {'fecha': '2025-11-14', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27468', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 27124.8}, {'fecha': '2025-11-19', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27546', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 38909.01}]}}}}</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+      <c r="P46" t="n">
+        <v>810000</v>
+      </c>
       <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="R46" t="n">
+        <v>135000</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-675000</v>
+      </c>
+      <c r="T46" t="n">
+        <v>135000</v>
+      </c>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>01-03-2026</t>
+        </is>
+      </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -4224,22 +4320,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Toledo</t>
+          <t>Morales</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ignacio Martín</t>
+          <t>Juan Pablo</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>20-34424351-5</t>
+          <t>20-35408028-2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4249,25 +4345,21 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>02-01-2019</t>
+          <t>03-04-2019</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>27-02-1989</t>
+          <t>25-06-1990</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2317571857</t>
+          <t>2317406172</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>ignciotoledo@gmail.com</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>21</v>
       </c>
@@ -4278,59 +4370,69 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 592815.0800000001, 'por_articulo': {'Combustibles': {'total': 8263.77, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 8263.77}]}, 'Gastos de comida': {'total': 462272.65, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 289256.2}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 173016.45}]}, 'Prepagas': {'total': 122278.66, 'items': [{'fecha': '2025-08-31', 'proveedor': 'ASOC. MUTUAL SANCOR SALUD', 'comprobante': 'FGAS 112 180062', 'leyenda': 'PREPAGAS', 'importe': 122278.66}]}}}, '2025-09': {'total_mes': 100000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 100000.0, 'items': [{'fecha': '2025-09-19', 'proveedor': 'nan', 'comprobante': 'PVS 10 14505', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}, {'fecha': '2025-09-26', 'proveedor': 'nan', 'comprobante': 'PVS 10 14607', 'leyenda': 'ADELANTO DE SUELDOS', 'importe': 50000.0}]}}}}</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 139934.74, 'por_articulo': {'Combustibles': {'total': 104135.71, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 104135.71}]}, 'Gastos de comida': {'total': 35799.03, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 35799.03}]}}}, '2025-11': {'total_mes': 97313.97, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 50000.0, 'items': [{'fecha': '2025-11-14', 'proveedor': 'nan', 'comprobante': 'PVS 10 15250', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}]}, 'Gastos de comida': {'total': 47313.97, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 47313.97}]}}}}</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
+      <c r="P47" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>7</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-800000</v>
+      </c>
+      <c r="T47" t="n">
+        <v>300000</v>
+      </c>
       <c r="U47" t="n">
-        <v>810000</v>
-      </c>
-      <c r="V47" t="n">
-        <v>6</v>
-      </c>
-      <c r="W47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>01-01-2026</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="n">
         <v>0</v>
       </c>
-      <c r="X47" t="n">
-        <v>-810000</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>135000</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>01-03-2026</t>
-        </is>
-      </c>
+      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Morales</t>
+          <t>Feito</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Juan Pablo</t>
+          <t>David</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>20-35408028-2</t>
+          <t>20-32692443-2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4340,17 +4442,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>03-04-2019</t>
+          <t>03-01-2020</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>25-06-1990</t>
+          <t>30-12-1986</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2317406172</t>
+          <t>2392540656</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -4365,69 +4467,53 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 386890.73, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 50000.0, 'items': [{'fecha': '2025-08-29', 'proveedor': 'nan', 'comprobante': 'PVS 10 14211', 'leyenda': 'ADELANTOS', 'importe': 50000.0}]}, 'Combustibles': {'total': 95545.88, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 95545.88}]}, 'Gastos de comida': {'total': 241344.85, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 84423.87}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 156920.98}]}}}, '2025-09': {'total_mes': 100000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 100000.0, 'items': [{'fecha': '2025-09-19', 'proveedor': 'nan', 'comprobante': 'PVS 10 14505', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}, {'fecha': '2025-09-26', 'proveedor': 'nan', 'comprobante': 'PVS 10 14607', 'leyenda': 'ADELANTO DE SUELDOS', 'importe': 50000.0}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 53309.16, 'por_articulo': {'Combustibles': {'total': 53309.16, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 53309.16}]}}}}</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="V48" t="n">
-        <v>7</v>
-      </c>
-      <c r="W48" t="n">
-        <v>900000</v>
-      </c>
-      <c r="X48" t="n">
-        <v>-1100000</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>300000</v>
-      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Trenque Lauquen</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>01-01-2026</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>136</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Feito</t>
+          <t>Segovia</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Mario</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>20-32692443-2</t>
+          <t>20-31216748-5</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4442,18 +4528,26 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>30-12-1986</t>
+          <t>26-10-1984</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2392540656</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+          <t>2392484152</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Wisoski Oeste 350</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>marioandressegovia9@gmail.com</t>
+        </is>
+      </c>
       <c r="K49" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -4462,24 +4556,18 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'2025-10': {'total_mes': 37751.0, 'por_articulo': {'Combustibles': {'total': 37751.0, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 37751.0}]}}}, '2025-11': {'total_mes': 255837.0, 'por_articulo': {'Gastos de comida': {'total': 152170.93, 'items': [{'fecha': '2025-11-04', 'proveedor': 'CODEANA S.A.S.', 'comprobante': 'FGAS 3 285', 'leyenda': 'SUPER TRENQUE LAUQUEN 10/2025', 'importe': 152170.93}]}, 'Gastos varios personal': {'total': 103666.07, 'items': [{'fecha': '2025-11-07', 'proveedor': 'PETROLAUQUEN S A', 'comprobante': 'FGAS 30 44', 'leyenda': 'GASTO PERSONAL MARIO SEGOVIA', 'importe': 103666.07}]}}}}</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Trenque Lauquen</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
@@ -4493,22 +4581,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Segovia</t>
+          <t>Retamozo</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mario</t>
+          <t>Martín</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>20-31216748-5</t>
+          <t>20-36388585-4</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4523,26 +4611,18 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>26-10-1984</t>
+          <t>11-06-1991</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2392484152</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Wisoski Oeste 350</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>marioandressegovia9@gmail.com</t>
-        </is>
-      </c>
+          <t>2392572784</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -4551,69 +4631,95 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 104304.78, 'por_articulo': {'Combustibles': {'total': 104304.78, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 104304.78}]}}}, '2025-09': {'total_mes': 141822.68, 'por_articulo': {'Gastos de comida': {'total': 141822.68, 'items': [{'fecha': '2025-09-01', 'proveedor': 'CODEANA S.A.S.', 'comprobante': 'FGAS 3 266', 'leyenda': 'GASTOS COMIDA', 'importe': 141822.68}]}}}}</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 348300.2, 'por_articulo': {'Combustibles': {'total': 348300.2, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 348300.2}]}}}, '2025-11': {'total_mes': 139328.46, 'por_articulo': {'Gastos de comida': {'total': 139328.46, 'items': [{'fecha': '2025-11-04', 'proveedor': 'CODEANA S.A.S.', 'comprobante': 'FGAS 3 285', 'leyenda': 'SUPER TRENQUE LAUQUEN 10/2025', 'importe': 139328.46}]}}}}</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
+      <c r="P50" t="n">
+        <v>500000</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>250000</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-250000</v>
+      </c>
+      <c r="T50" t="n">
+        <v>250000</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Trenque Lauquen</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
       <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Retamozo</t>
+          <t>Arrieta</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Martín</t>
+          <t>María Carolina</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>20-36388585-4</t>
+          <t>27-27856070-3</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Maestranza</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>03-01-2020</t>
+          <t>21-01-2020</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11-06-1991</t>
+          <t>02-03-1980</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2392572784</t>
+          <t>2392493707</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -4622,89 +4728,67 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 94707.92, 'por_articulo': {'Combustibles': {'total': 94707.92, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 94707.92}]}}}, '2025-09': {'total_mes': 537167.19, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 300000.0, 'items': [{'fecha': '2025-09-22', 'proveedor': 'nan', 'comprobante': 'PVS 10 14514', 'leyenda': 'PAGO ADELANTO RETAMOZO MARTIN', 'importe': 300000.0}]}, 'Gastos de comida': {'total': 237167.19, 'items': [{'fecha': '2025-09-01', 'proveedor': 'CODEANA S.A.S.', 'comprobante': 'FGAS 3 266', 'leyenda': 'GASTOS COMIDA', 'importe': 237167.19}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 27938.4, 'por_articulo': {'Combustibles': {'total': 27938.4, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 27938.4}]}}}}</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Trenque Lauquen</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="n">
-        <v>500000</v>
-      </c>
-      <c r="V51" t="n">
-        <v>2</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" t="n">
-        <v>-500000</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>250000</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>01-12-2025</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Arrieta</t>
+          <t>Campo</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>María Carolina</t>
+          <t>Abel</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>27-27856070-3</t>
+          <t>20-34382633-9</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Maestranza</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>21-01-2020</t>
+          <t>02-03-2020</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>02-03-1980</t>
+          <t>13-02-1989</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2392493707</t>
+          <t>2392531248</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -4719,10 +4803,14 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 48329.85, 'por_articulo': {'Combustibles': {'total': 48329.85, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 48329.85}]}}}}</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
+          <t>{'2025-11': {'total_mes': 247277.3, 'por_articulo': {'Gastos de comida': {'total': 247277.3, 'items': [{'fecha': '2025-11-04', 'proveedor': 'CODEANA S.A.S.', 'comprobante': 'FGAS 3 285', 'leyenda': 'SUPER TRENQUE LAUQUEN 10/2025', 'importe': 247277.3}]}}}}</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -4740,27 +4828,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Campo</t>
+          <t>Raimondi</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Abel</t>
+          <t>Melina</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>20-34382633-9</t>
+          <t>27-36189171-1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Administracion</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4770,19 +4858,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>13-02-1989</t>
+          <t>09-07-1991</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2392531248</t>
+          <t>2317534323</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>21</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>Activo</t>
@@ -4790,10 +4876,14 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>{'2025-09': {'total_mes': 316802.51, 'por_articulo': {'Gastos de comida': {'total': 316802.51, 'items': [{'fecha': '2025-09-01', 'proveedor': 'CODEANA S.A.S.', 'comprobante': 'FGAS 3 266', 'leyenda': 'GASTOS COMIDA', 'importe': 316802.51}]}}}}</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -4802,56 +4892,76 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>30-08-2024</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>Renuncia</t>
+        </is>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
       <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Raimondi</t>
+          <t>Canepa</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Melina</t>
+          <t>Fernando</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>27-36189171-1</t>
+          <t>20-34717746-7</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Administracion</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>02-03-2020</t>
+          <t>03-04-2020</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>09-07-1991</t>
+          <t>19-02-1989</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2317534323</t>
+          <t>2317525966</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>fercanepa.1902@gmail.com</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>21</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>Activo</t>
@@ -4859,36 +4969,38 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 92885.23, 'por_articulo': {'Combustibles': {'total': 92885.23, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 92885.23}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 400362.46, 'por_articulo': {'Combustibles': {'total': 112082.82, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 25059.46}, {'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 87023.36}]}, 'Gastos de comida': {'total': 288279.64, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 288279.64}]}}}, '2025-11': {'total_mes': 190234.01, 'por_articulo': {'Gastos de comida': {'total': 190234.01, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 190234.01}]}}}}</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>30-08-2024</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>Renuncia</t>
-        </is>
+          <t>empleado</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="n">
+        <v>1500000</v>
       </c>
       <c r="Q54" t="n">
+        <v>6</v>
+      </c>
+      <c r="R54" t="n">
         <v>0</v>
       </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>-1500000</v>
+      </c>
+      <c r="T54" t="n">
+        <v>250000</v>
+      </c>
+      <c r="U54" t="n">
+        <v>6</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>01-04-2026</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -4898,22 +5010,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Canepa</t>
+          <t>Cepeda</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Fernando</t>
+          <t>Rosana</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>20-34717746-7</t>
+          <t>27-24907120-5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4923,27 +5035,23 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>03-04-2020</t>
+          <t>04-05-2020</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>19-02-1989</t>
+          <t>20-10-1975</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2317525966</t>
+          <t>2317402129</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>fercanepa.1902@gmail.com</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -4952,59 +5060,53 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 632774.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 50000.0, 'items': [{'fecha': '2025-08-29', 'proveedor': 'nan', 'comprobante': 'PVS 10 14211', 'leyenda': 'ADELANTOS', 'importe': 50000.0}]}, 'Combustibles': {'total': 109812.7, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 25059.11}, {'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 84753.59}]}, 'Gastos de comida': {'total': 472961.30000000005, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 289256.2}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 183705.1}]}}}, '2025-09': {'total_mes': 154637.64, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 100000.0, 'items': [{'fecha': '2025-09-19', 'proveedor': 'nan', 'comprobante': 'PVS 10 14505', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}, {'fecha': '2025-09-26', 'proveedor': 'nan', 'comprobante': 'PVS 10 14607', 'leyenda': 'ADELANTO DE SUELDOS', 'importe': 50000.0}]}, 'Gastos de comida': {'total': 54637.64, 'items': [{'fecha': '2025-09-05', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26281', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 54637.64}]}}}}</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 445455.5, 'por_articulo': {'Combustibles': {'total': 349834.23, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 349834.23}]}, 'Gastos Varios': {'total': -25028.94, 'items': [{'fecha': '2025-10-06', 'proveedor': 'CORONEL MARIO OSCAR', 'comprobante': 'FGAS 4 410608', 'leyenda': 'ROSANA CEPEDA - CTA CTE', 'importe': 17057.16}, {'fecha': '2025-10-10', 'proveedor': 'SERVITEC HOGAR', 'comprobante': 'FGAS 62 1366', 'leyenda': 'ROSANA CEPEDA - PAGO', 'importe': -42086.1}]}, 'Gastos de comida': {'total': 120650.21, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 120650.21}]}}}, '2025-11': {'total_mes': 201869.76999999996, 'por_articulo': {'Gastos Varios': {'total': -98057.51, 'items': [{'fecha': '2025-11-22', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 7546 64', 'leyenda': 'ROSANA CEPEDA - PAGO', 'importe': -98057.51}]}, 'Gastos de comida': {'total': 299927.27999999997, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 261018.27}, {'fecha': '2025-11-19', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27546', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 38909.01}]}}}}</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
-      <c r="U55" t="n">
-        <v>500000</v>
-      </c>
-      <c r="V55" t="n">
-        <v>5</v>
-      </c>
-      <c r="W55" t="n">
-        <v>400000</v>
-      </c>
-      <c r="X55" t="n">
-        <v>-100000</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>100000</v>
-      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>04-10-2025</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cepeda</t>
+          <t>Ercoreca</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Rosana</t>
+          <t>Cristian Iván</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>27-24907120-5</t>
+          <t>20-32174082-1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -5014,23 +5116,27 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>04-05-2020</t>
+          <t>03-05-2021</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20-10-1975</t>
+          <t>06-01-1986</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2317402129</t>
+          <t>2317530596</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>crisercoreca06@gmail.com</t>
+        </is>
+      </c>
       <c r="K56" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -5039,24 +5145,18 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 1492552.6900000002, 'por_articulo': {'Combustibles': {'total': 425288.67, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 217954.83}, {'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792069', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 207333.84}]}, 'Gastos Varios': {'total': -32452.76, 'items': [{'fecha': '2025-08-15', 'proveedor': 'PETROGUAZZ  S.A.', 'comprobante': 'FGAS 66 192', 'leyenda': 'ROSANA CEPEDA - PAGO', 'importe': -32452.76}]}, 'Gastos computacion': {'total': 890497.74, 'items': [{'fecha': '2025-08-30', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 2 1372', 'leyenda': 'ROSANA CEPEDA - CTA CTE', 'importe': 890497.74}]}, 'Gastos de comida': {'total': 209219.03999999998, 'items': [{'fecha': '2025-08-27', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26113', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 87988.76}, {'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 46395.6}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 74834.68}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 63569.73, 'por_articulo': {'Combustibles': {'total': 63569.73, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 63569.73}]}}}, '2025-11': {'total_mes': 35347.24, 'por_articulo': {'Gastos de comida': {'total': 35347.24, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 35347.24}]}}}}</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -5070,22 +5170,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ercoreca</t>
+          <t>Carballo</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cristian Iván</t>
+          <t>Alejandro</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>20-32174082-1</t>
+          <t>20-30138759-9</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -5095,27 +5195,31 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>03-05-2021</t>
+          <t>08-07-2021</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06-01-1986</t>
+          <t>29-11-1982</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2317530596</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>2317534669</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Emilio Naudin 647</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>crisercoreca06@gmail.com</t>
+          <t>alejandro22carballo@gmail.com</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -5124,10 +5228,14 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 67593.24, 'por_articulo': {'Combustibles': {'total': 50856.58, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 50856.58}]}, 'Gastos de comida': {'total': 16736.66, 'items': [{'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 16736.66}]}}}}</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 86282.47, 'por_articulo': {'Gastos de comida': {'total': 86282.47, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 86282.47}]}}}, '2025-11': {'total_mes': 66325.7, 'por_articulo': {'Gastos de comida': {'total': 66325.7, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 66325.7}]}}}}</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -5145,56 +5253,48 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Carballo</t>
+          <t>Morales</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Alejandro</t>
+          <t>Fernando Oscar</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>20-30138759-9</t>
+          <t>20-30830792-2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Extrusados</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>08-07-2021</t>
+          <t>20-09-2021</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>29/11/1982</t>
+          <t>14-05-1984</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2317534669</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Emilio Naudin 647</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>alejandro22carballo@gmail.com</t>
-        </is>
-      </c>
+          <t>2317446392</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -5203,10 +5303,14 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 178372.13, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 16050.24, 'items': [{'fecha': '2025-08-26', 'proveedor': 'nan', 'comprobante': 'PVS 10 14161', 'leyenda': 'PAGO ADELANTO FARMACIA CARBALLO ALE', 'importe': 16050.24}]}, 'Gastos de comida': {'total': 162321.89, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 59501.59}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 102820.3}]}}}}</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 910855.26, 'por_articulo': {'Combustibles': {'total': 523384.42, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 523384.42}]}, 'Gastos de comida': {'total': 387470.84, 'items': [{'fecha': '2025-10-21', 'proveedor': 'ARIAS ROSSI DANIELA LUCIA', 'comprobante': 'FGAS 7 26', 'leyenda': 'CARNICERIA FERNANDO CTA CTE', 'importe': 173669.42}, {'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 213801.42}]}}}, '2025-11': {'total_mes': 167190.08, 'por_articulo': {'Gastos de comida': {'total': 167190.08, 'items': [{'fecha': '2025-11-03', 'proveedor': 'ARIAS ROSSI DANIELA LUCIA', 'comprobante': 'FGAS 7 51', 'leyenda': 'CARNICERIA MORALES CTA CTE', 'importe': 167190.08}]}}}}</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -5215,57 +5319,67 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Extrusado</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
       <c r="AA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Morales</t>
+          <t>Buldain</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Fernando Oscar</t>
+          <t>Patricio Gaston</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>20-30830792-2</t>
+          <t>20-29108436-3</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Extrusados</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>20-09-2021</t>
+          <t>01-12-2021</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>14-05-1984</t>
+          <t>19-11-1981</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2317446392</t>
+          <t>2317581658</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>gastonbuldain@hotmail.com</t>
+        </is>
+      </c>
       <c r="K59" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -5274,28 +5388,38 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 336672.64, 'por_articulo': {'Combustibles': {'total': 168158.9, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 168158.9}]}, 'Gastos de comida': {'total': 168513.74, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 168513.74}]}}}, '2025-09': {'total_mes': 60991.73, 'por_articulo': {'Gastos de comida': {'total': 60991.73, 'items': [{'fecha': '2025-09-03', 'proveedor': 'ARIAS ROSSI DANIELA LUCIA', 'comprobante': 'FGAS 3 519', 'leyenda': 'FERNANDO MORALES (CTA CTE)', 'importe': 60991.73}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 123561.5, 'por_articulo': {'Combustibles': {'total': 123561.5, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 123561.5}]}}}}</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Extrusado</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+      <c r="P59" t="n">
+        <v>1000000</v>
+      </c>
       <c r="Q59" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>250000</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-750000</v>
+      </c>
+      <c r="T59" t="n">
+        <v>250000</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>01-01-2026</t>
+        </is>
+      </c>
       <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
@@ -5305,22 +5429,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Buldain</t>
+          <t>Ortiz</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Patricio Gaston</t>
+          <t>Leonardo Damian</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>20-29108436-3</t>
+          <t>20-26308803-5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5330,25 +5454,21 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>01-12-2021</t>
+          <t>01-02-2022</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>19-11-1981</t>
+          <t>31-10-1977</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2317581658</t>
+          <t>2317418729</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>gastonbuldain@hotmail.com</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>14</v>
       </c>
@@ -5359,59 +5479,69 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 113054.77, 'por_articulo': {'Combustibles': {'total': 113054.77, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 113054.77}]}}}}</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 62448.88, 'por_articulo': {'Gastos de comida': {'total': 62448.88, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 62448.88}]}}}}</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
+      <c r="P60" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="T60" t="n">
+        <v>50000</v>
+      </c>
       <c r="U60" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="V60" t="n">
         <v>4</v>
       </c>
-      <c r="W60" t="n">
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>01-02-2026</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="n">
         <v>0</v>
       </c>
-      <c r="X60" t="n">
-        <v>-1000000</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>250000</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>01-02-2026</t>
-        </is>
-      </c>
+      <c r="AA60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ortiz</t>
+          <t>Pacheco</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Leonardo Damian</t>
+          <t>Pablo Oscar</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>20-26308803-5</t>
+          <t>20-40978681-3</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5421,21 +5551,25 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>01-02-2022</t>
+          <t>19-03-2022</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>31-10-1977</t>
+          <t>12-01-1998</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2317418729</t>
+          <t>2345535406</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>pablooscarpacheco@outlook.com.ar</t>
+        </is>
+      </c>
       <c r="K61" t="n">
         <v>14</v>
       </c>
@@ -5446,28 +5580,38 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'2025-10': {'total_mes': 175142.55, 'por_articulo': {'Combustibles': {'total': 148234.71, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 148234.71}]}, 'Gastos de comida': {'total': 26907.84, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 26907.84}]}}}, '2025-11': {'total_mes': 50000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 50000.0, 'items': [{'fecha': '2025-11-14', 'proveedor': 'nan', 'comprobante': 'PVS 10 15250', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}]}}}}</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
+      <c r="P61" t="n">
+        <v>2485430.64</v>
+      </c>
       <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-985430.64</v>
+      </c>
+      <c r="T61" t="n">
+        <v>250000</v>
+      </c>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>27-02-2026</t>
+        </is>
+      </c>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -5477,22 +5621,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Pacheco</t>
+          <t>Canepa</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Pablo Oscar</t>
+          <t>Santiago</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>20-40978681-3</t>
+          <t>20-43970503-6</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5502,23 +5646,23 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>19-03-2022</t>
+          <t>21-07-2022</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12-01-1998</t>
+          <t>09-01-2002</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2345535406</t>
+          <t>2317537282</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>pablooscarpacheco@outlook.com.ar</t>
+          <t>santigocanepa@gmail.com</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -5531,93 +5675,89 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 198038.5, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 50000.0, 'items': [{'fecha': '2025-08-29', 'proveedor': 'nan', 'comprobante': 'PVS 10 14211', 'leyenda': 'ADELANTOS', 'importe': 50000.0}]}, 'Combustibles': {'total': 148038.5, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 148038.5}]}}}, '2025-09': {'total_mes': 50000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 50000.0, 'items': [{'fecha': '2025-09-19', 'proveedor': 'nan', 'comprobante': 'PVS 10 14505', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}]}}}}</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 497217.26, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 50000.0, 'items': [{'fecha': '2025-10-31', 'proveedor': 'nan', 'comprobante': 'PVS 10 15033', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}]}, 'Combustibles': {'total': 161670.4, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 161670.4}]}, 'Gastos de comida': {'total': 285546.86, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 285546.86}]}}}, '2025-11': {'total_mes': 291795.83999999997, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 100000.0, 'items': [{'fecha': '2025-11-14', 'proveedor': 'nan', 'comprobante': 'PVS 10 15250', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}, {'fecha': '2025-11-21', 'proveedor': 'nan', 'comprobante': 'PVS 10 15331', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}]}, 'Gastos de comida': {'total': 191795.84, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 191795.84}]}}}}</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
+      <c r="P62" t="n">
+        <v>6730514.9</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>30</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1794804</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-4935710.9</v>
+      </c>
+      <c r="T62" t="n">
+        <v>224350.5</v>
+      </c>
       <c r="U62" t="n">
-        <v>2485430.64</v>
-      </c>
-      <c r="V62" t="n">
-        <v>10</v>
-      </c>
-      <c r="W62" t="n">
-        <v>1250000</v>
-      </c>
-      <c r="X62" t="n">
-        <v>-1235430.64</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>250000</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA62" t="inlineStr">
-        <is>
-          <t>27-02-2026</t>
-        </is>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>07-08-2027</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Canepa</t>
+          <t>Zega</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>Maximiliano</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>20-43970503-6</t>
+          <t>20-30830857-0</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>RRHH</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>21-07-2022</t>
+          <t>14-09-2022</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>09-01-2002</t>
+          <t>07-07-1984</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2317537282</t>
+          <t>2317415313</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>santigocanepa@gmail.com</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -5626,89 +5766,73 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 653993.0700000001, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 50000.0, 'items': [{'fecha': '2025-08-29', 'proveedor': 'nan', 'comprobante': 'PVS 10 14211', 'leyenda': 'ADELANTOS', 'importe': 50000.0}]}, 'Combustibles': {'total': 122536.44, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 122536.44}]}, 'Gastos de comida': {'total': 481456.63, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 288412.32}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 193044.31}]}}}, '2025-09': {'total_mes': 100000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 100000.0, 'items': [{'fecha': '2025-09-19', 'proveedor': 'nan', 'comprobante': 'PVS 10 14505', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}, {'fecha': '2025-09-26', 'proveedor': 'nan', 'comprobante': 'PVS 10 14607', 'leyenda': 'ADELANTO DE SUELDOS', 'importe': 50000.0}]}}}}</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 131218.21999999997, 'por_articulo': {'Combustibles': {'total': 35027.42, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 35027.42}]}, 'Gastos Varios': {'total': 96190.79999999999, 'items': [{'fecha': '2025-10-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 15 3653', 'leyenda': 'ALINEACION Y BALANCEO VEHICULO - MAXIMILIANO ZEGA', 'importe': 30371.9}, {'fecha': '2025-10-01', 'proveedor': 'VTV NOROESTE S.A', 'comprobante': 'FGAS 200 7938', 'leyenda': 'VERIFICACON VEHICULAR MAXIMILIANO ZEGA', 'importe': 65818.9}]}}}, '2025-11': {'total_mes': 34673.67, 'por_articulo': {'Gastos de comida': {'total': 34673.67, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 20984.92}, {'fecha': '2025-11-19', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27546', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 13688.75}]}}}}</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="n">
-        <v>6730514.9</v>
-      </c>
-      <c r="V63" t="n">
-        <v>30</v>
-      </c>
-      <c r="W63" t="n">
-        <v>1570453.5</v>
-      </c>
-      <c r="X63" t="n">
-        <v>-5160061.4</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>224350.5</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>07-08-2027</t>
-        </is>
-      </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Zega</t>
+          <t>Leunda</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Maximiliano</t>
+          <t>Gabriel Oscar</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>20-30830857-0</t>
+          <t>20-24347347-1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>RRHH</t>
+          <t>Administracion</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>14-09-2022</t>
+          <t>02-01-2023</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>07-07-1984</t>
+          <t>25-05-1975</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2317415313</t>
+          <t>2317574224</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -5717,18 +5841,18 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 38573.53, 'por_articulo': {'Gastos de comida': {'total': 38573.53, 'items': [{'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 38573.53}]}}}, '2025-09': {'total_mes': -78555.79, 'por_articulo': {'Gastos Varios': {'total': -78555.79, 'items': [{'fecha': '2025-09-23', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 19 47795', 'leyenda': 'MAXIMILIANO ZEGA - PAGO', 'importe': -78555.79}]}}}}</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': -602960.9900000001, 'por_articulo': {'Gastos Varios': {'total': -631058.68, 'items': [{'fecha': '2025-10-21', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 28 4293', 'leyenda': 'LEUNDA - PAGO', 'importe': -590082.65}, {'fecha': '2025-10-31', 'proveedor': 'MAFFERETTI S.A.', 'comprobante': 'FGAS 20 15981', 'leyenda': 'LEUNDA - PAGO', 'importe': -40976.03}]}, 'Gastos de comida': {'total': 28097.69, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 28097.69}]}}}, '2025-11': {'total_mes': 27377.51, 'por_articulo': {'Gastos de comida': {'total': 27377.51, 'items': [{'fecha': '2025-11-19', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27546', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 27377.51}]}}}}</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -5742,48 +5866,52 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Leunda</t>
+          <t>Romano Rivera</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Gabriel Oscar</t>
+          <t>Valentino</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20-24347347-1</t>
+          <t>20-43045494-4</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Administracion</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>02-01-2023</t>
+          <t>13-01-2023</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>25-05-1975</t>
+          <t>28-11-2000</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2317574224</t>
+          <t>2317571969</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>valentinoromanorivera@gmail.com</t>
+        </is>
+      </c>
       <c r="K65" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -5792,18 +5920,18 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': -48956.880000000005, 'por_articulo': {'Gastos Varios': {'total': -86776.86, 'items': [{'fecha': '2025-08-29', 'proveedor': 'CLERICO VICTOR Y NANNI SILVIA S.H.', 'comprobante': 'FGAS 4 9634', 'leyenda': 'LEUNDA (PAGO)', 'importe': -86776.86}]}, 'Gastos de comida': {'total': 77502.29999999999, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 33551.96}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 43950.34}]}, 'Mantenimiento': {'total': -39682.32, 'items': [{'fecha': '2025-08-01', 'proveedor': 'SUPERFICIES S.R.L.', 'comprobante': 'FGAS 8 12066', 'leyenda': 'GABRIEL PAGO', 'importe': -949.84}, {'fecha': '2025-08-01', 'proveedor': 'SUPERFICIES S.R.L.', 'comprobante': 'FGAS 8 12151', 'leyenda': 'GABRIEL PAGO', 'importe': -1933.39}, {'fecha': '2025-08-21', 'proveedor': 'TAMEX - 2', 'comprobante': 'FGAS 5 70857', 'leyenda': 'ART ELECTRICIDAD LEUNDA PAGO', 'importe': -21149.06}, {'fecha': '2025-08-29', 'proveedor': 'TAMEX - 2', 'comprobante': 'FGAS 5 71084', 'leyenda': 'ART ELECTRICIDAD LEUNDA PAGO', 'importe': -15650.03}]}}}, '2025-09': {'total_mes': -33692.329999999994, 'por_articulo': {'Gastos de comida': {'total': 49428.840000000004, 'items': [{'fecha': '2025-09-05', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26281', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 36186.22}, {'fecha': '2025-09-18', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26470', 'leyenda': 'COMPRA QUESO LA BLANQUEADA', 'importe': 13242.62}]}, 'Mantenimiento': {'total': -83121.17, 'items': [{'fecha': '2025-09-02', 'proveedor': 'TAMEX - 2', 'comprobante': 'FGAS 5 71160', 'leyenda': 'GABRIEL LEUNDA - PAGO', 'importe': -6597.88}, {'fecha': '2025-09-02', 'proveedor': 'TAMEX - 2', 'comprobante': 'FGAS 5 71168', 'leyenda': 'GABRIEL LEUNDA - PAGO', 'importe': -2589.4}, {'fecha': '2025-09-08', 'proveedor': 'CLERICO VICTOR Y NANNI SILVIA S.H.', 'comprobante': 'FGAS 4 9716', 'leyenda': 'GABRIEL LEUNDA - PAGO', 'importe': -73933.89}]}}}}</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
@@ -5817,52 +5945,48 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Montenovo</t>
+          <t>Galesio</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Valentino</t>
+          <t>Francelina</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>20-44112951-4</t>
+          <t>23-36772759-4</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Administracion</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>09-01-2023</t>
+          <t>03-04-2023</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>27-03-2002</t>
+          <t>07-06-1992</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2317401052</t>
+          <t>2317536169</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>valenmontenovo@gmail.com</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -5871,77 +5995,87 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 86882.02, 'por_articulo': {'Combustibles': {'total': 67121.49, 'items': [{'fecha': '2025-08-29', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 22086', 'leyenda': 'COMBUSTIBLE MONTENOVO CTA CTE', 'importe': 67121.49}]}, 'Gastos de comida': {'total': 19760.53, 'items': [{'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 19760.53}]}}}, '2025-09': {'total_mes': 62911.42, 'por_articulo': {'Combustibles': {'total': 62911.42, 'items': [{'fecha': '2025-09-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 22527', 'leyenda': 'VALENTINO MONTENOVO CTA CTE', 'importe': 62911.42}]}}}}</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 57218.840000000004, 'por_articulo': {'Combustibles': {'total': 78123.6, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 78123.6}]}, 'Gastos Varios': {'total': -20904.760000000002, 'items': [{'fecha': '2025-10-25', 'proveedor': 'AUTOSERVICIO MAYORISTA DIARCO SA', 'comprobante': 'FGAS 3705 359', 'leyenda': 'FRANCELINA PAGO (DIARCO)', 'importe': -12657.5}, {'fecha': '2025-10-25', 'proveedor': 'AUTOSERVICIO MAYORISTA DIARCO SA', 'comprobante': 'FGAS 3705 360', 'leyenda': 'FRANCELINA PAGO (DIARCO)', 'importe': -8247.26}]}}}, '2025-11': {'total_mes': 108752.13999999998, 'por_articulo': {'Gastos Varios': {'total': -17766.41, 'items': [{'fecha': '2025-11-22', 'proveedor': 'AUTOSERVICIO MAYORISTA DIARCO SA', 'comprobante': 'FGAS 3706 17', 'leyenda': 'FRANCELINA PAGO (DIARCO)', 'importe': -17766.41}]}, 'Gastos de comida': {'total': 126518.54999999999, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 99141.04}, {'fecha': '2025-11-19', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27546', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 27377.51}]}}}}</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
       <c r="AA66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Romano Rivera</t>
+          <t>Leguizamon</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Valentino</t>
+          <t>Marcela Soledad</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>20-43045494-4</t>
+          <t>27-27855146-1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Maestranza</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>03-04-2023</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>28-11-2000</t>
+          <t>04-03-1981</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2317571969</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
+          <t>2317403039</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Rioja 2634</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>valentinoromanorivera@gmail.com</t>
+          <t>marceleguizamon@live.com.ar</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -5950,22 +6084,38 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 547162.9199999999, 'por_articulo': {'Combustibles': {'total': 59268.62, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 59268.62}]}, 'Gastos Varios': {'total': 336198.35, 'items': [{'fecha': '2025-10-23', 'proveedor': 'RODADOS AURORA S.A', 'comprobante': 'FGAS 5 19804', 'leyenda': 'MARCELA LEGUIZAMON - CTA CTE', 'importe': 336198.35}]}, 'Gastos de comida': {'total': 151695.95, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 39733.97}, {'fecha': '2025-10-31', 'proveedor': 'LA REGIONAL ASOCIACION SIMPLE DE PONTELLO EMILIANO', 'comprobante': 'FGAS 1 3907', 'leyenda': 'BEBIDAS VARIAS', 'importe': 111961.98}]}}}, '2025-11': {'total_mes': 46458.3, 'por_articulo': {'Gastos de comida': {'total': 46458.3, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 19333.51}, {'fecha': '2025-11-14', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27468', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 27124.79}]}}}}</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
+      <c r="P67" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>10</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-1300000</v>
+      </c>
+      <c r="T67" t="n">
+        <v>130000</v>
+      </c>
+      <c r="U67" t="n">
+        <v>10</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>01-09-2026</t>
+        </is>
+      </c>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
@@ -5975,48 +6125,48 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Galesio</t>
+          <t>Anca</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Francelina</t>
+          <t>Ezequiel</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>23-36772759-4</t>
+          <t>20-34717582-0</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Administracion</t>
+          <t>Sistemas</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>03-04-2023</t>
+          <t>02-05-2023</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>07-06-1992</t>
+          <t>10-08-1989</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2317536169</t>
+          <t>2317577632</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -6025,87 +6175,79 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 381434.87, 'por_articulo': {'Combustibles': {'total': 79622.91, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 79622.91}]}, 'Gastos Varios': {'total': 68000.0, 'items': [{'fecha': '2025-08-28', 'proveedor': '9 DE JULIO FRENOS S.A.', 'comprobante': 'FGAS 8 17774', 'leyenda': 'FRANCELINA CTA CTE (ARREGLO AUTO)', 'importe': 68000.0}]}, 'Gastos de comida': {'total': 233811.96000000002, 'items': [{'fecha': '2025-08-27', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26104', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 11793.39}, {'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 222018.57}]}}}, '2025-09': {'total_mes': 23083.75, 'por_articulo': {'Gastos Varios': {'total': -8251.98, 'items': [{'fecha': '2025-09-05', 'proveedor': 'PINTURERIA PINTAR S.R.L.', 'comprobante': 'FGAS 5 7642', 'leyenda': 'PAGO FRANCELINA (PINTURA)', 'importe': -8251.98}]}, 'Gastos de comida': {'total': 31335.730000000003, 'items': [{'fecha': '2025-09-05', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26281', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 18093.11}, {'fecha': '2025-09-18', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26470', 'leyenda': 'COMPRA QUESO LA BLANQUEADA', 'importe': 13242.62}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 574544.0700000001, 'por_articulo': {'Combustibles': {'total': 172008.76, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 172008.76}]}, 'Gastos de comida': {'total': 402535.31, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 402535.31}]}}}}</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
       <c r="AA68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Leguizamon</t>
+          <t>Ongaro</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Marcela Soledad</t>
+          <t>Gustavo Adolfo</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>27-27855146-1</t>
+          <t>20-27317622-6</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Maestranza</t>
+          <t>Extrusados</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>03-04-2023</t>
+          <t>01-06-2023</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>04/03/1981</t>
+          <t>16-05-1982</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2317403039</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Rioja 2634</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>marceleguizamon@live.com.ar</t>
-        </is>
-      </c>
+          <t>2317452480</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -6114,85 +6256,87 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 87537.13, 'por_articulo': {'Combustibles': {'total': 46580.08, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 46580.08}]}, 'Gastos de comida': {'total': 40957.05, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 40957.05}]}}}, '2025-09': {'total_mes': 73409.56, 'por_articulo': {'Gastos de comida': {'total': 73409.56, 'items': [{'fecha': '2025-09-05', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26281', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 26856.87}, {'fecha': '2025-09-18', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26470', 'leyenda': 'COMPRA QUESO LA BLANQUEADA', 'importe': 26485.25}, {'fecha': '2025-09-22', 'proveedor': 'CORONEL MARIO OSCAR', 'comprobante': 'FGAS 4 408125', 'leyenda': 'ARCOR - MARCELA LEGUIZAMON CTA CTE', 'importe': 20067.44}]}}}}</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 155766.31, 'por_articulo': {'Gastos de comida': {'total': 155766.31, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 155766.31}]}}}, '2025-11': {'total_mes': 164702.92, 'por_articulo': {'Gastos de comida': {'total': 164702.92, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 164702.92}]}}}}</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
-      <c r="U69" t="n">
-        <v>300000</v>
-      </c>
-      <c r="V69" t="n">
-        <v>3</v>
-      </c>
-      <c r="W69" t="n">
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Extrusado</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="n">
         <v>0</v>
       </c>
-      <c r="X69" t="n">
-        <v>-300000</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>100000</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>01-02-2026</t>
-        </is>
-      </c>
+      <c r="AA69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Anca</t>
+          <t>Merlo</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ezequiel</t>
+          <t>Ignacio Enrique</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>20-34717582-0</t>
+          <t>20-33597236-9</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sistemas</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>02-05-2023</t>
+          <t>07-08-2023</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10-08-1989</t>
+          <t>02-03-1988</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2317577632</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+          <t>3512254029</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Mitre 948 2°D</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>nachomerlo88@gmail.com</t>
+        </is>
+      </c>
       <c r="K70" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -6201,24 +6345,18 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 589659.37, 'por_articulo': {'Combustibles': {'total': 117311.85, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 117311.85}]}, 'Gastos de comida': {'total': 472347.52, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 390868.24}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 81479.28}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 158775.05, 'por_articulo': {'Combustibles': {'total': 168781.62, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 168781.62}]}, 'Gastos Varios': {'total': -41781.82, 'items': [{'fecha': '2025-10-09', 'proveedor': 'JUMAELECTRIC SA', 'comprobante': 'FGAS 7 56283', 'leyenda': 'IGNACIO MERLO - PAGO', 'importe': -32965.29}, {'fecha': '2025-10-27', 'proveedor': 'JUAN VALINOTI S.A.', 'comprobante': 'FGAS 8 24280', 'leyenda': 'NACHO MERLO (PAGO)', 'importe': -8816.53}]}, 'Gastos de comida': {'total': 40105.83, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 40105.83}]}, 'Mantenimiento': {'total': -8330.58, 'items': [{'fecha': '2025-10-07', 'proveedor': 'JUAN VALINOTI S.A.', 'comprobante': 'FGAS 8 24002', 'leyenda': 'IGNACIO MERLO - PAGO', 'importe': -8330.58}]}}}, '2025-11': {'total_mes': -13478.269999999997, 'por_articulo': {'Gastos Varios': {'total': -17498.73, 'items': [{'fecha': '2025-11-14', 'proveedor': 'LA PLATA CERAMICOS SA', 'comprobante': 'FGAS 39 39778', 'leyenda': 'NACHO MERLO (PAGO)', 'importe': -17498.73}]}, 'Gastos de comida': {'total': 35177.58, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 35177.58}]}, 'Mantenimiento': {'total': -31157.12, 'items': [{'fecha': '2025-11-11', 'proveedor': 'JUAN VALINOTI S.A.', 'comprobante': 'FGAS 8 24498', 'leyenda': 'MATERIALES MERLO PAGO', 'importe': -14752.07}, {'fecha': '2025-11-11', 'proveedor': 'MECANO GANADERO S.A.', 'comprobante': 'FGAS 13 10540', 'leyenda': 'MATERIALES IGNACIO MERLO PAGO', 'importe': -9055.05}, {'fecha': '2025-11-12', 'proveedor': 'MECANO HOUSING S.A.', 'comprobante': 'FGAS 2 2230', 'leyenda': 'MATERIALES MERLO PAGO', 'importe': -7350.0}]}}}}</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -6232,46 +6370,50 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ongaro</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Gustavo Adolfo</t>
+          <t>Franco Martin</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>20-27317622-6</t>
+          <t>20-35235955-7</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Extrusados</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>01-06-2023</t>
+          <t>16-08-2023</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>16-05-1982</t>
+          <t>03-03-1991</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2317452480</t>
+          <t>2317400309</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>martin-toledo@hotmail.com</t>
+        </is>
+      </c>
       <c r="K71" t="n">
         <v>14</v>
       </c>
@@ -6282,24 +6424,18 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 196123.01, 'por_articulo': {'Gastos de comida': {'total': 196123.01, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 100706.6}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 95416.41}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 73921.49, 'por_articulo': {'Gastos de comida': {'total': 73921.49, 'items': [{'fecha': '2025-10-31', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1955', 'leyenda': 'SUPERMERCADO QUIROGA 10/2025', 'importe': 73921.49}]}}}}</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Extrusado</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
@@ -6313,54 +6449,46 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Merlo</t>
+          <t>Ozcariz</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Ignacio Enrique</t>
+          <t>Micaela</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>20-33597236-9</t>
+          <t>27-39590322-0</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>07-08-2023</t>
+          <t>01-09-2023</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>02-03-1988</t>
+          <t>04-06-1996</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>3512254029</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Mitre 948 2°D</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>nachomerlo88@gmail.com</t>
-        </is>
-      </c>
+          <t>2983526492</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>14</v>
       </c>
@@ -6371,77 +6499,87 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 335662.31, 'por_articulo': {'Combustibles': {'total': 115235.49, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 115235.49}]}, 'Gastos de comida': {'total': 289355.64, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 70487.64}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 218868.0}]}, 'Mantenimiento': {'total': -68928.81999999999, 'items': [{'fecha': '2025-08-12', 'proveedor': 'JUAN VALINOTI S.A.', 'comprobante': 'FGAS 8 23175', 'leyenda': 'MATERIALES IGNACIO MERLO PAGO', 'importe': -28419.38}, {'fecha': '2025-08-18', 'proveedor': 'JUAN VALINOTI S.A.', 'comprobante': 'FGAS 8 23258', 'leyenda': 'MATERIALES IGNACIO MERLO PAGO', 'importe': -3439.36}, {'fecha': '2025-08-20', 'proveedor': 'JUAN VALINOTI S.A.', 'comprobante': 'FGAS 8 23277', 'leyenda': 'MATERIALES IGNACIO MERLO PAGO', 'importe': -6041.57}, {'fecha': '2025-08-22', 'proveedor': 'JUAN VALINOTI S.A.', 'comprobante': 'FGAS 8 23324', 'leyenda': 'MATERIALES IGNACIO MERLO PAGO', 'importe': -31028.51}]}}}, '2025-09': {'total_mes': 1431543.94, 'por_articulo': {'Gastos Varios': {'total': 1225138.5999999999, 'items': [{'fecha': '2025-09-08', 'proveedor': 'LA PLATA CERAMICOS SA', 'comprobante': 'FGAS 39 38735', 'leyenda': 'NACHO MERLO (PAGO)', 'importe': -34936.18}, {'fecha': '2025-09-08', 'proveedor': 'LA PLATA CERAMICOS SA', 'comprobante': 'FGAS 39 38736', 'leyenda': 'NACHO MERLO CTA CTE', 'importe': 714114.2}, {'fecha': '2025-09-08', 'proveedor': 'LA PLATA CERAMICOS SA', 'comprobante': 'FGAS 39 38738', 'leyenda': 'NACHO MERLO CTA CTE', 'importe': 590690.12}, {'fecha': '2025-09-11', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 3 327', 'leyenda': 'IGNACIO MERLO - PAGO', 'importe': -44729.54}]}, 'Gastos de comida': {'total': 24960.27, 'items': [{'fecha': '2025-09-05', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26289', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 24960.27}]}, 'Mantenimiento': {'total': 181445.07, 'items': [{'fecha': '2025-09-02', 'proveedor': 'CLERICO VICTOR Y NANNI SILVIA S.H.', 'comprobante': 'FGAS 4 9646', 'leyenda': 'IGNACIO MERLO - PAGO', 'importe': -38941.3}, {'fecha': '2025-09-08', 'proveedor': 'LA PLATA CERAMICOS SA', 'comprobante': 'FGAS 39 38737', 'leyenda': 'NACHO MERLO CTA CTE', 'importe': 435303.14}, {'fecha': '2025-09-11', 'proveedor': 'JUAN VALINOTI S.A.', 'comprobante': 'FGAS 8 23629', 'leyenda': 'IGNACIO MERLO - PAGO', 'importe': -27888.11}, {'fecha': '2025-09-15', 'proveedor': 'EL STUD DEL MENDO S.A.', 'comprobante': 'FGAS 6 2721', 'leyenda': 'IGNACIO MERLO - PAGO', 'importe': -103191.71}, {'fecha': '2025-09-15', 'proveedor': 'EL STUD DEL MENDO S.A.', 'comprobante': 'FGAS 6 2722', 'leyenda': 'IGNACIO MERLO - PAGO', 'importe': -79800.2}, {'fecha': '2025-09-16', 'proveedor': 'CLERICO VICTOR Y NANNI SILVIA S.H.', 'comprobante': 'FGAS 4 9756', 'leyenda': 'IGNACIO MERLO - PAGO', 'importe': -4036.75}]}}}}</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 55628.83, 'por_articulo': {'Combustibles': {'total': 55628.83, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 55628.83}]}}}, '2025-11': {'total_mes': 60641.06, 'por_articulo': {'Gastos de comida': {'total': 60641.06, 'items': [{'fecha': '2025-11-04', 'proveedor': 'CODEANA S.A.S.', 'comprobante': 'FGAS 3 285', 'leyenda': 'SUPER TRENQUE LAUQUEN 10/2025', 'importe': 60641.06}]}}}}</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Trenque Lauquen</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
       <c r="AA72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Toledo</t>
+          <t>Burela</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Franco Martin</t>
+          <t>Juan Ignacio</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>20-35235955-7</t>
+          <t>20-40978659-7</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Extrusados</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>16-08-2023</t>
+          <t>02-01-2024</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>03-03-1991</t>
+          <t>15-03-1998</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2317400309</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
+          <t>2317532224</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Corriente 1447</t>
+        </is>
+      </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>martin-toledo@hotmail.com</t>
+          <t>juanburela46@gmail.com</t>
         </is>
       </c>
       <c r="K73" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -6450,18 +6588,18 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 95181.82, 'por_articulo': {'Gastos de comida': {'total': 95181.82, 'items': [{'fecha': '2025-08-30', 'proveedor': 'MORTARINI ROMAN ESTEBAN', 'comprobante': 'FGAS 3 1943', 'leyenda': 'SUPERMERCADO QUIROGA', 'importe': 95181.82}]}}}}</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 344635.9, 'por_articulo': {'Combustibles': {'total': 124944.58, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 124944.58}]}, 'Gastos de comida': {'total': 219691.32, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 219691.32}]}}}}</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
@@ -6475,48 +6613,52 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ozcariz</t>
+          <t>Giussi</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Micaela</t>
+          <t>Emanuel</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>27-39590322-0</t>
+          <t>20-43970483-8</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>01-09-2023</t>
+          <t>08-01-2024</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>04-06-1996</t>
+          <t>10-01-2002</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2983526492</t>
+          <t>2317509138</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>emanuelgiussi0@gmail.com</t>
+        </is>
+      </c>
       <c r="K74" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -6525,24 +6667,18 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>{'2025-09': {'total_mes': 98112.14, 'por_articulo': {'Gastos de comida': {'total': 98112.14, 'items': [{'fecha': '2025-09-01', 'proveedor': 'CODEANA S.A.S.', 'comprobante': 'FGAS 3 266', 'leyenda': 'GASTOS COMIDA', 'importe': 98112.14}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 110182.79000000001, 'por_articulo': {'Combustibles': {'total': 51152.74, 'items': [{'fecha': '2025-10-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23406', 'leyenda': 'COMBUSTIBLE', 'importe': 9023.24}, {'fecha': '2025-10-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23406', 'leyenda': 'COMBUSTIBLE GIUSSI', 'importe': 42129.5}]}, 'Gastos de comida': {'total': 59030.05, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 59030.05}]}}}, '2025-11': {'total_mes': 151301.04, 'por_articulo': {'Combustibles': {'total': 51857.479999999996, 'items': [{'fecha': '2025-11-14', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 24341', 'leyenda': 'COMBUSTIBLE COTONGO CTA CTE', 'importe': 9302.38}, {'fecha': '2025-11-14', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 24341', 'leyenda': 'COMBUSTIBLE GIUSI CTA CTE', 'importe': 42555.1}]}, 'Gastos de comida': {'total': 99443.56, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 99443.56}]}}}}</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Trenque Lauquen</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="n">
-        <v>0</v>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
@@ -6556,56 +6692,52 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Burela</t>
+          <t>Rodriguez</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Juan Ignacio</t>
+          <t>Rodrigo</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>20-40978659-7</t>
+          <t>23-43106175-9</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Extrusados</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>02-01-2024</t>
+          <t>01-02-2024</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>15-03-1998</t>
+          <t>01-01-2001</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2317532224</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Corriente 1447</t>
-        </is>
-      </c>
+          <t>2317558529</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>juanburela46@gmail.com</t>
+          <t>rodri012011@gmail.com</t>
         </is>
       </c>
       <c r="K75" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -6614,22 +6746,38 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 195781.64, 'por_articulo': {'Gastos de comida': {'total': 195781.64, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 195781.64}]}}}, '2025-09': {'total_mes': 16000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 16000.0, 'items': [{'fecha': '2025-09-12', 'proveedor': 'nan', 'comprobante': 'PVS 10 14425', 'leyenda': 'PAGO ADELANTOS HORAS NOCTURNAS-EXTRUSADOS', 'importe': 16000.0}]}}}}</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 410669.3, 'por_articulo': {'Combustibles': {'total': 121413.09999999999, 'items': [{'fecha': '2025-10-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23408', 'leyenda': 'COMBUSTIBLE RODRIGO RODRIGUEZ', 'importe': 10829.41}, {'fecha': '2025-10-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23408', 'leyenda': 'COMBUSTIBLE RODRIGO RODRIGUEZ', 'importe': 50562.49}, {'fecha': '2025-10-22', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23756', 'leyenda': 'COMBUSTIBLE RODRIGO RODRIGUEZ', 'importe': 49527.31}, {'fecha': '2025-10-22', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 23756', 'leyenda': 'COMBUSTIBLE RODRIGUEZ RODRIGO', 'importe': 10493.89}]}, 'Gastos de comida': {'total': 289256.2, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 289256.2}]}}}, '2025-11': {'total_mes': 333457.4, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 300000.0, 'items': [{'fecha': '2025-11-25', 'proveedor': 'nan', 'comprobante': 'PVS 10 15356', 'leyenda': 'PAGO ADELANTO RODRIGUEZ RODRIGO', 'importe': 300000.0}]}, 'Gastos de comida': {'total': 33457.4, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 33457.4}]}}}}</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
+      <c r="P75" t="n">
+        <v>200000</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>-200000</v>
+      </c>
+      <c r="T75" t="n">
+        <v>100000</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>01-12-2025</t>
+        </is>
+      </c>
       <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
@@ -6639,22 +6787,22 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Giussi</t>
+          <t>Laxagueborde</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Emanuel</t>
+          <t>Enzo</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>20-43970483-8</t>
+          <t>23-39553512-9</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -6664,27 +6812,23 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>08-01-2024</t>
+          <t>02-04-2024</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10-01-2002</t>
+          <t>03-03-1996</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2317509138</t>
+          <t>2317582205</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>emanuelgiussi0@gmail.com</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -6693,32 +6837,38 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 172500.07, 'por_articulo': {'Combustibles': {'total': 52102.08, 'items': [{'fecha': '2025-08-29', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 22087', 'leyenda': 'COMBUSTIBLE GIUSI CTA CTE', 'importe': 52102.08}]}, 'Gastos de comida': {'total': 120397.99, 'items': [{'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 120397.99}]}}}, '2025-09': {'total_mes': 51998.0, 'por_articulo': {'Combustibles': {'total': 51998.0, 'items': [{'fecha': '2025-09-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 22526', 'leyenda': 'EMANUEL GIUSSI CTA CTE', 'importe': 51998.0}]}}}}</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 597277.4199999999, 'por_articulo': {'Combustibles': {'total': 329800.6, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 329800.6}]}, 'Gastos de comida': {'total': 267476.82, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 267476.82}]}}}, '2025-11': {'total_mes': 131398.76, 'por_articulo': {'Gastos de comida': {'total': 131398.76, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 131398.76}]}}}}</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Acopio</t>
+        </is>
+      </c>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
       <c r="AA76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6728,42 +6878,38 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Rodrigo</t>
+          <t>Franco Emmanuel</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>23-43106175-9</t>
+          <t>20-33746637-1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Extrusados</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>01-02-2024</t>
+          <t>02-05-2024</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>01-01-2001</t>
+          <t>22-04-1988</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2317558529</t>
+          <t>2317583804</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>rodri012011@gmail.com</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -6772,73 +6918,95 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 98018.84, 'por_articulo': {'Combustibles': {'total': 159640.82, 'items': [{'fecha': '2025-08-14', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 21587', 'leyenda': 'COMBUSTIBLE RODRIGO CTA CTE', 'importe': 106812.15}, {'fecha': '2025-08-29', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 22089', 'leyenda': 'RODRIGO RODRIGUEZ (CTA CTE)', 'importe': 52828.67}]}, 'Gastos Varios': {'total': -61621.98, 'items': [{'fecha': '2025-08-13', 'proveedor': 'MARIANO JUAN', 'comprobante': 'FGAS 4 1884', 'leyenda': 'RODRIGO RODRIGUEZ PAGO', 'importe': -61621.98}]}}}, '2025-09': {'total_mes': 63764.23, 'por_articulo': {'Combustibles': {'total': 63764.23, 'items': [{'fecha': '2025-09-15', 'proveedor': 'DJGM COMBUSTIBLES S.A', 'comprobante': 'FGAS 6 22528', 'leyenda': 'RODRIGO RODRIGUEZ CTA CTE', 'importe': 63764.23}]}}}}</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 180604.1, 'por_articulo': {'Combustibles': {'total': 180604.1, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 180604.1}]}}}, '2025-11': {'total_mes': 91815.11, 'por_articulo': {'Gastos de comida': {'total': 91815.11, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 91815.11}]}}}}</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
+      <c r="P77" t="n">
+        <v>6732285.52</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>30</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1794803</v>
+      </c>
+      <c r="S77" t="n">
+        <v>-4937482.52</v>
+      </c>
+      <c r="T77" t="n">
+        <v>224350.5</v>
+      </c>
+      <c r="U77" t="n">
+        <v>22</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>07-08-2027</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Extrusado</t>
+        </is>
+      </c>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
+      <c r="Z77" t="n">
+        <v>0</v>
+      </c>
       <c r="AA77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Laxagueborde</t>
+          <t>Utello</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Enzo</t>
+          <t>Miguel Angel</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>23-39553512-9</t>
+          <t>20-33333843-3</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Extrusados</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>02-04-2024</t>
+          <t>02-05-2024</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>03-03-1996</t>
+          <t>12-05-1987</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2317582205</t>
+          <t>2317405943</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -6847,79 +7015,87 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 517974.88, 'por_articulo': {'Combustibles': {'total': 152788.1, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 152788.1}]}, 'Gastos de comida': {'total': 365186.78, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 266992.33}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 98194.45}]}}}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Acopio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Extrusado</t>
+        </is>
+      </c>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
+      <c r="Z78" t="n">
+        <v>0</v>
+      </c>
       <c r="AA78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Mario</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Franco Emmanuel</t>
+          <t>Facundo Daniel</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>20-33746637-1</t>
+          <t>20-33171730-5</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Extrusados</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>02-05-2024</t>
+          <t>22-05-2024</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>22-04-1988</t>
+          <t>20-07-1987</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2317583804</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+          <t>2317508235</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Azcuenaga 704</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>totaronymona@gmail.com</t>
+        </is>
+      </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -6928,89 +7104,83 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 308200.8, 'por_articulo': {'Combustibles': {'total': 108450.2, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 108450.2}]}, 'Gastos de comida': {'total': 199750.6, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 160547.1}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 39203.5}]}}}, '2025-09': {'total_mes': 200000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 200000.0, 'items': [{'fecha': '2025-09-12', 'proveedor': 'nan', 'comprobante': 'PVS 10 14425', 'leyenda': 'PAGO ADELANTOS HORAS NOCTURNAS-EXTRUSADOS', 'importe': 200000.0}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 163454.58, 'por_articulo': {'Combustibles': {'total': 163454.58, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 163454.58}]}}}}</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Extrusado</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
+      <c r="P79" t="n">
+        <v>480000</v>
+      </c>
       <c r="Q79" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>200000</v>
+      </c>
+      <c r="S79" t="n">
+        <v>-280000</v>
+      </c>
+      <c r="T79" t="n">
+        <v>100000</v>
+      </c>
       <c r="U79" t="n">
-        <v>6732285.52</v>
-      </c>
-      <c r="V79" t="n">
-        <v>30</v>
-      </c>
-      <c r="W79" t="n">
-        <v>1570452.5</v>
-      </c>
-      <c r="X79" t="n">
-        <v>-5161833.02</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>224350.5</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA79" t="inlineStr">
-        <is>
-          <t>07-08-2027</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>01-12-2025</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Utello</t>
+          <t>Veliz</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Miguel Angel</t>
+          <t>Kevin Sebastian</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>20-33333843-3</t>
+          <t>20-38401596-5</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Extrusados</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>02-05-2024</t>
+          <t>01-07-2024</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>12-05-1987</t>
+          <t>24-07-1994</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2317405943</t>
+          <t>2317557077</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -7025,87 +7195,103 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>{'2025-09': {'total_mes': 75000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 75000.0, 'items': [{'fecha': '2025-09-12', 'proveedor': 'nan', 'comprobante': 'PVS 10 14425', 'leyenda': 'PAGO ADELANTOS HORAS NOCTURNAS-EXTRUSADOS', 'importe': 75000.0}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 293822.28, 'por_articulo': {'Gastos de comida': {'total': 100927.94, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 100927.94}]}, 'Prepagas': {'total': 192894.34, 'items': [{'fecha': '2025-10-31', 'proveedor': 'ASOC. MUTUAL SANCOR SALUD', 'comprobante': 'FGAS 112 189112', 'leyenda': 'OBRA SOCIAL 11/2025', 'importe': 192894.34}]}}}, '2025-11': {'total_mes': 9637.65, 'por_articulo': {'Gastos de comida': {'total': 9637.65, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 9637.65}]}}}}</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Extrusado</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
+      <c r="P80" t="n">
+        <v>1194338.44</v>
+      </c>
       <c r="Q80" t="n">
-        <v>0</v>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="R80" t="n">
+        <v>798000</v>
+      </c>
+      <c r="S80" t="n">
+        <v>-396338.44</v>
+      </c>
+      <c r="T80" t="n">
+        <v>133000</v>
+      </c>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>08-01-2026</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
+      <c r="Z80" t="n">
+        <v>0</v>
+      </c>
       <c r="AA80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mario</t>
+          <t>Pellegrotti</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Facundo Daniel</t>
+          <t>Raul Eduardo</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>20-33171730-5</t>
+          <t>20-35094783-4</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Extrusados</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>22-05-2024</t>
+          <t>01-07-2024</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>20-07-1987</t>
+          <t>24-10-1992</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2317508235</t>
+          <t>2317452668</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Azcuenaga 704</t>
+          <t>Av. Agustin Alvarez 369</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>totaronymona@gmail.com</t>
+          <t>raulpellegrotti@yahoo.com.ar</t>
         </is>
       </c>
       <c r="K81" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -7114,83 +7300,95 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 170947.84, 'por_articulo': {'Combustibles': {'total': 170947.84, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 170947.84}]}}}}</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 204799.0, 'por_articulo': {'Combustibles': {'total': 4386.6, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 4386.6}]}, 'Gastos de comida': {'total': 200412.4, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 200412.4}]}}}, '2025-11': {'total_mes': 43172.25, 'por_articulo': {'Gastos de comida': {'total': 43172.25, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 43172.25}]}}}}</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
+      <c r="P81" t="n">
+        <v>700000</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>-700000</v>
+      </c>
+      <c r="T81" t="n">
+        <v>700000</v>
+      </c>
       <c r="U81" t="n">
-        <v>480000</v>
-      </c>
-      <c r="V81" t="n">
-        <v>4</v>
-      </c>
-      <c r="W81" t="n">
-        <v>100000</v>
-      </c>
-      <c r="X81" t="n">
-        <v>-380000</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>100000</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA81" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="V81" t="inlineStr">
         <is>
           <t>01-12-2025</t>
         </is>
       </c>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Veliz</t>
+          <t>Barrere</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Kevin Sebastian</t>
+          <t>Francisco</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>20-38401596-5</t>
+          <t>20-34876700-4</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>01-07-2024</t>
+          <t>17-07-2024</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>24-07-1994</t>
+          <t>10-03-1990</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2317557077</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+          <t>2392617494</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Villegas 883  2° B</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>franciscob@nutralmix.com.ar</t>
+        </is>
+      </c>
       <c r="K82" t="n">
         <v>14</v>
       </c>
@@ -7201,69 +7399,47 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 346032.46, 'por_articulo': {'Gastos de comida': {'total': 159966.98, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 140364.48}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 19602.5}]}, 'Prepagas': {'total': 186065.48, 'items': [{'fecha': '2025-08-31', 'proveedor': 'ASOC. MUTUAL SANCOR SALUD', 'comprobante': 'FGAS 112 180062', 'leyenda': 'PREPAGAS', 'importe': 186065.48}]}}}, '2025-09': {'total_mes': 100000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 100000.0, 'items': [{'fecha': '2025-09-19', 'proveedor': 'nan', 'comprobante': 'PVS 10 14505', 'leyenda': 'PAGO ADELANTOS EMPLEADOS', 'importe': 50000.0}, {'fecha': '2025-09-26', 'proveedor': 'nan', 'comprobante': 'PVS 10 14607', 'leyenda': 'ADELANTO DE SUELDOS', 'importe': 50000.0}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 110841.63, 'por_articulo': {'Combustibles': {'total': 110841.63, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 110841.63}]}}}, '2025-11': {'total_mes': 90105.08, 'por_articulo': {'Gastos de comida': {'total': 90105.08, 'items': [{'fecha': '2025-11-04', 'proveedor': 'CODEANA S.A.S.', 'comprobante': 'FGAS 3 285', 'leyenda': 'SUPER TRENQUE LAUQUEN 10/2025', 'importe': 90105.08}]}}}}</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="n">
-        <v>0</v>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
-      <c r="U82" t="n">
-        <v>1194338.44</v>
-      </c>
-      <c r="V82" t="n">
-        <v>9</v>
-      </c>
-      <c r="W82" t="n">
-        <v>665000</v>
-      </c>
-      <c r="X82" t="n">
-        <v>-529338.4399999999</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>133000</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA82" t="inlineStr">
-        <is>
-          <t>08-01-2026</t>
-        </is>
-      </c>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Pellegrotti</t>
+          <t>Maruff</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Raul Eduardo</t>
+          <t>Joana Alejandra</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>20-35094783-4</t>
+          <t>27-35096647-7</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -7273,39 +7449,39 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>01-07-2024</t>
+          <t>02-09-2024</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>24-10-1992</t>
+          <t>25-08-1990</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2317452668</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Av. Agustin Alvarez 369</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>raulpellegrotti@yahoo.com.ar</t>
-        </is>
-      </c>
+          <t>2317485242</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>Activo</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>{'2025-10': {'total_mes': 94147.6, 'por_articulo': {'Gastos de comida': {'total': 94147.6, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 94147.6}]}}}, '2025-11': {'total_mes': 154769.91, 'por_articulo': {'Gastos de comida': {'total': 154769.91, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 154769.91}]}}}}</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
@@ -7314,65 +7490,63 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Extrusado</t>
+        </is>
+      </c>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
+      <c r="Z83" t="n">
+        <v>0</v>
+      </c>
       <c r="AA83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Barrere</t>
+          <t>Gavalda</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Francisco</t>
+          <t>Tomas</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>20-34876700-4</t>
+          <t>20-39292080-4</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Logistica</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>17-07-2024</t>
+          <t>09-09-2024</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10-03-1990</t>
+          <t>02-05-1997</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2392503913</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Villegas 883  2° B</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>franciscob@nutralmix.com.ar</t>
-        </is>
-      </c>
+          <t>2317474365</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -7381,47 +7555,53 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 34099.31, 'por_articulo': {'Combustibles': {'total': 34099.31, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 34099.31}]}}}, '2025-09': {'total_mes': 82598.74, 'por_articulo': {'Gastos de comida': {'total': 82598.74, 'items': [{'fecha': '2025-09-01', 'proveedor': 'CODEANA S.A.S.', 'comprobante': 'FGAS 3 266', 'leyenda': 'GASTOS COMIDA', 'importe': 82598.74}]}}}}</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr"/>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
+      <c r="Z84" t="n">
+        <v>0</v>
+      </c>
       <c r="AA84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Maruff</t>
+          <t>Cufre</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Joana Alejandra</t>
+          <t>Ignacio Nicolas</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>27-35096647-7</t>
+          <t>20-38603314-6</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -7431,23 +7611,23 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>02-09-2024</t>
+          <t>16-09-2024</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>25-08-1990</t>
+          <t>18-04-1996</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2317485242</t>
+          <t>2317583257</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -7456,77 +7636,81 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 203272.40000000002, 'por_articulo': {'Gastos de comida': {'total': 203272.40000000002, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 82439.69}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 120832.71}]}}}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Extrusado</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="n">
-        <v>0</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Extrusado</t>
+        </is>
+      </c>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
+      <c r="Z85" t="n">
+        <v>0</v>
+      </c>
       <c r="AA85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Gavalda</t>
+          <t>Moreno</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Tomas</t>
+          <t>Juan Manuel</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>20-39292080-4</t>
+          <t>20-35795012-1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Logistica</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>09-09-2024</t>
+          <t>02-12-2024</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>02-05-1997</t>
+          <t>21-02-1991</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2317474365</t>
+          <t>2392548263</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>juan_212_209@hotmail.com</t>
+        </is>
+      </c>
       <c r="K86" t="n">
         <v>14</v>
       </c>
@@ -7537,28 +7721,38 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'2025-10': {'total_mes': 133450.36, 'por_articulo': {'Prepagas': {'total': 133450.36, 'items': [{'fecha': '2025-10-31', 'proveedor': 'ASOC. MUTUAL SANCOR SALUD', 'comprobante': 'FGAS 112 189112', 'leyenda': 'OBRA SOCIAL 11/2025', 'importe': 133450.36}]}}}, '2025-11': {'total_mes': 246677.3, 'por_articulo': {'Gastos de comida': {'total': 246677.3, 'items': [{'fecha': '2025-11-04', 'proveedor': 'CODEANA S.A.S.', 'comprobante': 'FGAS 3 285', 'leyenda': 'SUPER TRENQUE LAUQUEN 10/2025', 'importe': 246677.3}]}}}}</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
+      <c r="P86" t="n">
+        <v>350000</v>
+      </c>
       <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
         <v>0</v>
       </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
+      <c r="S86" t="n">
+        <v>-350000</v>
+      </c>
+      <c r="T86" t="n">
+        <v>175000</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>01-01-2026</t>
+        </is>
+      </c>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
@@ -7568,48 +7762,48 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Cufre</t>
+          <t>Sosa</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ignacio Nicolas</t>
+          <t>Damian</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>20-38603314-6</t>
+          <t>20-38406033-2</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Extrusados</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>16-09-2024</t>
+          <t>01-01-2025</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18-04-1996</t>
+          <t>17-09-1994</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2317583257</t>
+          <t>2317503299</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -7618,24 +7812,18 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 137016.31, 'por_articulo': {'Combustibles': {'total': 137016.31, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 137016.31}]}}}, '2025-09': {'total_mes': 95000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 95000.0, 'items': [{'fecha': '2025-09-12', 'proveedor': 'nan', 'comprobante': 'PVS 10 14425', 'leyenda': 'PAGO ADELANTOS HORAS NOCTURNAS-EXTRUSADOS', 'importe': 95000.0}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 322481.04, 'por_articulo': {'Combustibles': {'total': 115572.83, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 115572.83}]}, 'Gastos de comida': {'total': 206908.21, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 206908.21}]}}}, '2025-11': {'total_mes': 100000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 100000.0, 'items': [{'fecha': '2025-11-26', 'proveedor': 'nan', 'comprobante': 'PVS 10 15372', 'leyenda': 'PAGO ADELANTO SOSA DAMIAN', 'importe': 100000.0}]}}}}</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Extrusado</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="n">
-        <v>0</v>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
@@ -7649,52 +7837,48 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Moreno</t>
+          <t>Diaz</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Juan Manuel</t>
+          <t>Federico</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>20-35795012-1</t>
+          <t>20-39291932-6</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Logistica</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>02-12-2024</t>
+          <t>13-01-2025</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>21/02/1991</t>
+          <t>19-12-1996</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2392548263</t>
+          <t>2317465748</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>juan_212_209@hotmail.com</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -7703,10 +7887,14 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 121351.04, 'por_articulo': {'Prepagas': {'total': 121351.04, 'items': [{'fecha': '2025-08-31', 'proveedor': 'ASOC. MUTUAL SANCOR SALUD', 'comprobante': 'FGAS 112 180062', 'leyenda': 'PREPAGAS', 'importe': 121351.04}]}}}, '2025-09': {'total_mes': 239017.07, 'por_articulo': {'Gastos de comida': {'total': 239017.07, 'items': [{'fecha': '2025-09-01', 'proveedor': 'CODEANA S.A.S.', 'comprobante': 'FGAS 3 266', 'leyenda': 'GASTOS COMIDA', 'importe': 239017.07}]}}}}</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 137865.15, 'por_articulo': {'Combustibles': {'total': 56677.81, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 56677.81}]}, 'Gastos de comida': {'total': 81187.34, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 81187.34}]}}}, '2025-11': {'total_mes': 98288.09, 'por_articulo': {'Gastos de comida': {'total': 98288.09, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 78833.59}, {'fecha': '2025-11-19', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27546', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 19454.5}]}}}}</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
@@ -7715,31 +7903,37 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
+      <c r="Z88" t="n">
+        <v>0</v>
+      </c>
       <c r="AA88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sosa</t>
+          <t>Grenillon</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Damian</t>
+          <t>Raul Alberto</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>20-38406033-2</t>
+          <t>20-32527235-0</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -7749,23 +7943,23 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>01-01-2025</t>
+          <t>10-02-2025</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>17/09/1994</t>
+          <t>19-07-1986</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2317503299</t>
+          <t>2317558260</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -7774,10 +7968,14 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 312757.02999999997, 'por_articulo': {'Combustibles': {'total': 119758.86, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 119758.86}]}, 'Gastos de comida': {'total': 192998.16999999998, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 167620.09}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 25378.08}]}}}}</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 102326.11, 'por_articulo': {'Combustibles': {'total': 102326.11, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF RUTA', 'importe': 102326.11}]}}}, '2025-11': {'total_mes': 7213.12, 'por_articulo': {'Gastos de comida': {'total': 7213.12, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 7213.12}]}}}}</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
@@ -7786,57 +7984,67 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Acopio</t>
+        </is>
+      </c>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
+      <c r="Z89" t="n">
+        <v>0</v>
+      </c>
       <c r="AA89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Diaz</t>
+          <t>Portela</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Federico</t>
+          <t>Nahuel Ezequiel</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>20-39291932-6</t>
+          <t>20-37425649-2</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Logistica</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>13-01-2025</t>
+          <t>07-04-2025</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>19-12-1996</t>
+          <t>11-03-1993</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2317465748</t>
+          <t>2392541242</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>nahuelportela2018@gmail.com</t>
+        </is>
+      </c>
       <c r="K90" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -7845,24 +8053,18 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 162579.63, 'por_articulo': {'Combustibles': {'total': 53023.58, 'items': [{'fecha': '2025-08-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1792068', 'leyenda': 'COMBUSIBLE YPF EN RUTA', 'importe': 53023.58}]}, 'Gastos de comida': {'total': 109556.05, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 88260.16}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 21295.89}]}}}, '2025-09': {'total_mes': 46940.93, 'por_articulo': {'Gastos de comida': {'total': 46940.93, 'items': [{'fecha': '2025-09-05', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26289', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 46940.93}]}}}}</t>
+          <t>{'2025-10': {'total_mes': 64394.68, 'por_articulo': {'Prepagas': {'total': 64394.68, 'items': [{'fecha': '2025-10-31', 'proveedor': 'ASOC. MUTUAL SANCOR SALUD', 'comprobante': 'FGAS 112 189112', 'leyenda': 'OBRA SOCIAL 11/2025', 'importe': 64394.68}]}}}, '2025-11': {'total_mes': 111940.82, 'por_articulo': {'Gastos de comida': {'total': 111940.82, 'items': [{'fecha': '2025-11-04', 'proveedor': 'CODEANA S.A.S.', 'comprobante': 'FGAS 3 285', 'leyenda': 'SUPER TRENQUE LAUQUEN 10/2025', 'importe': 111940.82}]}}}}</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="n">
-        <v>0</v>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
@@ -7876,48 +8078,48 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Grenillon</t>
+          <t>Castellanos</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Raul Alberto</t>
+          <t>Yanina Raquel</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>20-32527235-0</t>
+          <t>27-28433448-0</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Administracion</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>10-02-2025</t>
+          <t>05-05-2025</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>19-07-1986</t>
+          <t>21-12-1980</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2317558260</t>
+          <t>2317458354</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -7926,53 +8128,53 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 39139.34, 'por_articulo': {'Gastos de comida': {'total': 39139.34, 'items': [{'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 39139.34}]}}}}</t>
+          <t>{'2025-10': {'total_mes': -95776.59000000001, 'por_articulo': {'Gastos Varios': {'total': -95776.59000000001, 'items': [{'fecha': '2025-10-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 181 73779', 'leyenda': 'CASTELLANOS - PAGO', 'importe': -33256.91}, {'fecha': '2025-10-01', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 181 73780', 'leyenda': 'CASTELLANOS - PAGO', 'importe': -15994.41}, {'fecha': '2025-10-03', 'proveedor': 'PINTURERIA PINTAR S.R.L.', 'comprobante': 'FGAS 3 30871', 'leyenda': 'CASTELLANOS - PAGO', 'importe': -30988.91}, {'fecha': '2025-10-18', 'proveedor': 'PINTURERIA PINTAR S.R.L.', 'comprobante': 'FGAS 3 31131', 'leyenda': 'CASTELLANOS - PAGO', 'importe': -15536.36}]}}}, '2025-11': {'total_mes': 135464.4, 'por_articulo': {'Gastos Varios': {'total': -22363.75, 'items': [{'fecha': '2025-11-10', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 5 236311', 'leyenda': 'CASTELLANOS - PAGO', 'importe': -8479.63}, {'fecha': '2025-11-23', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 3658 221', 'leyenda': 'CASTELLANOS - PAGO', 'importe': -13884.12}]}, 'Gastos de comida': {'total': 157828.15, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 146968.62}, {'fecha': '2025-11-10', 'proveedor': 'AUTOSERVICIO MAYORISTA DIARCO SA', 'comprobante': 'FGAS 3704 1833', 'leyenda': 'CASTELLANOS - PAGO', 'importe': -35972.65}, {'fecha': '2025-11-19', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27546', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 46832.18}]}}}}</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Acopio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="n">
-        <v>0</v>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>9 de Julio</t>
+        </is>
+      </c>
       <c r="X91" t="inlineStr"/>
       <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
+      <c r="Z91" t="n">
+        <v>0</v>
+      </c>
       <c r="AA91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Portela</t>
+          <t>Castro</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Nahuel Ezequiel</t>
+          <t xml:space="preserve">Joaquin Ezequiel </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>20-37425649-2</t>
+          <t>20-32527287-3</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -7982,23 +8184,27 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>07-04-2025</t>
+          <t>02-06-2025</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>11-03-1993</t>
+          <t>17-02-1986</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2392541242</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr"/>
+          <t>2317538456</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Echeverría 1363</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>nahuelportela2018@gmail.com</t>
+          <t>joakcastro12345@gmail.com</t>
         </is>
       </c>
       <c r="K92" t="n">
@@ -8011,10 +8217,14 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 59231.63, 'por_articulo': {'Prepagas': {'total': 59231.63, 'items': [{'fecha': '2025-08-31', 'proveedor': 'ASOC. MUTUAL SANCOR SALUD', 'comprobante': 'FGAS 112 180062', 'leyenda': 'PREPAGAS', 'importe': 59231.63}]}}}, '2025-09': {'total_mes': 94680.98, 'por_articulo': {'Gastos de comida': {'total': 94680.98, 'items': [{'fecha': '2025-09-01', 'proveedor': 'CODEANA S.A.S.', 'comprobante': 'FGAS 3 266', 'leyenda': 'GASTOS COMIDA', 'importe': 94680.98}]}}}}</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 378569.92, 'por_articulo': {'Combustibles': {'total': 59248.7, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 59248.7}]}, 'Gastos de comida': {'total': 319321.22, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 319321.22}]}}}, '2025-11': {'total_mes': 256312.82, 'por_articulo': {'Gastos de comida': {'total': 256312.82, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 256312.82}]}}}}</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
@@ -8032,46 +8242,54 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Castellanos</t>
+          <t>Del Pino</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Yanina Raquel</t>
+          <t>Maria Soledad</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>27-28433448-0</t>
+          <t>27-29597820-7</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Administracion</t>
+          <t>Maestranza</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>05-05-2025</t>
+          <t>10-06-2025</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>21-12-1980</t>
+          <t>07-07-1982</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2317458354</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+          <t>2317557647</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Fonavi 2 sector D N°36</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>soledaddelpino321@gmail.com</t>
+        </is>
+      </c>
       <c r="K93" t="n">
         <v>14</v>
       </c>
@@ -8082,24 +8300,18 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 61077.179999999986, 'por_articulo': {'Gastos Varios': {'total': -79664.65, 'items': [{'fecha': '2025-08-22', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 1 570', 'leyenda': 'CASTELLANOS (PAGO)', 'importe': -73500.0}, {'fecha': '2025-08-30', 'proveedor': 'OCASIONAL', 'comprobante': 'FGAS 4430 3755', 'leyenda': 'CASTELLANOS (PAGO)', 'importe': -6164.65}]}, 'Gastos de comida': {'total': 140741.83, 'items': [{'fecha': '2025-08-23', 'proveedor': 'AUTOSERVICIO MAYORISTA DIARCO SA', 'comprobante': 'FGAS 3703 121', 'leyenda': 'CASTELLANOS (PAGO)', 'importe': -32273.13}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 173014.96}]}}}, '2025-09': {'total_mes': 53705.37, 'por_articulo': {'Gastos Varios': {'total': -4913.3, 'items': [{'fecha': '2025-09-09', 'proveedor': 'GUTIERREZ EMILIO F. Y POMAR FACUNDO A. S. CAP I SE', 'comprobante': 'FGAS 2 8758', 'leyenda': 'CASTELLANOS - PAGO', 'importe': -4913.3}]}, 'Gastos de comida': {'total': 58618.670000000006, 'items': [{'fecha': '2025-09-05', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26281', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 63484.55}, {'fecha': '2025-09-10', 'proveedor': 'AUTOSERVICIO MAYORISTA DIARCO SA', 'comprobante': 'FGAS 3704 95', 'leyenda': 'CASTELLANOS (PAGO)', 'importe': -4865.88}]}}}}</t>
+          <t>{'2025-11': {'total_mes': 26741.1, 'por_articulo': {'Gastos de comida': {'total': 26741.1, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 26741.1}]}}}}</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>9 de Julio</t>
+          <t>empleado</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="n">
-        <v>0</v>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr"/>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
@@ -8113,22 +8325,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>Lazarte</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Joaquin Ezequiel </t>
+          <t>Gonzalo Ariel</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>20-32527287-3</t>
+          <t>20-38932154-1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -8138,31 +8350,31 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>04-08-2025</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>17/02/1986</t>
+          <t>22-03-1996</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2317538456</t>
+          <t>2392558427</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Echeverría 1363</t>
+          <t>Av. Antonio Aita 698</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>joakcastro12345@gmail.com</t>
+          <t>lazartegonzalo72@gmail.com</t>
         </is>
       </c>
       <c r="K94" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -8171,10 +8383,14 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 581237.37, 'por_articulo': {'Gastos de comida': {'total': 581237.37, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 329678.22}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 251559.15}]}}}, '2025-09': {'total_mes': 115000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 115000.0, 'items': [{'fecha': '2025-09-12', 'proveedor': 'nan', 'comprobante': 'PVS 10 14425', 'leyenda': 'PAGO ADELANTOS HORAS NOCTURNAS-EXTRUSADOS', 'importe': 115000.0}]}}}}</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 97450.36, 'por_articulo': {'Gastos de comida': {'total': 97450.36, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 97450.36}]}}}, '2025-11': {'total_mes': 100823.13, 'por_articulo': {'Gastos de comida': {'total': 100823.13, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 100823.13}]}}}}</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
@@ -8192,56 +8408,56 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Del Pino</t>
+          <t>Moreno</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Maria Soledad</t>
+          <t>Camila</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>27-29597820-7</t>
+          <t>27-37032846-9</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Maestranza</t>
+          <t>Calidad</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>04-08-2025</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1982-07-07</t>
+          <t>08-07-1993</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2317557647</t>
+          <t>2392404692</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Fonavi 2 sector D N°36</t>
+          <t>Av. Antonio Aita 698</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>soledaddelpino321@gmail.com</t>
+          <t>cami.morenocucurull@gmail.com</t>
         </is>
       </c>
       <c r="K95" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -8250,18 +8466,18 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>{'2025-09': {'total_mes': 26485.25, 'por_articulo': {'Gastos de comida': {'total': 26485.25, 'items': [{'fecha': '2025-09-18', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26470', 'leyenda': 'COMPRA QUESO LA BLANQUEADA', 'importe': 26485.25}]}}}}</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 212970.17, 'por_articulo': {'Gastos de comida': {'total': 212970.17, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 212970.17}]}}}, '2025-11': {'total_mes': 147960.28, 'por_articulo': {'Gastos de comida': {'total': 147960.28, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 147960.28}]}}}}</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>empleado</t>
-        </is>
-      </c>
+      <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
@@ -8275,56 +8491,56 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Lazarte</t>
+          <t>Fimiani</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Gonzalo Ariel</t>
+          <t>Juan Manuel</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>20-38932154-1</t>
+          <t>20-31856134-7</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Operaciones</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>04/08/2025</t>
+          <t>05-08-2025</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>22/03/1996</t>
+          <t>05-07-1980</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2392558427</t>
+          <t>1162566132</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Av. Antonio Aita 698</t>
+          <t>Castex 3330 4 F</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>lazartegonzalo72@gmail.com</t>
+          <t>jmfim@hotmail.com</t>
         </is>
       </c>
       <c r="K96" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -8333,10 +8549,14 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 88426.21, 'por_articulo': {'Gastos de comida': {'total': 88426.21, 'items': [{'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 88426.21}]}}}, '2025-09': {'total_mes': 40000.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': 40000.0, 'items': [{'fecha': '2025-09-12', 'proveedor': 'nan', 'comprobante': 'PVS 10 14425', 'leyenda': 'PAGO ADELANTOS HORAS NOCTURNAS-EXTRUSADOS', 'importe': 40000.0}]}}}}</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr"/>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="inlineStr"/>
@@ -8354,56 +8574,56 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Moreno</t>
+          <t>Ferrer</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Camila</t>
+          <t>Maria Juliana</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>27-37032846-9</t>
+          <t>27-29930503-7</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t xml:space="preserve">Administración </t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-08-04</t>
+          <t>01-09-2025</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1993-07-08</t>
+          <t>12-10-1982</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2392404692</t>
+          <t>2345424446</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Av. Antonio Aita 698</t>
+          <t>Heredia 947</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>cami.morenocucurull@gmail.com</t>
+          <t>ferrerjuli@gmail.com</t>
         </is>
       </c>
       <c r="K97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -8412,10 +8632,14 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>{'2025-08': {'total_mes': 234269.25, 'por_articulo': {'Gastos de comida': {'total': 234269.25, 'items': [{'fecha': '2025-08-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 241', 'leyenda': 'ACTUAL 08/2025', 'importe': 112060.71}, {'fecha': '2025-08-30', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 7998', 'leyenda': 'URSO 08/2025', 'importe': 122208.54}]}}}, '2025-09': {'total_mes': -229500.0, 'por_articulo': {'Adelanto de Sueldos Empleados': {'total': -229500.0, 'items': [{'fecha': '2025-09-08', 'proveedor': 'nan', 'comprobante': 'INGV 10 14300', 'leyenda': 'DEVOLUCION PAGO SULEDO MORENO CAMILA', 'importe': -229500.0}]}}}}</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
+          <t>{'2025-11': {'total_mes': 52597.76, 'por_articulo': {'Gastos de comida': {'total': 52597.76, 'items': [{'fecha': '2025-11-19', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 27546', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 52597.76}]}}}}</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
       <c r="Q97" t="inlineStr"/>
@@ -8433,52 +8657,52 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Fimiani</t>
+          <t>Mortarini</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Juan Manuel</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>20-31856134-7</t>
+          <t>20-46341270-8</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Operaciones</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>30-05-2024</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>1980-07-05</t>
+          <t>29-10-2005</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1162566132</t>
+          <t>2317409670</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Castex 3330 4 F</t>
+          <t>San Luis s/n</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>jmfim@hotmail.com</t>
+          <t>lucasmortarini05@gmail.com</t>
         </is>
       </c>
       <c r="K98" t="n">
@@ -8494,7 +8718,11 @@
           <t>{}</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
@@ -8512,22 +8740,22 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ferrer</t>
+          <t>Arango</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Maria Juliana</t>
+          <t>Hugo Emmanuel</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>27-29930503-7</t>
+          <t>20-36770401-3</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -8537,31 +8765,31 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>22-09-2025</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1982-10-12</t>
+          <t>01-08-1992</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2345424446</t>
+          <t>2392548563</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Heredia 947</t>
+          <t>Uruguay 683</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>ferrerjuli@gmail.com</t>
+          <t>me_manu92@hotmail.com</t>
         </is>
       </c>
       <c r="K99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -8570,10 +8798,14 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>{'2025-09': {'total_mes': 18093.11, 'por_articulo': {'Gastos de comida': {'total': 18093.11, 'items': [{'fecha': '2025-09-05', 'proveedor': 'POLAND S.A.', 'comprobante': 'FGAS 12 26281', 'leyenda': 'COMPRA LA BLANQUEADA', 'importe': 18093.11}]}}}}</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr"/>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
@@ -8591,22 +8823,22 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mortarini</t>
+          <t>Marciano</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Valentin</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>20-46341270-8</t>
+          <t>20-47011393-7</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -8616,27 +8848,27 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2024-05-30</t>
+          <t>14-04-2025</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>29/10/2005</t>
+          <t>05-12-2005</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2317409670</t>
+          <t>2317446433</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>San Luis s/n</t>
+          <t>Levalle 344</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>lucasmortarini05@gmail.com</t>
+          <t>valentinmarciano123@gmail.com</t>
         </is>
       </c>
       <c r="K100" t="n">
@@ -8652,7 +8884,11 @@
           <t>{}</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
       <c r="Q100" t="inlineStr"/>
@@ -8670,56 +8906,56 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>96</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Arango</t>
+          <t>Montero</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Hugo Emmanuel</t>
+          <t>Hugo Hector</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>20-36770401-3</t>
+          <t>20-26736809-1</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administración </t>
+          <t>Mantenimiento</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>07-07-2017</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1992-08-01</t>
+          <t>26-07-1984</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2392 54-8563</t>
+          <t xml:space="preserve"> 2317622491</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Uruguay 683</t>
+          <t>Rafael Obligado 924</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>me_manu92@hotmail.com</t>
+          <t>hugohectormontero@yahoo.com.ar</t>
         </is>
       </c>
       <c r="K101" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -8728,24 +8964,304 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr"/>
+          <t>{'2025-10': {'total_mes': 233664.84, 'por_articulo': {'Combustibles': {'total': 16918.75, 'items': [{'fecha': '2025-10-31', 'proveedor': 'YPF SOCIEDAD ANONIMA', 'comprobante': 'FGAS 2172 1867380', 'leyenda': 'COMBUSTIBLE YPF EN RUTA', 'importe': 16918.75}]}, 'Gastos de comida': {'total': 216746.09, 'items': [{'fecha': '2025-10-29', 'proveedor': 'ATRES S.A.', 'comprobante': 'FGAS 12 253', 'leyenda': 'SUP. ACTUAL 10/2025', 'importe': 216746.09}]}}}, '2025-11': {'total_mes': 138643.9, 'por_articulo': {'Gastos de comida': {'total': 138643.9, 'items': [{'fecha': '2025-11-03', 'proveedor': 'COMPAÑIA URSO HERMANOS SA', 'comprobante': 'FGAS 1 8284', 'leyenda': 'URSO 10/2025', 'importe': 138643.9}]}}}}</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>700000</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>280000</v>
+      </c>
+      <c r="S101" t="n">
+        <v>-420000</v>
+      </c>
+      <c r="T101" t="n">
+        <v>140000</v>
+      </c>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>01-01-2026</t>
+        </is>
+      </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="inlineStr"/>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Alejo Jesus</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>20-43799756-0</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Operaciones</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>11-03-2025</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>19-11-2001</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2317539958</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Sarmiento 177</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>alejoperez539958@gmail.com</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Activo</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Baque</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Fernando</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Administración</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>01-05-1976</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Activo</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Russolo</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Maby</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>20-11-1970</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Activo</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>10002</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Grigera</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>17-01-1970</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Activo</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>empleado</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
